--- a/design file/蚂蚁数值框架.xlsx
+++ b/design file/蚂蚁数值框架.xlsx
@@ -7,17 +7,18 @@
     <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
-    <sheet name="概述" sheetId="1" r:id="rId2"/>
-    <sheet name="建筑数量" sheetId="2" r:id="rId3"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
+    <sheet name="游戏周期" sheetId="5" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId2"/>
+    <sheet name="概述" sheetId="1" r:id="rId3"/>
+    <sheet name="建筑数量" sheetId="2" r:id="rId4"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="128">
   <si>
     <t>一、蚁穴系统</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -344,7 +345,187 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>二、社会数值</t>
+    <t>生命值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>防御力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击速度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击范围</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暴击率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>移动速度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2、战斗单位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.1 防御单位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>简易堡垒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>盔甲巨蚁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发射台</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巨齿蚁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>流沙陷阱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通兵蚁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.2 进攻单位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通战斗蚁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>远程战斗蚁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巨型战斗蚁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地面音波蚁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微型战斗蚁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.1、战斗属性列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.2 属性分配</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建筑等级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蚂蚁等级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>科技系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔法系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>种族系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进化系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>世界系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.3 相关属性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建筑个数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>防御单位个数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进攻单位个数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>游戏时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蚁穴规划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蚁穴等级详情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>升级要求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开放建筑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蚁后室1*1；雄蚁室1*1；工蚁室1*1；卵房1*1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兵蚁室1*1；储存室1*1；工作室1*2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兵蚁室1*1；储存室1*1；工作室1*1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雄蚁室1*1；工蚁室1*</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、建筑分类与数量设定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2、建筑等级设定</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -383,7 +564,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -406,13 +587,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -425,14 +615,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -446,9 +630,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -457,6 +638,27 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -752,25 +954,424 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:A4"/>
+  <dimension ref="A2:N29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:B7"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" t="s">
-        <v>82</v>
-      </c>
+    <row r="2" spans="1:12" s="16" customFormat="1">
+      <c r="A2" s="16" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="1">
+        <v>1</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="C5" s="1">
+        <f>B5</f>
+        <v>0.5</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I5" s="1">
+        <v>5</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="1">
+        <v>2</v>
+      </c>
+      <c r="B6" s="1">
+        <v>2</v>
+      </c>
+      <c r="C6" s="1">
+        <f>B6+B5</f>
+        <v>2.5</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="I6" s="1">
+        <v>4</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="1">
+        <v>3</v>
+      </c>
+      <c r="B7" s="1">
+        <v>5</v>
+      </c>
+      <c r="C7" s="1">
+        <f t="shared" ref="C7:C14" si="0">B7+B6</f>
+        <v>7</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="1">
+        <v>3</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I7" s="1">
+        <v>3</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="1">
+        <v>4</v>
+      </c>
+      <c r="B8" s="1">
+        <v>30</v>
+      </c>
+      <c r="C8" s="1">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="1">
+        <v>4</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="I8" s="1">
+        <v>3</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="L8" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="1">
+        <v>5</v>
+      </c>
+      <c r="B9" s="1">
+        <v>90</v>
+      </c>
+      <c r="C9" s="1">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="1">
+        <v>20</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="I9" s="1">
+        <v>2</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="L9" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="1">
+        <v>6</v>
+      </c>
+      <c r="B10" s="1">
+        <v>200</v>
+      </c>
+      <c r="C10" s="1">
+        <f t="shared" si="0"/>
+        <v>290</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="1">
+        <v>2</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="I10" s="1">
+        <f>SUM(I5:I9)</f>
+        <v>17</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="L10" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="1">
+        <v>7</v>
+      </c>
+      <c r="B11" s="1">
+        <v>400</v>
+      </c>
+      <c r="C11" s="1">
+        <f t="shared" si="0"/>
+        <v>600</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" s="1">
+        <v>8</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="I11" s="3">
+        <v>3</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="L11" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="1">
+        <v>8</v>
+      </c>
+      <c r="B12" s="1">
+        <v>500</v>
+      </c>
+      <c r="C12" s="1">
+        <f t="shared" si="0"/>
+        <v>900</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="1">
+        <v>9</v>
+      </c>
+      <c r="B13" s="1">
+        <v>600</v>
+      </c>
+      <c r="C13" s="1">
+        <f t="shared" si="0"/>
+        <v>1100</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F13" s="1">
+        <f ca="1">SUM(F5:F14)</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="1">
+        <v>10</v>
+      </c>
+      <c r="B14" s="1">
+        <v>800</v>
+      </c>
+      <c r="C14" s="1">
+        <f t="shared" si="0"/>
+        <v>1400</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F14" s="1">
+        <v>49</v>
+      </c>
+      <c r="H14" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" s="16" customFormat="1">
+      <c r="A16" s="16" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
+      <c r="A18" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B18" t="s">
+        <v>120</v>
+      </c>
+      <c r="H18" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
+      <c r="A19" s="1">
+        <v>1</v>
+      </c>
+      <c r="B19" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="I19" s="18"/>
+      <c r="J19" s="18"/>
+      <c r="K19" s="18"/>
+      <c r="L19" s="18"/>
+      <c r="M19" s="18"/>
+      <c r="N19" s="18"/>
+    </row>
+    <row r="20" spans="1:14">
+      <c r="A20" s="1">
+        <v>2</v>
+      </c>
+      <c r="B20" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
+      <c r="H20" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
+      <c r="A21" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
+      <c r="A22" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
+      <c r="A23" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
+      <c r="A24" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
+      <c r="A25" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14">
+      <c r="A26" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14">
+      <c r="A27" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14">
+      <c r="A28" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14">
+      <c r="H29" s="2"/>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B19:G19"/>
+    <mergeCell ref="H19:N19"/>
+    <mergeCell ref="B20:G20"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -778,10 +1379,176 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A2:E29"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="16.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" s="16" customFormat="1"/>
+    <row r="6" spans="1:5">
+      <c r="A6" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="C6" t="s">
+        <v>104</v>
+      </c>
+      <c r="E6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="15"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" s="16" customFormat="1"/>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>90</v>
+      </c>
+      <c r="C20" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" s="16" customFormat="1"/>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:K22"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="L23" sqref="L23"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -896,7 +1663,7 @@
       <c r="F14" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G14" s="14"/>
+      <c r="G14" s="11"/>
       <c r="I14" s="1">
         <v>2</v>
       </c>
@@ -1084,222 +1851,6 @@
       </c>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B3:J15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <cols>
-    <col min="5" max="5" width="10.125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="2:10">
-      <c r="B3" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="4" spans="2:10">
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1">
-        <v>1</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="F4" s="1">
-        <v>5</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="5" spans="2:10">
-      <c r="B5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="1">
-        <v>1</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="F5" s="1">
-        <v>4</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="6" spans="2:10">
-      <c r="B6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="1">
-        <v>3</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="F6" s="1">
-        <v>3</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="7" spans="2:10">
-      <c r="B7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="1">
-        <v>4</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="F7" s="1">
-        <v>3</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="I7" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="2:10">
-      <c r="B8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="1">
-        <v>20</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="F8" s="1">
-        <v>2</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="I8" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="2:10">
-      <c r="B9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="1">
-        <v>2</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="F9" s="1">
-        <f>SUM(F4:F8)</f>
-        <v>17</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="I9" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="2:10">
-      <c r="B10" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="1">
-        <v>8</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="F10" s="3">
-        <v>3</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="I10" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="2:10">
-      <c r="B11" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="2:10">
-      <c r="B12" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C12" s="1">
-        <f ca="1">SUM(C4:C13)</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="13" spans="2:10">
-      <c r="B13" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C13" s="1">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="14" spans="2:10">
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-    </row>
-    <row r="15" spans="2:10">
-      <c r="B15" t="s">
-        <v>52</v>
-      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1310,21 +1861,247 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A2:J18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B18" sqref="A18:XFD18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="5" max="5" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:10" s="16" customFormat="1">
+      <c r="A2" s="16" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="B4" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="B5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F5" s="1">
+        <v>5</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F6" s="1">
+        <v>4</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="B7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="1">
+        <v>3</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F7" s="1">
+        <v>3</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="B8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="1">
+        <v>4</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F8" s="1">
+        <v>3</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="I8" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="B9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="1">
+        <v>20</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F9" s="1">
+        <v>2</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="I9" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="B10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="1">
+        <v>2</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F10" s="1">
+        <f>SUM(F5:F9)</f>
+        <v>17</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="I10" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="B11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="1">
+        <v>8</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F11" s="3">
+        <v>3</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="I11" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="B12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="B13" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C13" s="1">
+        <f ca="1">SUM(C5:C14)</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="B14" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C14" s="1">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="B16" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" s="16" customFormat="1">
+      <c r="A18" s="16" t="s">
+        <v>127</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
@@ -1356,167 +2133,167 @@
       </c>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="5">
+      <c r="A3" s="4">
         <v>0.1</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="9">
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="7">
         <v>1</v>
       </c>
-      <c r="H3" s="10">
+      <c r="H3" s="8">
         <v>3</v>
       </c>
-      <c r="I3" s="10"/>
+      <c r="I3" s="8"/>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="5">
+      <c r="A4" s="4">
         <v>0</v>
       </c>
-      <c r="B4" s="11"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="9">
+      <c r="B4" s="13"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="7">
         <v>1</v>
       </c>
-      <c r="H4" s="10">
+      <c r="H4" s="8">
         <v>4</v>
       </c>
-      <c r="I4" s="7"/>
+      <c r="I4" s="5"/>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="5">
+      <c r="A5" s="4">
         <v>0.03</v>
       </c>
-      <c r="B5" s="11"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="9">
+      <c r="B5" s="13"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="7">
         <v>4</v>
       </c>
-      <c r="H5" s="10">
+      <c r="H5" s="8">
         <v>4</v>
       </c>
-      <c r="I5" s="10"/>
+      <c r="I5" s="8"/>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="12">
+      <c r="A6" s="9">
         <v>0.02</v>
       </c>
-      <c r="B6" s="11"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="9">
+      <c r="B6" s="13"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="7">
         <v>5</v>
       </c>
-      <c r="H6" s="13">
+      <c r="H6" s="10">
         <v>4</v>
       </c>
-      <c r="I6" s="10"/>
+      <c r="I6" s="8"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="12">
+      <c r="A7" s="9">
         <v>0.39</v>
       </c>
-      <c r="B7" s="11"/>
-      <c r="C7" s="10">
+      <c r="B7" s="13"/>
+      <c r="C7" s="8">
         <v>100</v>
       </c>
-      <c r="D7" s="13">
+      <c r="D7" s="10">
         <v>100</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E7" s="7">
         <v>100</v>
       </c>
-      <c r="F7" s="9">
+      <c r="F7" s="7">
         <v>100</v>
       </c>
-      <c r="G7" s="9">
+      <c r="G7" s="7">
         <v>5</v>
       </c>
-      <c r="H7" s="13">
+      <c r="H7" s="10">
         <v>4</v>
       </c>
-      <c r="I7" s="10"/>
+      <c r="I7" s="8"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="12">
+      <c r="A8" s="9">
         <v>0.01</v>
       </c>
-      <c r="B8" s="11"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="9">
+      <c r="B8" s="13"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="7">
         <v>4</v>
       </c>
-      <c r="H8" s="13">
+      <c r="H8" s="10">
         <v>4</v>
       </c>
-      <c r="I8" s="10"/>
+      <c r="I8" s="8"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="12">
+      <c r="A9" s="9">
         <v>0.39</v>
       </c>
-      <c r="B9" s="11"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="9">
+      <c r="B9" s="13"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="7">
         <v>0</v>
       </c>
-      <c r="H9" s="13">
+      <c r="H9" s="10">
         <v>4</v>
       </c>
-      <c r="I9" s="10"/>
+      <c r="I9" s="8"/>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="12">
+      <c r="A10" s="9">
         <v>0.06</v>
       </c>
-      <c r="B10" s="11"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="9">
+      <c r="B10" s="13"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="7">
         <v>5</v>
       </c>
-      <c r="H10" s="13">
+      <c r="H10" s="10">
         <v>4</v>
       </c>
-      <c r="I10" s="10"/>
+      <c r="I10" s="8"/>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="13">
+      <c r="A11" s="10">
         <f>SUM(A3:A10)</f>
         <v>1</v>
       </c>
-      <c r="B11" s="10"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="9">
+      <c r="B11" s="8"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="7">
         <f>SUM(G3:G10)</f>
         <v>25</v>
       </c>
-      <c r="H11" s="7"/>
-      <c r="I11" s="10"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="8"/>
     </row>
     <row r="13" spans="1:9">
       <c r="B13" t="s">

--- a/design file/蚂蚁数值框架.xlsx
+++ b/design file/蚂蚁数值框架.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
   </bookViews>
   <sheets>
     <sheet name="游戏周期" sheetId="5" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="164">
   <si>
     <t>一、蚁穴系统</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -481,51 +481,196 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>游戏时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>蚁穴规划</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>总时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>蚁穴等级详情</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>1、建筑分类与数量设定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2、建筑等级设定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蚁后室</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1-3]*2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1-10]*4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1-7]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1-10]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1]*1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1-3]*3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1-5]*3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1-4]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1-8]*4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1-5]*4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>游戏时间(h)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总时间(h)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1-8]*5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1-10]*6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1-3]*5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1-5]*7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1-8]*9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1-10]*11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1-3]*1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1-5]*1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1-8]*2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1-10]*2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1-5]*2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兵蚁室与工作室结构复杂，需另外制表TODO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    等级
+建筑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可容纳[蚁等级]*数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平均一个防御单位要保护1.5个非防御单位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1-8]*3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1-10]*4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兵蚁室1*1；储存室1*1；工作室1*2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开放建筑（新开放）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雄蚁室1*1；工蚁室1*1；兵蚁室1*2；工作室1*2；储存室1*1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蚁后室1*1；雄蚁室1*1；工蚁室1*1；卵房1*1；兵蚁室1*1；储存室1*1；工作室1*1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>升级要求</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>开放建筑</t>
+    <t>蚁后室1*1；雄蚁室1*2；工蚁室1*2；卵房1*1；兵蚁室1*3；储存室1*1；工作室1*3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工蚁室1*1；兵蚁室1*2；工作室1*2；储存室1*2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蚁后室2*1；工蚁室2*2；卵房2*1；</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>蚁后室1*1；雄蚁室1*1；工蚁室1*1；卵房1*1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>兵蚁室1*1；储存室1*1；工作室1*2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>兵蚁室1*1；储存室1*1；工作室1*1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>雄蚁室1*1；工蚁室1*</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、建筑分类与数量设定</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2、建筑等级设定</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -550,7 +695,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -563,8 +708,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -596,13 +753,39 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -639,6 +822,15 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -648,17 +840,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -667,6 +871,60 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="直接连接符 2"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="3257550"/>
+          <a:ext cx="695325" cy="352425"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -954,21 +1212,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:N29"/>
+  <dimension ref="A2:Q29"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
+    <col min="2" max="2" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:12" s="16" customFormat="1">
-      <c r="A2" s="16" t="s">
-        <v>117</v>
+    <row r="2" spans="1:12" s="13" customFormat="1">
+      <c r="A2" s="13" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -976,10 +1236,10 @@
         <v>50</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>116</v>
+        <v>135</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>118</v>
+        <v>136</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>41</v>
@@ -1269,108 +1529,118 @@
         <v>52</v>
       </c>
     </row>
-    <row r="16" spans="1:12" s="16" customFormat="1">
-      <c r="A16" s="16" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+    <row r="16" spans="1:12" s="13" customFormat="1">
+      <c r="A16" s="13" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1" t="s">
         <v>50</v>
       </c>
       <c r="B18" t="s">
-        <v>120</v>
-      </c>
-      <c r="H18" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>159</v>
+      </c>
+      <c r="K18" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>1</v>
       </c>
-      <c r="B19" s="17" t="s">
-        <v>122</v>
-      </c>
-      <c r="C19" s="18"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="18"/>
-      <c r="H19" s="18" t="s">
-        <v>123</v>
-      </c>
-      <c r="I19" s="18"/>
-      <c r="J19" s="18"/>
-      <c r="K19" s="18"/>
-      <c r="L19" s="18"/>
-      <c r="M19" s="18"/>
-      <c r="N19" s="18"/>
-    </row>
-    <row r="20" spans="1:14">
+      <c r="B19" s="24" t="s">
+        <v>163</v>
+      </c>
+      <c r="C19" s="25"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="25"/>
+      <c r="K19" s="14" t="s">
+        <v>155</v>
+      </c>
+      <c r="L19" s="14"/>
+      <c r="M19" s="14"/>
+      <c r="N19" s="14"/>
+      <c r="O19" s="14"/>
+      <c r="P19" s="14"/>
+      <c r="Q19" s="14"/>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>2</v>
       </c>
-      <c r="B20" s="17" t="s">
-        <v>124</v>
-      </c>
-      <c r="C20" s="18"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="18"/>
-      <c r="G20" s="18"/>
-      <c r="H20" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+      <c r="B20" s="24" t="s">
+        <v>158</v>
+      </c>
+      <c r="C20" s="25"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="25"/>
+      <c r="K20" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="1:14">
+      <c r="B21" t="s">
+        <v>160</v>
+      </c>
+      <c r="K21" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" ht="12.75" customHeight="1">
       <c r="A22" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="1:14">
+      <c r="B22" t="s">
+        <v>160</v>
+      </c>
+      <c r="K22" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:14">
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:14">
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:14">
+    <row r="26" spans="1:17">
       <c r="A26" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:14">
+    <row r="27" spans="1:17">
       <c r="A27" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:14">
+    <row r="28" spans="1:17">
       <c r="A28" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:14">
+    <row r="29" spans="1:17">
       <c r="H29" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="B19:G19"/>
-    <mergeCell ref="H19:N19"/>
-    <mergeCell ref="B20:G20"/>
+  <mergeCells count="1">
+    <mergeCell ref="K19:Q19"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1381,7 +1651,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:E29"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A7" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -1397,9 +1667,9 @@
         <v>81</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="16" customFormat="1"/>
+    <row r="4" spans="1:5" s="13" customFormat="1"/>
     <row r="6" spans="1:5">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="12" t="s">
         <v>103</v>
       </c>
       <c r="C6" t="s">
@@ -1410,7 +1680,7 @@
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="15"/>
+      <c r="A7" s="12"/>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
@@ -1477,7 +1747,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="16" spans="1:5" s="16" customFormat="1"/>
+    <row r="16" spans="1:5" s="13" customFormat="1"/>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
         <v>89</v>
@@ -1536,7 +1806,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="29" spans="1:3" s="16" customFormat="1"/>
+    <row r="29" spans="1:3" s="13" customFormat="1"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1548,7 +1818,7 @@
   <dimension ref="A2:K22"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:C24"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1861,21 +2131,22 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:J18"/>
+  <dimension ref="A2:R31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="A18:XFD18"/>
+    <sheetView topLeftCell="D10" workbookViewId="0">
+      <selection activeCell="N22" sqref="N22:R28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="5" max="5" width="10.125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" s="16" customFormat="1">
-      <c r="A2" s="16" t="s">
-        <v>126</v>
+    <row r="2" spans="1:10" s="13" customFormat="1">
+      <c r="A2" s="13" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -1900,7 +2171,7 @@
     </row>
     <row r="5" spans="1:10">
       <c r="B5" s="1" t="s">
-        <v>7</v>
+        <v>120</v>
       </c>
       <c r="C5" s="1">
         <v>1</v>
@@ -2070,18 +2341,308 @@
     </row>
     <row r="16" spans="1:10">
       <c r="B16" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" s="16" customFormat="1">
-      <c r="A18" s="16" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" s="13" customFormat="1">
+      <c r="A18" s="13" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" s="20" customFormat="1"/>
+    <row r="20" spans="1:18">
+      <c r="B20" s="23" t="s">
+        <v>150</v>
+      </c>
+      <c r="C20" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="17"/>
+    </row>
+    <row r="21" spans="1:18">
+      <c r="B21" s="22"/>
+      <c r="C21" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="N21" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O21" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="P21" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q21" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="R21" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
+      <c r="B22" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C22" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="D22" s="19" t="s">
         <v>127</v>
       </c>
+      <c r="E22" s="19" t="s">
+        <v>128</v>
+      </c>
+      <c r="F22" s="1"/>
+      <c r="H22" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="N22" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="O22" s="1"/>
+      <c r="P22" s="1"/>
+      <c r="Q22" s="1"/>
+      <c r="R22" s="1"/>
+    </row>
+    <row r="23" spans="1:18">
+      <c r="B23" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="H23" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="N23" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="O23" s="1"/>
+      <c r="P23" s="1"/>
+      <c r="Q23" s="1"/>
+      <c r="R23" s="1"/>
+    </row>
+    <row r="24" spans="1:18">
+      <c r="B24" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="D24" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="E24" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="F24" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="N24" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="O24" s="1"/>
+      <c r="P24" s="1"/>
+      <c r="Q24" s="1"/>
+      <c r="R24" s="1"/>
+    </row>
+    <row r="25" spans="1:18">
+      <c r="B25" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="D25" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="E25" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="F25" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="N25" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="O25" s="1"/>
+      <c r="P25" s="1"/>
+      <c r="Q25" s="1"/>
+      <c r="R25" s="1"/>
+    </row>
+    <row r="26" spans="1:18">
+      <c r="B26" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C26" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="D26" s="21" t="s">
+        <v>140</v>
+      </c>
+      <c r="E26" s="21" t="s">
+        <v>141</v>
+      </c>
+      <c r="F26" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="N26" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="O26" s="1"/>
+      <c r="P26" s="1"/>
+      <c r="Q26" s="1"/>
+      <c r="R26" s="1"/>
+    </row>
+    <row r="27" spans="1:18">
+      <c r="B27" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="D27" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="E27" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="F27" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="H27" s="18"/>
+      <c r="N27" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="O27" s="1"/>
+      <c r="P27" s="1"/>
+      <c r="Q27" s="1"/>
+      <c r="R27" s="1"/>
+    </row>
+    <row r="28" spans="1:18">
+      <c r="B28" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C28" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="D28" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="E28" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="F28" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="H28" s="18"/>
+      <c r="N28" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="O28" s="1"/>
+      <c r="P28" s="1"/>
+      <c r="Q28" s="1"/>
+      <c r="R28" s="1"/>
+    </row>
+    <row r="29" spans="1:18">
+      <c r="B29" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C29" s="21" t="s">
+        <v>143</v>
+      </c>
+      <c r="D29" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="E29" s="21" t="s">
+        <v>153</v>
+      </c>
+      <c r="F29" s="21" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18">
+      <c r="B30" s="18"/>
+      <c r="C30" s="18"/>
+      <c r="D30" s="18"/>
+      <c r="E30" s="18"/>
+      <c r="F30" s="18"/>
+    </row>
+    <row r="31" spans="1:18">
+      <c r="B31" s="18" t="s">
+        <v>149</v>
+      </c>
+      <c r="C31" s="18"/>
+      <c r="D31" s="18"/>
+      <c r="E31" s="18"/>
+      <c r="F31" s="18"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="B20:B21"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -2096,12 +2657,12 @@
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
@@ -2136,7 +2697,7 @@
       <c r="A3" s="4">
         <v>0.1</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="15" t="s">
         <v>56</v>
       </c>
       <c r="C3" s="5"/>
@@ -2155,7 +2716,7 @@
       <c r="A4" s="4">
         <v>0</v>
       </c>
-      <c r="B4" s="13"/>
+      <c r="B4" s="16"/>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
       <c r="E4" s="6"/>
@@ -2172,7 +2733,7 @@
       <c r="A5" s="4">
         <v>0.03</v>
       </c>
-      <c r="B5" s="13"/>
+      <c r="B5" s="16"/>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
       <c r="E5" s="6"/>
@@ -2189,7 +2750,7 @@
       <c r="A6" s="9">
         <v>0.02</v>
       </c>
-      <c r="B6" s="13"/>
+      <c r="B6" s="16"/>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
       <c r="E6" s="6"/>
@@ -2206,7 +2767,7 @@
       <c r="A7" s="9">
         <v>0.39</v>
       </c>
-      <c r="B7" s="13"/>
+      <c r="B7" s="16"/>
       <c r="C7" s="8">
         <v>100</v>
       </c>
@@ -2231,7 +2792,7 @@
       <c r="A8" s="9">
         <v>0.01</v>
       </c>
-      <c r="B8" s="13"/>
+      <c r="B8" s="16"/>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
       <c r="E8" s="6"/>
@@ -2248,7 +2809,7 @@
       <c r="A9" s="9">
         <v>0.39</v>
       </c>
-      <c r="B9" s="13"/>
+      <c r="B9" s="16"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
       <c r="E9" s="6"/>
@@ -2265,7 +2826,7 @@
       <c r="A10" s="9">
         <v>0.06</v>
       </c>
-      <c r="B10" s="13"/>
+      <c r="B10" s="16"/>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
       <c r="E10" s="6"/>

--- a/design file/蚂蚁数值框架.xlsx
+++ b/design file/蚂蚁数值框架.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="163">
   <si>
     <t>一、蚁穴系统</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -651,10 +651,6 @@
   </si>
   <si>
     <t>蚁后室1*1；雄蚁室1*1；工蚁室1*1；卵房1*1；兵蚁室1*1；储存室1*1；工作室1*1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>升级要求</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -828,18 +824,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -852,17 +836,29 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1214,8 +1210,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:Q29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1538,8 +1534,29 @@
       <c r="A18" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B18" t="s">
-        <v>159</v>
+      <c r="B18" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="K18" t="s">
         <v>156</v>
@@ -1549,36 +1566,36 @@
       <c r="A19" s="1">
         <v>1</v>
       </c>
-      <c r="B19" s="24" t="s">
-        <v>163</v>
-      </c>
-      <c r="C19" s="25"/>
-      <c r="D19" s="25"/>
-      <c r="E19" s="25"/>
-      <c r="F19" s="25"/>
-      <c r="G19" s="25"/>
-      <c r="K19" s="14" t="s">
+      <c r="B19" s="18" t="s">
+        <v>162</v>
+      </c>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="19"/>
+      <c r="K19" s="20" t="s">
         <v>155</v>
       </c>
-      <c r="L19" s="14"/>
-      <c r="M19" s="14"/>
-      <c r="N19" s="14"/>
-      <c r="O19" s="14"/>
-      <c r="P19" s="14"/>
-      <c r="Q19" s="14"/>
+      <c r="L19" s="20"/>
+      <c r="M19" s="20"/>
+      <c r="N19" s="20"/>
+      <c r="O19" s="20"/>
+      <c r="P19" s="20"/>
+      <c r="Q19" s="20"/>
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>2</v>
       </c>
-      <c r="B20" s="24" t="s">
+      <c r="B20" s="18" t="s">
         <v>158</v>
       </c>
-      <c r="C20" s="25"/>
-      <c r="D20" s="25"/>
-      <c r="E20" s="25"/>
-      <c r="F20" s="25"/>
-      <c r="G20" s="25"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="19"/>
       <c r="K20" t="s">
         <v>157</v>
       </c>
@@ -1588,10 +1605,10 @@
         <v>3</v>
       </c>
       <c r="B21" t="s">
+        <v>159</v>
+      </c>
+      <c r="K21" t="s">
         <v>160</v>
-      </c>
-      <c r="K21" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="22" spans="1:17" ht="12.75" customHeight="1">
@@ -1599,10 +1616,10 @@
         <v>4</v>
       </c>
       <c r="B22" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K22" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -2349,20 +2366,20 @@
         <v>119</v>
       </c>
     </row>
-    <row r="19" spans="1:18" s="20" customFormat="1"/>
+    <row r="19" spans="1:18" s="16" customFormat="1"/>
     <row r="20" spans="1:18">
-      <c r="B20" s="23" t="s">
+      <c r="B20" s="22" t="s">
         <v>150</v>
       </c>
-      <c r="C20" s="17" t="s">
+      <c r="C20" s="21" t="s">
         <v>151</v>
       </c>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="21"/>
     </row>
     <row r="21" spans="1:18">
-      <c r="B21" s="22"/>
+      <c r="B21" s="23"/>
       <c r="C21" s="1" t="s">
         <v>121</v>
       </c>
@@ -2408,13 +2425,13 @@
       <c r="B22" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="C22" s="19" t="s">
+      <c r="C22" s="15" t="s">
         <v>132</v>
       </c>
-      <c r="D22" s="19" t="s">
+      <c r="D22" s="15" t="s">
         <v>127</v>
       </c>
-      <c r="E22" s="19" t="s">
+      <c r="E22" s="15" t="s">
         <v>128</v>
       </c>
       <c r="F22" s="1"/>
@@ -2437,7 +2454,7 @@
       <c r="B23" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C23" s="19" t="s">
+      <c r="C23" s="15" t="s">
         <v>129</v>
       </c>
       <c r="D23" s="1"/>
@@ -2462,16 +2479,16 @@
       <c r="B24" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C24" s="19" t="s">
+      <c r="C24" s="15" t="s">
         <v>125</v>
       </c>
-      <c r="D24" s="19" t="s">
+      <c r="D24" s="15" t="s">
         <v>131</v>
       </c>
-      <c r="E24" s="19" t="s">
+      <c r="E24" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="F24" s="19" t="s">
+      <c r="F24" s="15" t="s">
         <v>126</v>
       </c>
       <c r="H24" s="1" t="s">
@@ -2493,16 +2510,16 @@
       <c r="B25" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C25" s="19" t="s">
+      <c r="C25" s="15" t="s">
         <v>130</v>
       </c>
-      <c r="D25" s="19" t="s">
+      <c r="D25" s="15" t="s">
         <v>134</v>
       </c>
-      <c r="E25" s="19" t="s">
+      <c r="E25" s="15" t="s">
         <v>137</v>
       </c>
-      <c r="F25" s="19" t="s">
+      <c r="F25" s="15" t="s">
         <v>138</v>
       </c>
       <c r="H25" s="1" t="s">
@@ -2524,16 +2541,16 @@
       <c r="B26" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C26" s="21" t="s">
+      <c r="C26" s="17" t="s">
         <v>139</v>
       </c>
-      <c r="D26" s="21" t="s">
+      <c r="D26" s="17" t="s">
         <v>140</v>
       </c>
-      <c r="E26" s="21" t="s">
+      <c r="E26" s="17" t="s">
         <v>141</v>
       </c>
-      <c r="F26" s="21" t="s">
+      <c r="F26" s="17" t="s">
         <v>142</v>
       </c>
       <c r="H26" s="1" t="s">
@@ -2555,19 +2572,19 @@
       <c r="B27" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C27" s="19" t="s">
+      <c r="C27" s="15" t="s">
         <v>143</v>
       </c>
-      <c r="D27" s="19" t="s">
+      <c r="D27" s="15" t="s">
         <v>144</v>
       </c>
-      <c r="E27" s="19" t="s">
+      <c r="E27" s="15" t="s">
         <v>145</v>
       </c>
-      <c r="F27" s="19" t="s">
+      <c r="F27" s="15" t="s">
         <v>146</v>
       </c>
-      <c r="H27" s="18"/>
+      <c r="H27" s="14"/>
       <c r="N27" s="1" t="s">
         <v>75</v>
       </c>
@@ -2580,19 +2597,19 @@
       <c r="B28" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C28" s="19" t="s">
+      <c r="C28" s="15" t="s">
         <v>147</v>
       </c>
-      <c r="D28" s="19" t="s">
+      <c r="D28" s="15" t="s">
         <v>147</v>
       </c>
-      <c r="E28" s="19" t="s">
+      <c r="E28" s="15" t="s">
         <v>147</v>
       </c>
-      <c r="F28" s="19" t="s">
+      <c r="F28" s="15" t="s">
         <v>147</v>
       </c>
-      <c r="H28" s="18"/>
+      <c r="H28" s="14"/>
       <c r="N28" s="1" t="s">
         <v>76</v>
       </c>
@@ -2605,34 +2622,34 @@
       <c r="B29" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C29" s="21" t="s">
+      <c r="C29" s="17" t="s">
         <v>143</v>
       </c>
-      <c r="D29" s="21" t="s">
+      <c r="D29" s="17" t="s">
         <v>148</v>
       </c>
-      <c r="E29" s="21" t="s">
+      <c r="E29" s="17" t="s">
         <v>153</v>
       </c>
-      <c r="F29" s="21" t="s">
+      <c r="F29" s="17" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="30" spans="1:18">
-      <c r="B30" s="18"/>
-      <c r="C30" s="18"/>
-      <c r="D30" s="18"/>
-      <c r="E30" s="18"/>
-      <c r="F30" s="18"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
     </row>
     <row r="31" spans="1:18">
-      <c r="B31" s="18" t="s">
+      <c r="B31" s="14" t="s">
         <v>149</v>
       </c>
-      <c r="C31" s="18"/>
-      <c r="D31" s="18"/>
-      <c r="E31" s="18"/>
-      <c r="F31" s="18"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2657,12 +2674,12 @@
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
@@ -2697,7 +2714,7 @@
       <c r="A3" s="4">
         <v>0.1</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="24" t="s">
         <v>56</v>
       </c>
       <c r="C3" s="5"/>
@@ -2716,7 +2733,7 @@
       <c r="A4" s="4">
         <v>0</v>
       </c>
-      <c r="B4" s="16"/>
+      <c r="B4" s="25"/>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
       <c r="E4" s="6"/>
@@ -2733,7 +2750,7 @@
       <c r="A5" s="4">
         <v>0.03</v>
       </c>
-      <c r="B5" s="16"/>
+      <c r="B5" s="25"/>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
       <c r="E5" s="6"/>
@@ -2750,7 +2767,7 @@
       <c r="A6" s="9">
         <v>0.02</v>
       </c>
-      <c r="B6" s="16"/>
+      <c r="B6" s="25"/>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
       <c r="E6" s="6"/>
@@ -2767,7 +2784,7 @@
       <c r="A7" s="9">
         <v>0.39</v>
       </c>
-      <c r="B7" s="16"/>
+      <c r="B7" s="25"/>
       <c r="C7" s="8">
         <v>100</v>
       </c>
@@ -2792,7 +2809,7 @@
       <c r="A8" s="9">
         <v>0.01</v>
       </c>
-      <c r="B8" s="16"/>
+      <c r="B8" s="25"/>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
       <c r="E8" s="6"/>
@@ -2809,7 +2826,7 @@
       <c r="A9" s="9">
         <v>0.39</v>
       </c>
-      <c r="B9" s="16"/>
+      <c r="B9" s="25"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
       <c r="E9" s="6"/>
@@ -2826,7 +2843,7 @@
       <c r="A10" s="9">
         <v>0.06</v>
       </c>
-      <c r="B10" s="16"/>
+      <c r="B10" s="25"/>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
       <c r="E10" s="6"/>

--- a/design file/蚂蚁数值框架.xlsx
+++ b/design file/蚂蚁数值框架.xlsx
@@ -4,21 +4,22 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="4"/>
   </bookViews>
   <sheets>
-    <sheet name="游戏周期" sheetId="5" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="4" r:id="rId2"/>
-    <sheet name="概述" sheetId="1" r:id="rId3"/>
-    <sheet name="建筑数量" sheetId="2" r:id="rId4"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId5"/>
+    <sheet name="概述" sheetId="1" r:id="rId1"/>
+    <sheet name="建筑数量" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="2.战斗数值草稿" sheetId="4" r:id="rId4"/>
+    <sheet name="1.系统设定" sheetId="5" r:id="rId5"/>
+    <sheet name="2.属性详细" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="581" uniqueCount="267">
   <si>
     <t>一、蚁穴系统</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -166,19 +167,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>可建造数量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>容纳蚁的等级上限</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>特殊效果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不同建筑的特殊效果</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -433,10 +422,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1.2 属性分配</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>建筑等级</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -638,35 +623,457 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>兵蚁室1*1；储存室1*1；工作室1*2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>开放建筑（新开放）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>雄蚁室1*1；工蚁室1*1；兵蚁室1*2；工作室1*2；储存室1*1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蚁后室1*1；雄蚁室1*1；工蚁室1*1；卵房1*1；兵蚁室1*1；储存室1*1；工作室1*1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蚁后室1*1；雄蚁室1*2；工蚁室1*2；卵房1*1；兵蚁室1*3；储存室1*1；工作室1*3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>工蚁室1*1；兵蚁室1*2；工作室1*2；储存室1*2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蚁后室2*1；工蚁室2*2；卵房2*1；</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蚁后室1*1；雄蚁室1*1；工蚁室1*1；卵房1*1</t>
+    <t>当前等级开发的的建筑[等级]*[数量]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1*1</t>
+  </si>
+  <si>
+    <t>1*1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1*1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1*1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0*0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1*2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1*2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1*1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1*3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1*2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1*4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0*0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1*5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1*6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2*1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2*2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1*6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2*8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可建造数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>容纳蚁的等级上限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不同建筑的特殊效果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2*3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2*1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3*1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3*3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3*2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4*3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2*4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3*4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4*4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2*8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1*8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2*11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2*14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2*17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3*18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3*19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4*20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4*2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2*6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3*8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4*8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2*10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3*12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3*12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4*12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本级新开放建筑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注：初次设定（后续会根据效果再次修改）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>简易堡垒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通战斗蚁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巨型战斗蚁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兵蚁室</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>远程战斗蚁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微型战斗蚁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地面音波蚁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>入驻兵种兵蚁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兵蚁室详情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2*5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3*6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3*5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3*4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4*6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4*5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4*4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1-3]*5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1-7]*10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1-10]*15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1-10]*20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1-9]*15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1-3]*1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1-7]*2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1-9]*3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1-10]*3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1-3]*2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1-7]*4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1-9]*6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1-10]*8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巨齿蚁巢</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1-3]*10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1-7]*15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1-9]*20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1-7]*1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1-9]*1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1-10]*1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总</t>
+  </si>
+  <si>
+    <t>总</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.2 属性分配比例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础系数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗力规划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2、战斗单位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系数 值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系数</t>
+  </si>
+  <si>
+    <t>值</t>
+  </si>
+  <si>
+    <t>防御力</t>
+  </si>
+  <si>
+    <t>攻击力</t>
+  </si>
+  <si>
+    <t>攻击范围</t>
+  </si>
+  <si>
+    <t>攻击速度</t>
+  </si>
+  <si>
+    <t>暴击率</t>
+  </si>
+  <si>
+    <t>移动速度</t>
+  </si>
+  <si>
+    <t>移动速度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二、属性详细</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3、建筑等级细分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总规划，非单体</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>防御力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击速度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击范围</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暴击率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单体系数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兵蚁详情 根据上述推出</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -717,7 +1124,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -738,15 +1145,6 @@
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -775,13 +1173,68 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -836,22 +1289,16 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -859,6 +1306,54 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1208,634 +1703,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:Q29"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <cols>
-    <col min="2" max="2" width="12.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:12" s="13" customFormat="1">
-      <c r="A2" s="13" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
-      <c r="A4" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="A5" s="1">
-        <v>1</v>
-      </c>
-      <c r="B5" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="C5" s="1">
-        <f>B5</f>
-        <v>0.5</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5" s="1">
-        <v>1</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="I5" s="1">
-        <v>5</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="A6" s="1">
-        <v>2</v>
-      </c>
-      <c r="B6" s="1">
-        <v>2</v>
-      </c>
-      <c r="C6" s="1">
-        <f>B6+B5</f>
-        <v>2.5</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6" s="1">
-        <v>1</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="I6" s="1">
-        <v>4</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
-      <c r="A7" s="1">
-        <v>3</v>
-      </c>
-      <c r="B7" s="1">
-        <v>5</v>
-      </c>
-      <c r="C7" s="1">
-        <f t="shared" ref="C7:C14" si="0">B7+B6</f>
-        <v>7</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7" s="1">
-        <v>3</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="I7" s="1">
-        <v>3</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
-      <c r="A8" s="1">
-        <v>4</v>
-      </c>
-      <c r="B8" s="1">
-        <v>30</v>
-      </c>
-      <c r="C8" s="1">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F8" s="1">
-        <v>4</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="I8" s="1">
-        <v>3</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="L8" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="A9" s="1">
-        <v>5</v>
-      </c>
-      <c r="B9" s="1">
-        <v>90</v>
-      </c>
-      <c r="C9" s="1">
-        <f t="shared" si="0"/>
-        <v>120</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9" s="1">
-        <v>20</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="I9" s="1">
-        <v>2</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="L9" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="A10" s="1">
-        <v>6</v>
-      </c>
-      <c r="B10" s="1">
-        <v>200</v>
-      </c>
-      <c r="C10" s="1">
-        <f t="shared" si="0"/>
-        <v>290</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F10" s="1">
-        <v>2</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="I10" s="1">
-        <f>SUM(I5:I9)</f>
-        <v>17</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="L10" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
-      <c r="A11" s="1">
-        <v>7</v>
-      </c>
-      <c r="B11" s="1">
-        <v>400</v>
-      </c>
-      <c r="C11" s="1">
-        <f t="shared" si="0"/>
-        <v>600</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F11" s="1">
-        <v>8</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="I11" s="3">
-        <v>3</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="L11" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
-      <c r="A12" s="1">
-        <v>8</v>
-      </c>
-      <c r="B12" s="1">
-        <v>500</v>
-      </c>
-      <c r="C12" s="1">
-        <f t="shared" si="0"/>
-        <v>900</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F12" s="1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
-      <c r="A13" s="1">
-        <v>9</v>
-      </c>
-      <c r="B13" s="1">
-        <v>600</v>
-      </c>
-      <c r="C13" s="1">
-        <f t="shared" si="0"/>
-        <v>1100</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="F13" s="1">
-        <f ca="1">SUM(F5:F14)</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
-      <c r="A14" s="1">
-        <v>10</v>
-      </c>
-      <c r="B14" s="1">
-        <v>800</v>
-      </c>
-      <c r="C14" s="1">
-        <f t="shared" si="0"/>
-        <v>1400</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F14" s="1">
-        <v>49</v>
-      </c>
-      <c r="H14" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" s="13" customFormat="1">
-      <c r="A16" s="13" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
-      <c r="A18" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K18" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
-      <c r="A19" s="1">
-        <v>1</v>
-      </c>
-      <c r="B19" s="18" t="s">
-        <v>162</v>
-      </c>
-      <c r="C19" s="19"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="19"/>
-      <c r="G19" s="19"/>
-      <c r="K19" s="20" t="s">
-        <v>155</v>
-      </c>
-      <c r="L19" s="20"/>
-      <c r="M19" s="20"/>
-      <c r="N19" s="20"/>
-      <c r="O19" s="20"/>
-      <c r="P19" s="20"/>
-      <c r="Q19" s="20"/>
-    </row>
-    <row r="20" spans="1:17">
-      <c r="A20" s="1">
-        <v>2</v>
-      </c>
-      <c r="B20" s="18" t="s">
-        <v>158</v>
-      </c>
-      <c r="C20" s="19"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="19"/>
-      <c r="G20" s="19"/>
-      <c r="K20" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
-      <c r="A21" s="1">
-        <v>3</v>
-      </c>
-      <c r="B21" t="s">
-        <v>159</v>
-      </c>
-      <c r="K21" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" ht="12.75" customHeight="1">
-      <c r="A22" s="1">
-        <v>4</v>
-      </c>
-      <c r="B22" t="s">
-        <v>159</v>
-      </c>
-      <c r="K22" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
-      <c r="A23" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
-      <c r="A24" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
-      <c r="A25" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17">
-      <c r="A26" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17">
-      <c r="A27" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17">
-      <c r="A28" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17">
-      <c r="H29" s="2"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="K19:Q19"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:E29"/>
-  <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="16.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" s="13" customFormat="1"/>
-    <row r="6" spans="1:5">
-      <c r="A6" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="C6" t="s">
-        <v>104</v>
-      </c>
-      <c r="E6" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="12"/>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" s="13" customFormat="1"/>
-    <row r="18" spans="1:3">
-      <c r="A18" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" t="s">
-        <v>90</v>
-      </c>
-      <c r="C20" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="3" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" s="13" customFormat="1"/>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:K22"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1891,7 +1762,7 @@
         <v>23</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>25</v>
@@ -1900,13 +1771,13 @@
         <v>23</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -1923,10 +1794,10 @@
         <v>7</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="I13" s="1">
         <v>1</v>
@@ -1948,7 +1819,7 @@
         <v>8</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G14" s="11"/>
       <c r="I14" s="1">
@@ -1971,10 +1842,10 @@
         <v>9</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="I15" s="1">
         <v>3</v>
@@ -1996,10 +1867,10 @@
         <v>10</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="I16" s="1">
         <v>4</v>
@@ -2021,10 +1892,10 @@
         <v>11</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="I17" s="1">
         <v>5</v>
@@ -2046,10 +1917,10 @@
         <v>12</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="I18" s="1">
         <v>6</v>
@@ -2071,10 +1942,10 @@
         <v>13</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="I19" s="1">
         <v>7</v>
@@ -2090,16 +1961,16 @@
         <v>36</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>37</v>
+        <v>170</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="I20" s="1">
         <v>8</v>
@@ -2115,7 +1986,7 @@
         <v>36</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>38</v>
+        <v>171</v>
       </c>
       <c r="I21" s="1">
         <v>9</v>
@@ -2125,13 +1996,13 @@
     </row>
     <row r="22" spans="1:11">
       <c r="A22" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>35</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>40</v>
+        <v>172</v>
       </c>
       <c r="I22" s="1">
         <v>10</v>
@@ -2146,12 +2017,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:R31"/>
   <sheetViews>
-    <sheetView topLeftCell="D10" workbookViewId="0">
-      <selection activeCell="N22" sqref="N22:R28"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2163,47 +2034,47 @@
   <sheetData>
     <row r="2" spans="1:10" s="13" customFormat="1">
       <c r="A2" s="13" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="B4" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>14</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="B5" s="1" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C5" s="1">
         <v>1</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F5" s="1">
         <v>5</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -2214,16 +2085,16 @@
         <v>1</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F6" s="1">
         <v>4</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -2234,16 +2105,16 @@
         <v>3</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="F7" s="1">
         <v>3</v>
       </c>
       <c r="H7" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="I7" s="1" t="s">
         <v>77</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -2254,13 +2125,13 @@
         <v>4</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F8" s="1">
         <v>3</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="I8" s="1">
         <v>1</v>
@@ -2274,13 +2145,13 @@
         <v>20</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="F9" s="1">
         <v>2</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="I9" s="1">
         <v>1</v>
@@ -2294,14 +2165,14 @@
         <v>2</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F10" s="1">
         <f>SUM(F5:F9)</f>
         <v>17</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="I10" s="1">
         <v>1</v>
@@ -2315,13 +2186,13 @@
         <v>8</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F11" s="3">
         <v>3</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="I11" s="1">
         <v>1</v>
@@ -2337,7 +2208,7 @@
     </row>
     <row r="13" spans="1:10">
       <c r="B13" s="3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C13" s="1">
         <f ca="1">SUM(C5:C14)</f>
@@ -2346,7 +2217,7 @@
     </row>
     <row r="14" spans="1:10">
       <c r="B14" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C14" s="1">
         <v>49</v>
@@ -2358,92 +2229,92 @@
     </row>
     <row r="16" spans="1:10">
       <c r="B16" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="18" spans="1:18" s="13" customFormat="1">
       <c r="A18" s="13" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="19" spans="1:18" s="16" customFormat="1"/>
     <row r="20" spans="1:18">
-      <c r="B20" s="22" t="s">
-        <v>150</v>
-      </c>
-      <c r="C20" s="21" t="s">
-        <v>151</v>
-      </c>
-      <c r="D20" s="21"/>
-      <c r="E20" s="21"/>
-      <c r="F20" s="21"/>
+      <c r="B20" s="20" t="s">
+        <v>146</v>
+      </c>
+      <c r="C20" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="D20" s="19"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="19"/>
     </row>
     <row r="21" spans="1:18">
-      <c r="B21" s="23"/>
+      <c r="B21" s="21"/>
       <c r="C21" s="1" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="H21" s="1"/>
       <c r="I21" s="1" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="N21" s="1" t="s">
         <v>14</v>
       </c>
       <c r="O21" s="1" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="P21" s="1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="Q21" s="1" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="R21" s="1" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="22" spans="1:18">
       <c r="B22" s="1" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C22" s="15" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="D22" s="15" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="E22" s="15" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="F22" s="1"/>
       <c r="H22" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
       <c r="N22" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="O22" s="1"/>
       <c r="P22" s="1"/>
@@ -2455,20 +2326,20 @@
         <v>8</v>
       </c>
       <c r="C23" s="15" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
       <c r="H23" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
       <c r="N23" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="O23" s="1"/>
       <c r="P23" s="1"/>
@@ -2480,26 +2351,26 @@
         <v>9</v>
       </c>
       <c r="C24" s="15" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D24" s="15" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="E24" s="15" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="F24" s="15" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
       <c r="N24" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="O24" s="1"/>
       <c r="P24" s="1"/>
@@ -2511,26 +2382,26 @@
         <v>10</v>
       </c>
       <c r="C25" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="D25" s="15" t="s">
         <v>130</v>
       </c>
-      <c r="D25" s="15" t="s">
+      <c r="E25" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="F25" s="15" t="s">
         <v>134</v>
       </c>
-      <c r="E25" s="15" t="s">
-        <v>137</v>
-      </c>
-      <c r="F25" s="15" t="s">
-        <v>138</v>
-      </c>
       <c r="H25" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
       <c r="N25" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="O25" s="1"/>
       <c r="P25" s="1"/>
@@ -2542,26 +2413,26 @@
         <v>11</v>
       </c>
       <c r="C26" s="17" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="E26" s="17" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="F26" s="17" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
       <c r="N26" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="O26" s="1"/>
       <c r="P26" s="1"/>
@@ -2573,20 +2444,20 @@
         <v>12</v>
       </c>
       <c r="C27" s="15" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="D27" s="15" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="E27" s="15" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="F27" s="15" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="H27" s="14"/>
       <c r="N27" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="O27" s="1"/>
       <c r="P27" s="1"/>
@@ -2598,20 +2469,20 @@
         <v>13</v>
       </c>
       <c r="C28" s="15" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="D28" s="15" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="E28" s="15" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="F28" s="15" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="H28" s="14"/>
       <c r="N28" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="O28" s="1"/>
       <c r="P28" s="1"/>
@@ -2623,16 +2494,16 @@
         <v>14</v>
       </c>
       <c r="C29" s="17" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="E29" s="17" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="F29" s="17" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="30" spans="1:18">
@@ -2644,7 +2515,7 @@
     </row>
     <row r="31" spans="1:18">
       <c r="B31" s="14" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C31" s="14"/>
       <c r="D31" s="14"/>
@@ -2663,23 +2534,23 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="C1" s="21" t="s">
-        <v>57</v>
-      </c>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
+      <c r="C1" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
@@ -2707,15 +2578,15 @@
         <v>34</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="4">
         <v>0.1</v>
       </c>
-      <c r="B3" s="24" t="s">
-        <v>56</v>
+      <c r="B3" s="22" t="s">
+        <v>53</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
@@ -2733,7 +2604,7 @@
       <c r="A4" s="4">
         <v>0</v>
       </c>
-      <c r="B4" s="25"/>
+      <c r="B4" s="23"/>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
       <c r="E4" s="6"/>
@@ -2750,7 +2621,7 @@
       <c r="A5" s="4">
         <v>0.03</v>
       </c>
-      <c r="B5" s="25"/>
+      <c r="B5" s="23"/>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
       <c r="E5" s="6"/>
@@ -2767,7 +2638,7 @@
       <c r="A6" s="9">
         <v>0.02</v>
       </c>
-      <c r="B6" s="25"/>
+      <c r="B6" s="23"/>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
       <c r="E6" s="6"/>
@@ -2784,7 +2655,7 @@
       <c r="A7" s="9">
         <v>0.39</v>
       </c>
-      <c r="B7" s="25"/>
+      <c r="B7" s="23"/>
       <c r="C7" s="8">
         <v>100</v>
       </c>
@@ -2809,7 +2680,7 @@
       <c r="A8" s="9">
         <v>0.01</v>
       </c>
-      <c r="B8" s="25"/>
+      <c r="B8" s="23"/>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
       <c r="E8" s="6"/>
@@ -2826,7 +2697,7 @@
       <c r="A9" s="9">
         <v>0.39</v>
       </c>
-      <c r="B9" s="25"/>
+      <c r="B9" s="23"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
       <c r="E9" s="6"/>
@@ -2843,7 +2714,7 @@
       <c r="A10" s="9">
         <v>0.06</v>
       </c>
-      <c r="B10" s="25"/>
+      <c r="B10" s="23"/>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
       <c r="E10" s="6"/>
@@ -2875,12 +2746,12 @@
     </row>
     <row r="13" spans="1:9">
       <c r="B13" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="B14" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -2892,4 +2763,5031 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A2:I42"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37:B42"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="16.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:8">
+      <c r="A2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" s="13" customFormat="1"/>
+    <row r="6" spans="1:8">
+      <c r="A6" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="E6" t="s">
+        <v>238</v>
+      </c>
+      <c r="H6" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="12"/>
+      <c r="B7" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="C7" s="1">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="29" t="s">
+        <v>79</v>
+      </c>
+      <c r="B8" s="1">
+        <v>10</v>
+      </c>
+      <c r="C8" s="1">
+        <f>B8*$C$7</f>
+        <v>50000</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F8" s="1">
+        <v>30</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="B9" s="1">
+        <v>1</v>
+      </c>
+      <c r="C9" s="1">
+        <f t="shared" ref="C9:C14" si="0">B9*$C$7</f>
+        <v>5000</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F9" s="1">
+        <v>10</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="B10" s="1">
+        <v>2</v>
+      </c>
+      <c r="C10" s="1">
+        <f t="shared" si="0"/>
+        <v>10000</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F10" s="1">
+        <v>15</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="B11" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="C11" s="1">
+        <f t="shared" si="0"/>
+        <v>2000</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="F11" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="B12" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="C12" s="1">
+        <f t="shared" si="0"/>
+        <v>2000</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F12" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="B13" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="C13" s="1">
+        <f t="shared" si="0"/>
+        <v>2000</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F13" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="B14" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="C14" s="1">
+        <f t="shared" si="0"/>
+        <v>2000</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F14" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="E15" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="F15" s="1">
+        <f>SUM(F8:F14)</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="E16" s="14"/>
+      <c r="F16" s="12"/>
+    </row>
+    <row r="17" spans="1:9" s="13" customFormat="1">
+      <c r="A17" s="13" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="C20" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="E20" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="F20" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="G20" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="H20" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="I20" s="29" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="C21" t="s">
+        <v>243</v>
+      </c>
+      <c r="D21" t="s">
+        <v>244</v>
+      </c>
+      <c r="E21" t="s">
+        <v>242</v>
+      </c>
+      <c r="F21" t="s">
+        <v>242</v>
+      </c>
+      <c r="G21" t="s">
+        <v>242</v>
+      </c>
+      <c r="H21" t="s">
+        <v>242</v>
+      </c>
+      <c r="I21" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B22" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B23" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B24" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B25" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B26" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B27" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="B28" s="1">
+        <f>SUM(B22:B27)</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" s="14"/>
+      <c r="B30" s="12"/>
+    </row>
+    <row r="31" spans="1:9" s="13" customFormat="1"/>
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="1"/>
+      <c r="B36" s="1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B37" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B38" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B39" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B40" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B41" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="B42" s="1">
+        <f>SUM(B37:B41)</f>
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A2:Q66"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="F72" sqref="F72"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="2" max="2" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="7" width="11" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:12" s="13" customFormat="1">
+      <c r="A2" s="13" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="1">
+        <v>1</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="C5" s="1">
+        <f>B5</f>
+        <v>0.5</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="I5" s="1">
+        <v>6</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="1">
+        <v>2</v>
+      </c>
+      <c r="B6" s="1">
+        <v>2</v>
+      </c>
+      <c r="C6" s="1">
+        <f>B6+C5</f>
+        <v>2.5</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I6" s="1">
+        <v>4</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="1">
+        <v>3</v>
+      </c>
+      <c r="B7" s="1">
+        <v>5</v>
+      </c>
+      <c r="C7" s="1">
+        <f t="shared" ref="C7:C14" si="0">B7+C6</f>
+        <v>7.5</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="1">
+        <v>3</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I7" s="1">
+        <v>3</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="1">
+        <v>4</v>
+      </c>
+      <c r="B8" s="1">
+        <v>30</v>
+      </c>
+      <c r="C8" s="1">
+        <f t="shared" si="0"/>
+        <v>37.5</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="1">
+        <v>4</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I8" s="1">
+        <v>5</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="L8" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="1">
+        <v>5</v>
+      </c>
+      <c r="B9" s="1">
+        <v>90</v>
+      </c>
+      <c r="C9" s="1">
+        <f t="shared" si="0"/>
+        <v>127.5</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="1">
+        <v>20</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="I9" s="1">
+        <v>2</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="L9" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="1">
+        <v>6</v>
+      </c>
+      <c r="B10" s="1">
+        <v>200</v>
+      </c>
+      <c r="C10" s="1">
+        <f t="shared" si="0"/>
+        <v>327.5</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="1">
+        <v>2</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I10" s="1">
+        <f>SUM(I5:I9)</f>
+        <v>20</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="L10" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="1">
+        <v>7</v>
+      </c>
+      <c r="B11" s="1">
+        <v>400</v>
+      </c>
+      <c r="C11" s="1">
+        <f t="shared" si="0"/>
+        <v>727.5</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" s="1">
+        <v>8</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="I11" s="3">
+        <v>0</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="L11" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="1">
+        <v>8</v>
+      </c>
+      <c r="B12" s="1">
+        <v>500</v>
+      </c>
+      <c r="C12" s="1">
+        <f t="shared" si="0"/>
+        <v>1227.5</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="1">
+        <v>9</v>
+      </c>
+      <c r="B13" s="1">
+        <v>600</v>
+      </c>
+      <c r="C13" s="1">
+        <f t="shared" si="0"/>
+        <v>1827.5</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F13" s="1">
+        <f ca="1">SUM(F5:F14)</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="1">
+        <v>10</v>
+      </c>
+      <c r="B14" s="1">
+        <v>800</v>
+      </c>
+      <c r="C14" s="1">
+        <f t="shared" si="0"/>
+        <v>2627.5</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F14" s="1">
+        <v>49</v>
+      </c>
+      <c r="H14" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" s="13" customFormat="1">
+      <c r="A16" s="13" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" s="16" customFormat="1"/>
+    <row r="18" spans="1:17">
+      <c r="B18" s="25" t="s">
+        <v>151</v>
+      </c>
+      <c r="C18" s="25"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="25"/>
+      <c r="J18" s="25" t="s">
+        <v>198</v>
+      </c>
+      <c r="K18" s="25"/>
+      <c r="L18" s="25"/>
+      <c r="M18" s="25"/>
+      <c r="N18" s="25"/>
+      <c r="O18" s="25"/>
+      <c r="P18" s="25"/>
+      <c r="Q18" s="25"/>
+    </row>
+    <row r="19" spans="1:17">
+      <c r="A19" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="N19" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="O19" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P19" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q19" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
+      <c r="A20" s="1">
+        <v>1</v>
+      </c>
+      <c r="B20" s="26" t="s">
+        <v>153</v>
+      </c>
+      <c r="C20" s="26" t="s">
+        <v>156</v>
+      </c>
+      <c r="D20" s="26" t="s">
+        <v>155</v>
+      </c>
+      <c r="E20" s="26" t="s">
+        <v>155</v>
+      </c>
+      <c r="F20" s="26" t="s">
+        <v>154</v>
+      </c>
+      <c r="G20" s="26" t="s">
+        <v>159</v>
+      </c>
+      <c r="H20" s="26" t="s">
+        <v>155</v>
+      </c>
+      <c r="I20" s="26" t="s">
+        <v>158</v>
+      </c>
+      <c r="K20" s="28"/>
+      <c r="L20" s="28"/>
+      <c r="M20" s="28"/>
+      <c r="N20" s="28"/>
+      <c r="O20" s="28"/>
+      <c r="P20" s="28"/>
+      <c r="Q20" s="28"/>
+    </row>
+    <row r="21" spans="1:17">
+      <c r="A21" s="1">
+        <v>2</v>
+      </c>
+      <c r="B21" s="27" t="s">
+        <v>154</v>
+      </c>
+      <c r="C21" s="26" t="s">
+        <v>156</v>
+      </c>
+      <c r="D21" s="26" t="s">
+        <v>157</v>
+      </c>
+      <c r="E21" s="26" t="s">
+        <v>158</v>
+      </c>
+      <c r="F21" s="26" t="s">
+        <v>160</v>
+      </c>
+      <c r="G21" s="26" t="s">
+        <v>154</v>
+      </c>
+      <c r="H21" s="26" t="s">
+        <v>161</v>
+      </c>
+      <c r="I21" s="26" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
+      <c r="A22" s="1">
+        <v>3</v>
+      </c>
+      <c r="B22" s="27" t="s">
+        <v>154</v>
+      </c>
+      <c r="C22" s="27" t="s">
+        <v>163</v>
+      </c>
+      <c r="D22" s="27" t="s">
+        <v>158</v>
+      </c>
+      <c r="E22" s="27" t="s">
+        <v>157</v>
+      </c>
+      <c r="F22" s="27" t="s">
+        <v>164</v>
+      </c>
+      <c r="G22" s="27" t="s">
+        <v>155</v>
+      </c>
+      <c r="H22" s="27" t="s">
+        <v>162</v>
+      </c>
+      <c r="I22" s="27" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" ht="12.75" customHeight="1">
+      <c r="A23" s="1">
+        <v>4</v>
+      </c>
+      <c r="B23" s="27" t="s">
+        <v>166</v>
+      </c>
+      <c r="C23" s="27" t="s">
+        <v>156</v>
+      </c>
+      <c r="D23" s="27" t="s">
+        <v>157</v>
+      </c>
+      <c r="E23" s="27" t="s">
+        <v>167</v>
+      </c>
+      <c r="F23" s="27" t="s">
+        <v>183</v>
+      </c>
+      <c r="G23" s="27" t="s">
+        <v>166</v>
+      </c>
+      <c r="H23" s="27" t="s">
+        <v>168</v>
+      </c>
+      <c r="I23" s="27" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
+      <c r="A24" s="1">
+        <v>5</v>
+      </c>
+      <c r="B24" s="27" t="s">
+        <v>166</v>
+      </c>
+      <c r="C24" s="27" t="s">
+        <v>155</v>
+      </c>
+      <c r="D24" s="27" t="s">
+        <v>167</v>
+      </c>
+      <c r="E24" s="27" t="s">
+        <v>173</v>
+      </c>
+      <c r="F24" s="27" t="s">
+        <v>184</v>
+      </c>
+      <c r="G24" s="27" t="s">
+        <v>166</v>
+      </c>
+      <c r="H24" s="27" t="s">
+        <v>191</v>
+      </c>
+      <c r="I24" s="27" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
+      <c r="A25" s="1">
+        <v>6</v>
+      </c>
+      <c r="B25" s="27" t="s">
+        <v>174</v>
+      </c>
+      <c r="C25" s="27" t="s">
+        <v>155</v>
+      </c>
+      <c r="D25" s="27" t="s">
+        <v>167</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="F25" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="G25" s="27" t="s">
+        <v>167</v>
+      </c>
+      <c r="H25" s="27" t="s">
+        <v>191</v>
+      </c>
+      <c r="I25" s="27" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17">
+      <c r="A26" s="1">
+        <v>7</v>
+      </c>
+      <c r="B26" s="27" t="s">
+        <v>166</v>
+      </c>
+      <c r="C26" s="27" t="s">
+        <v>152</v>
+      </c>
+      <c r="D26" s="27" t="s">
+        <v>176</v>
+      </c>
+      <c r="E26" s="27" t="s">
+        <v>179</v>
+      </c>
+      <c r="F26" s="27" t="s">
+        <v>186</v>
+      </c>
+      <c r="G26" s="27" t="s">
+        <v>167</v>
+      </c>
+      <c r="H26" s="27" t="s">
+        <v>182</v>
+      </c>
+      <c r="I26" s="27" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17">
+      <c r="A27" s="1">
+        <v>8</v>
+      </c>
+      <c r="B27" s="27" t="s">
+        <v>175</v>
+      </c>
+      <c r="C27" s="27" t="s">
+        <v>152</v>
+      </c>
+      <c r="D27" s="27" t="s">
+        <v>176</v>
+      </c>
+      <c r="E27" s="27" t="s">
+        <v>180</v>
+      </c>
+      <c r="F27" s="27" t="s">
+        <v>187</v>
+      </c>
+      <c r="G27" s="27" t="s">
+        <v>177</v>
+      </c>
+      <c r="H27" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="I27" s="27" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17">
+      <c r="A28" s="1">
+        <v>9</v>
+      </c>
+      <c r="B28" s="27" t="s">
+        <v>175</v>
+      </c>
+      <c r="C28" s="27" t="s">
+        <v>152</v>
+      </c>
+      <c r="D28" s="27" t="s">
+        <v>176</v>
+      </c>
+      <c r="E28" s="27" t="s">
+        <v>180</v>
+      </c>
+      <c r="F28" s="27" t="s">
+        <v>188</v>
+      </c>
+      <c r="G28" s="27" t="s">
+        <v>177</v>
+      </c>
+      <c r="H28" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="I28" s="27" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17">
+      <c r="A29" s="1">
+        <v>10</v>
+      </c>
+      <c r="B29" s="27" t="s">
+        <v>175</v>
+      </c>
+      <c r="C29" s="27" t="s">
+        <v>152</v>
+      </c>
+      <c r="D29" s="27" t="s">
+        <v>178</v>
+      </c>
+      <c r="E29" s="27" t="s">
+        <v>181</v>
+      </c>
+      <c r="F29" s="27" t="s">
+        <v>189</v>
+      </c>
+      <c r="G29" s="27" t="s">
+        <v>190</v>
+      </c>
+      <c r="H29" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="I29" s="27" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17">
+      <c r="H30" s="2"/>
+    </row>
+    <row r="31" spans="1:17">
+      <c r="B31" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" s="13" customFormat="1">
+      <c r="A33" s="13" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17">
+      <c r="A35" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17">
+      <c r="A36" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="E36" s="1"/>
+      <c r="G36" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="M36" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="P36" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17">
+      <c r="A37" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="D37" s="1">
+        <v>1</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="G37" s="1">
+        <v>1</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="J37" s="1">
+        <v>1</v>
+      </c>
+      <c r="K37" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="M37" s="1">
+        <v>1</v>
+      </c>
+      <c r="N37" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="P37" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q37" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17">
+      <c r="A38" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="D38" s="1">
+        <v>2</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="G38" s="1">
+        <v>2</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="J38" s="1">
+        <v>2</v>
+      </c>
+      <c r="K38" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="M38" s="1">
+        <v>2</v>
+      </c>
+      <c r="N38" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="P38" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q38" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17">
+      <c r="A39" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="D39" s="1">
+        <v>3</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="G39" s="1">
+        <v>3</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="J39" s="1">
+        <v>3</v>
+      </c>
+      <c r="K39" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="M39" s="1">
+        <v>3</v>
+      </c>
+      <c r="N39" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="P39" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q39" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17">
+      <c r="A40" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="D40" s="1">
+        <v>4</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="G40" s="1">
+        <v>4</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="J40" s="1">
+        <v>4</v>
+      </c>
+      <c r="K40" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="M40" s="1">
+        <v>4</v>
+      </c>
+      <c r="N40" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="P40" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q40" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17">
+      <c r="A42" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17">
+      <c r="A43" s="1">
+        <v>1</v>
+      </c>
+      <c r="B43" s="26" t="s">
+        <v>154</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17">
+      <c r="A44" s="1">
+        <v>2</v>
+      </c>
+      <c r="B44" s="26" t="s">
+        <v>160</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17">
+      <c r="A45" s="1">
+        <v>3</v>
+      </c>
+      <c r="B45" s="27" t="s">
+        <v>164</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17">
+      <c r="A46" s="1">
+        <v>4</v>
+      </c>
+      <c r="B46" s="27" t="s">
+        <v>183</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17">
+      <c r="A47" s="1">
+        <v>5</v>
+      </c>
+      <c r="B47" s="27" t="s">
+        <v>184</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17">
+      <c r="A48" s="1">
+        <v>6</v>
+      </c>
+      <c r="B48" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" s="1">
+        <v>7</v>
+      </c>
+      <c r="B49" s="27" t="s">
+        <v>186</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" s="1">
+        <v>8</v>
+      </c>
+      <c r="B50" s="27" t="s">
+        <v>187</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" s="1">
+        <v>9</v>
+      </c>
+      <c r="B51" s="27" t="s">
+        <v>188</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52" s="1">
+        <v>10</v>
+      </c>
+      <c r="B52" s="27" t="s">
+        <v>189</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" s="13" customFormat="1">
+      <c r="A54" s="13" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="A60" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="A61" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="A62" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
+      <c r="A63" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="A64" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66" s="1">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B18:H18"/>
+    <mergeCell ref="J18:Q18"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A2:DC51"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="16" width="1.625" style="18"/>
+    <col min="17" max="17" width="1.625" style="18" customWidth="1"/>
+    <col min="18" max="16384" width="1.625" style="18"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:107">
+      <c r="A2" s="18" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="4" spans="1:107">
+      <c r="A4" s="32" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q4" s="24" t="s">
+        <v>238</v>
+      </c>
+      <c r="R4" s="24"/>
+      <c r="S4" s="24"/>
+      <c r="T4" s="24"/>
+      <c r="U4" s="24"/>
+      <c r="V4" s="24"/>
+      <c r="W4" s="24"/>
+      <c r="X4" s="24"/>
+      <c r="Y4" s="24"/>
+      <c r="Z4" s="24"/>
+      <c r="AB4" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="AC4" s="24"/>
+      <c r="AD4" s="24"/>
+      <c r="AE4" s="24"/>
+      <c r="AF4" s="24"/>
+      <c r="AG4" s="24"/>
+      <c r="AH4" s="24"/>
+      <c r="AI4" s="24"/>
+    </row>
+    <row r="5" spans="1:107">
+      <c r="AB5"/>
+    </row>
+    <row r="6" spans="1:107">
+      <c r="A6" s="19"/>
+      <c r="B6" s="19"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19" t="s">
+        <v>239</v>
+      </c>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="19">
+        <v>5000</v>
+      </c>
+      <c r="L6" s="19"/>
+      <c r="M6" s="19"/>
+      <c r="N6" s="19"/>
+      <c r="O6" s="19"/>
+      <c r="Q6" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="R6" s="19"/>
+      <c r="S6" s="19"/>
+      <c r="T6" s="19"/>
+      <c r="U6" s="19"/>
+      <c r="V6" s="19">
+        <v>30</v>
+      </c>
+      <c r="W6" s="19"/>
+      <c r="X6" s="19"/>
+      <c r="Y6" s="19"/>
+      <c r="Z6" s="19"/>
+      <c r="AB6" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="AC6" s="19"/>
+      <c r="AD6" s="19"/>
+      <c r="AE6" s="19"/>
+      <c r="AF6" s="19"/>
+      <c r="AG6" s="19"/>
+      <c r="AH6" s="19"/>
+      <c r="AI6" s="19"/>
+    </row>
+    <row r="7" spans="1:107">
+      <c r="A7" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="19"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19">
+        <v>10</v>
+      </c>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="19">
+        <f>F7*$K$6</f>
+        <v>50000</v>
+      </c>
+      <c r="L7" s="19"/>
+      <c r="M7" s="19"/>
+      <c r="N7" s="19"/>
+      <c r="O7" s="19"/>
+      <c r="Q7" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="R7" s="19"/>
+      <c r="S7" s="19"/>
+      <c r="T7" s="19"/>
+      <c r="U7" s="19"/>
+      <c r="V7" s="19">
+        <v>10</v>
+      </c>
+      <c r="W7" s="19"/>
+      <c r="X7" s="19"/>
+      <c r="Y7" s="19"/>
+      <c r="Z7" s="19"/>
+      <c r="AB7" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="AC7" s="19"/>
+      <c r="AD7" s="19"/>
+      <c r="AE7" s="19"/>
+      <c r="AF7" s="19"/>
+      <c r="AG7" s="19"/>
+      <c r="AH7" s="19"/>
+      <c r="AI7" s="19"/>
+    </row>
+    <row r="8" spans="1:107">
+      <c r="A8" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="19"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19">
+        <v>1</v>
+      </c>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="19"/>
+      <c r="K8" s="19">
+        <f t="shared" ref="K8:K13" si="0">F8*$K$6</f>
+        <v>5000</v>
+      </c>
+      <c r="L8" s="19"/>
+      <c r="M8" s="19"/>
+      <c r="N8" s="19"/>
+      <c r="O8" s="19"/>
+      <c r="Q8" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="R8" s="19"/>
+      <c r="S8" s="19"/>
+      <c r="T8" s="19"/>
+      <c r="U8" s="19"/>
+      <c r="V8" s="19">
+        <v>15</v>
+      </c>
+      <c r="W8" s="19"/>
+      <c r="X8" s="19"/>
+      <c r="Y8" s="19"/>
+      <c r="Z8" s="19"/>
+      <c r="AB8" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="AC8" s="19"/>
+      <c r="AD8" s="19"/>
+      <c r="AE8" s="19"/>
+      <c r="AF8" s="19"/>
+      <c r="AG8" s="19"/>
+      <c r="AH8" s="19"/>
+      <c r="AI8" s="19"/>
+      <c r="BL8" s="32"/>
+      <c r="BM8" s="32"/>
+      <c r="BN8" s="32"/>
+      <c r="BO8" s="32"/>
+      <c r="BP8" s="32"/>
+      <c r="BQ8" s="32"/>
+      <c r="BR8" s="32"/>
+      <c r="BS8" s="32"/>
+      <c r="BT8" s="32"/>
+      <c r="BU8" s="32"/>
+      <c r="BV8" s="32"/>
+      <c r="BW8" s="32"/>
+      <c r="BX8" s="32"/>
+      <c r="BY8" s="32"/>
+      <c r="BZ8" s="32"/>
+      <c r="CA8" s="32"/>
+      <c r="CB8" s="32"/>
+      <c r="CC8" s="32"/>
+      <c r="CD8" s="32"/>
+      <c r="CE8" s="32"/>
+      <c r="CF8" s="32"/>
+      <c r="CG8" s="32"/>
+      <c r="CH8" s="32"/>
+      <c r="CI8" s="32"/>
+      <c r="CJ8" s="32"/>
+      <c r="CK8" s="32"/>
+      <c r="CL8" s="32"/>
+      <c r="CM8" s="32"/>
+      <c r="CN8" s="32"/>
+      <c r="CO8" s="32"/>
+      <c r="CP8" s="32"/>
+      <c r="CQ8" s="32"/>
+      <c r="CR8" s="32"/>
+      <c r="CS8" s="32"/>
+      <c r="CT8" s="32"/>
+      <c r="CU8" s="32"/>
+      <c r="CV8" s="32"/>
+      <c r="CW8" s="32"/>
+      <c r="CX8" s="32"/>
+      <c r="CY8" s="32"/>
+      <c r="CZ8" s="32"/>
+      <c r="DA8" s="32"/>
+      <c r="DB8" s="32"/>
+      <c r="DC8" s="32"/>
+    </row>
+    <row r="9" spans="1:107">
+      <c r="A9" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="19"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19">
+        <v>2</v>
+      </c>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="19">
+        <f t="shared" si="0"/>
+        <v>10000</v>
+      </c>
+      <c r="L9" s="19"/>
+      <c r="M9" s="19"/>
+      <c r="N9" s="19"/>
+      <c r="O9" s="19"/>
+      <c r="Q9" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="R9" s="19"/>
+      <c r="S9" s="19"/>
+      <c r="T9" s="19"/>
+      <c r="U9" s="19"/>
+      <c r="V9" s="19">
+        <v>10</v>
+      </c>
+      <c r="W9" s="19"/>
+      <c r="X9" s="19"/>
+      <c r="Y9" s="19"/>
+      <c r="Z9" s="19"/>
+      <c r="BL9" s="32"/>
+      <c r="BM9" s="32"/>
+      <c r="BN9" s="32"/>
+      <c r="BO9" s="32"/>
+      <c r="BP9" s="32"/>
+      <c r="BQ9" s="32"/>
+      <c r="BR9" s="32"/>
+      <c r="BS9" s="32"/>
+      <c r="BT9" s="32"/>
+      <c r="BU9" s="32"/>
+      <c r="BV9" s="32"/>
+      <c r="BW9" s="32"/>
+      <c r="BX9" s="32"/>
+      <c r="BY9" s="32"/>
+      <c r="BZ9" s="32"/>
+      <c r="CA9" s="32"/>
+      <c r="CB9" s="32"/>
+      <c r="CC9" s="32"/>
+      <c r="CD9" s="32"/>
+      <c r="CE9" s="32"/>
+      <c r="CF9" s="32"/>
+      <c r="CG9" s="32"/>
+      <c r="CH9" s="32"/>
+      <c r="CI9" s="32"/>
+      <c r="CJ9" s="32"/>
+      <c r="CK9" s="32"/>
+      <c r="CL9" s="32"/>
+      <c r="CM9" s="32"/>
+      <c r="CN9" s="32"/>
+      <c r="CO9" s="32"/>
+      <c r="CP9" s="32"/>
+      <c r="CQ9" s="32"/>
+      <c r="CR9" s="32"/>
+      <c r="CS9" s="32"/>
+      <c r="CT9" s="32"/>
+      <c r="CU9" s="32"/>
+      <c r="CV9" s="32"/>
+      <c r="CW9" s="32"/>
+      <c r="CX9" s="32"/>
+      <c r="CY9" s="32"/>
+      <c r="CZ9" s="32"/>
+      <c r="DA9" s="32"/>
+      <c r="DB9" s="32"/>
+      <c r="DC9" s="32"/>
+    </row>
+    <row r="10" spans="1:107">
+      <c r="A10" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="19"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19">
+        <v>0.4</v>
+      </c>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="19">
+        <f t="shared" si="0"/>
+        <v>2000</v>
+      </c>
+      <c r="L10" s="19"/>
+      <c r="M10" s="19"/>
+      <c r="N10" s="19"/>
+      <c r="O10" s="19"/>
+      <c r="Q10" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="R10" s="19"/>
+      <c r="S10" s="19"/>
+      <c r="T10" s="19"/>
+      <c r="U10" s="19"/>
+      <c r="V10" s="19">
+        <v>5</v>
+      </c>
+      <c r="W10" s="19"/>
+      <c r="X10" s="19"/>
+      <c r="Y10" s="19"/>
+      <c r="Z10" s="19"/>
+      <c r="BL10" s="32"/>
+      <c r="BM10" s="32"/>
+      <c r="BN10" s="32"/>
+      <c r="BO10" s="32"/>
+      <c r="BP10" s="32"/>
+      <c r="BQ10" s="32"/>
+      <c r="BR10" s="32"/>
+      <c r="BS10" s="32"/>
+      <c r="BT10" s="32"/>
+      <c r="BU10" s="32"/>
+      <c r="BV10" s="32"/>
+      <c r="BW10" s="32"/>
+      <c r="BX10" s="32"/>
+      <c r="BY10" s="32"/>
+      <c r="BZ10" s="32"/>
+      <c r="CA10" s="32"/>
+      <c r="CB10" s="32"/>
+      <c r="CC10" s="32"/>
+      <c r="CD10" s="32"/>
+      <c r="CE10" s="32"/>
+      <c r="CF10" s="32"/>
+      <c r="CG10" s="32"/>
+      <c r="CH10" s="32"/>
+      <c r="CI10" s="32"/>
+      <c r="CJ10" s="32"/>
+      <c r="CK10" s="32"/>
+      <c r="CL10" s="32"/>
+      <c r="CM10" s="32"/>
+      <c r="CN10" s="32"/>
+      <c r="CO10" s="32"/>
+      <c r="CP10" s="32"/>
+      <c r="CQ10" s="32"/>
+      <c r="CR10" s="32"/>
+      <c r="CS10" s="32"/>
+      <c r="CT10" s="32"/>
+      <c r="CU10" s="32"/>
+      <c r="CV10" s="32"/>
+      <c r="CW10" s="32"/>
+      <c r="CX10" s="32"/>
+      <c r="CY10" s="32"/>
+      <c r="CZ10" s="32"/>
+      <c r="DA10" s="32"/>
+      <c r="DB10" s="32"/>
+      <c r="DC10" s="32"/>
+    </row>
+    <row r="11" spans="1:107">
+      <c r="A11" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="19"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19">
+        <v>0.4</v>
+      </c>
+      <c r="G11" s="19"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="19"/>
+      <c r="K11" s="19">
+        <f t="shared" si="0"/>
+        <v>2000</v>
+      </c>
+      <c r="L11" s="19"/>
+      <c r="M11" s="19"/>
+      <c r="N11" s="19"/>
+      <c r="O11" s="19"/>
+      <c r="Q11" s="19" t="s">
+        <v>105</v>
+      </c>
+      <c r="R11" s="19"/>
+      <c r="S11" s="19"/>
+      <c r="T11" s="19"/>
+      <c r="U11" s="19"/>
+      <c r="V11" s="19">
+        <v>10</v>
+      </c>
+      <c r="W11" s="19"/>
+      <c r="X11" s="19"/>
+      <c r="Y11" s="19"/>
+      <c r="Z11" s="19"/>
+      <c r="BL11" s="32"/>
+      <c r="BM11" s="32"/>
+      <c r="BN11" s="32"/>
+      <c r="BO11" s="32"/>
+      <c r="BP11" s="32"/>
+      <c r="BQ11" s="32"/>
+      <c r="BR11" s="32"/>
+      <c r="BS11" s="32"/>
+      <c r="BT11" s="32"/>
+      <c r="BU11" s="32"/>
+      <c r="BV11" s="32"/>
+      <c r="BW11" s="32"/>
+      <c r="BX11" s="32"/>
+      <c r="BY11" s="32"/>
+      <c r="BZ11" s="32"/>
+      <c r="CA11" s="32"/>
+      <c r="CB11" s="32"/>
+      <c r="CC11" s="32"/>
+      <c r="CD11" s="32"/>
+      <c r="CE11" s="32"/>
+      <c r="CF11" s="32"/>
+      <c r="CG11" s="32"/>
+      <c r="CH11" s="32"/>
+      <c r="CI11" s="32"/>
+      <c r="CJ11" s="32"/>
+      <c r="CK11" s="32"/>
+      <c r="CL11" s="32"/>
+      <c r="CM11" s="32"/>
+      <c r="CN11" s="32"/>
+      <c r="CO11" s="32"/>
+      <c r="CP11" s="32"/>
+      <c r="CQ11" s="32"/>
+      <c r="CR11" s="32"/>
+      <c r="CS11" s="32"/>
+      <c r="CT11" s="32"/>
+      <c r="CU11" s="32"/>
+      <c r="CV11" s="32"/>
+      <c r="CW11" s="32"/>
+      <c r="CX11" s="32"/>
+      <c r="CY11" s="32"/>
+      <c r="CZ11" s="32"/>
+      <c r="DA11" s="32"/>
+      <c r="DB11" s="32"/>
+      <c r="DC11" s="32"/>
+    </row>
+    <row r="12" spans="1:107">
+      <c r="A12" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="19"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19">
+        <v>0.4</v>
+      </c>
+      <c r="G12" s="19"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="19"/>
+      <c r="K12" s="19">
+        <f t="shared" si="0"/>
+        <v>2000</v>
+      </c>
+      <c r="L12" s="19"/>
+      <c r="M12" s="19"/>
+      <c r="N12" s="19"/>
+      <c r="O12" s="19"/>
+      <c r="Q12" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="R12" s="19"/>
+      <c r="S12" s="19"/>
+      <c r="T12" s="19"/>
+      <c r="U12" s="19"/>
+      <c r="V12" s="19">
+        <v>20</v>
+      </c>
+      <c r="W12" s="19"/>
+      <c r="X12" s="19"/>
+      <c r="Y12" s="19"/>
+      <c r="Z12" s="19"/>
+      <c r="BL12" s="32"/>
+      <c r="BM12" s="32"/>
+      <c r="BN12" s="32"/>
+      <c r="BO12" s="32"/>
+      <c r="BP12" s="32"/>
+      <c r="BQ12" s="32"/>
+      <c r="BR12" s="32"/>
+      <c r="BS12" s="32"/>
+      <c r="BT12" s="32"/>
+      <c r="BU12" s="32"/>
+      <c r="BV12" s="32"/>
+      <c r="BW12" s="32"/>
+      <c r="BX12" s="32"/>
+      <c r="BY12" s="32"/>
+      <c r="BZ12" s="32"/>
+      <c r="CA12" s="32"/>
+      <c r="CB12" s="32"/>
+      <c r="CC12" s="32"/>
+      <c r="CD12" s="32"/>
+      <c r="CE12" s="32"/>
+      <c r="CF12" s="32"/>
+      <c r="CG12" s="32"/>
+      <c r="CH12" s="32"/>
+      <c r="CI12" s="32"/>
+      <c r="CJ12" s="32"/>
+      <c r="CK12" s="32"/>
+      <c r="CL12" s="32"/>
+      <c r="CM12" s="32"/>
+      <c r="CN12" s="32"/>
+      <c r="CO12" s="32"/>
+      <c r="CP12" s="32"/>
+      <c r="CQ12" s="32"/>
+      <c r="CR12" s="32"/>
+      <c r="CS12" s="32"/>
+      <c r="CT12" s="32"/>
+      <c r="CU12" s="32"/>
+      <c r="CV12" s="32"/>
+      <c r="CW12" s="32"/>
+      <c r="CX12" s="32"/>
+      <c r="CY12" s="32"/>
+      <c r="CZ12" s="32"/>
+      <c r="DA12" s="32"/>
+      <c r="DB12" s="32"/>
+      <c r="DC12" s="32"/>
+    </row>
+    <row r="13" spans="1:107">
+      <c r="A13" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="B13" s="19"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19">
+        <v>0.4</v>
+      </c>
+      <c r="G13" s="19"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="19"/>
+      <c r="K13" s="19">
+        <f t="shared" si="0"/>
+        <v>2000</v>
+      </c>
+      <c r="L13" s="19"/>
+      <c r="M13" s="19"/>
+      <c r="N13" s="19"/>
+      <c r="O13" s="19"/>
+      <c r="Q13" s="33" t="s">
+        <v>237</v>
+      </c>
+      <c r="R13" s="33"/>
+      <c r="S13" s="33"/>
+      <c r="T13" s="33"/>
+      <c r="U13" s="33"/>
+      <c r="V13" s="19">
+        <f>SUM(V6:V12)</f>
+        <v>100</v>
+      </c>
+      <c r="W13" s="19"/>
+      <c r="X13" s="19"/>
+      <c r="Y13" s="19"/>
+      <c r="Z13" s="19"/>
+      <c r="BL13" s="32"/>
+      <c r="BM13" s="32"/>
+      <c r="BN13" s="32"/>
+      <c r="BO13" s="32"/>
+      <c r="BP13" s="32"/>
+      <c r="BQ13" s="32"/>
+      <c r="BR13" s="32"/>
+      <c r="BS13" s="32"/>
+      <c r="BT13" s="32"/>
+      <c r="BU13" s="32"/>
+      <c r="BV13" s="32"/>
+      <c r="BW13" s="32"/>
+      <c r="BX13" s="32"/>
+      <c r="BY13" s="32"/>
+      <c r="BZ13" s="32"/>
+      <c r="CA13" s="32"/>
+      <c r="CB13" s="32"/>
+      <c r="CC13" s="32"/>
+      <c r="CD13" s="32"/>
+      <c r="CE13" s="32"/>
+      <c r="CF13" s="32"/>
+      <c r="CG13" s="32"/>
+      <c r="CH13" s="32"/>
+      <c r="CI13" s="32"/>
+      <c r="CJ13" s="32"/>
+      <c r="CK13" s="32"/>
+      <c r="CL13" s="32"/>
+      <c r="CM13" s="32"/>
+      <c r="CN13" s="32"/>
+      <c r="CO13" s="32"/>
+      <c r="CP13" s="32"/>
+      <c r="CQ13" s="32"/>
+      <c r="CR13" s="32"/>
+      <c r="CS13" s="32"/>
+      <c r="CT13" s="32"/>
+      <c r="CU13" s="32"/>
+      <c r="CV13" s="32"/>
+      <c r="CW13" s="32"/>
+      <c r="CX13" s="32"/>
+      <c r="CY13" s="32"/>
+      <c r="CZ13" s="32"/>
+      <c r="DA13" s="32"/>
+      <c r="DB13" s="32"/>
+      <c r="DC13" s="32"/>
+    </row>
+    <row r="14" spans="1:107">
+      <c r="BL14" s="32"/>
+      <c r="BM14" s="32"/>
+      <c r="BN14" s="32"/>
+      <c r="BO14" s="32"/>
+      <c r="BP14" s="32"/>
+      <c r="BQ14" s="32"/>
+      <c r="BR14" s="32"/>
+      <c r="BS14" s="32"/>
+      <c r="BT14" s="32"/>
+      <c r="BU14" s="32"/>
+      <c r="BV14" s="32"/>
+      <c r="BW14" s="32"/>
+      <c r="BX14" s="32"/>
+      <c r="BY14" s="32"/>
+      <c r="BZ14" s="32"/>
+      <c r="CA14" s="32"/>
+      <c r="CB14" s="32"/>
+      <c r="CC14" s="32"/>
+      <c r="CD14" s="32"/>
+      <c r="CE14" s="32"/>
+      <c r="CF14" s="32"/>
+      <c r="CG14" s="32"/>
+      <c r="CH14" s="32"/>
+      <c r="CI14" s="32"/>
+      <c r="CJ14" s="32"/>
+      <c r="CK14" s="32"/>
+      <c r="CL14" s="32"/>
+      <c r="CM14" s="32"/>
+      <c r="CN14" s="32"/>
+      <c r="CO14" s="32"/>
+      <c r="CP14" s="32"/>
+      <c r="CQ14" s="32"/>
+      <c r="CR14" s="32"/>
+      <c r="CS14" s="32"/>
+      <c r="CT14" s="32"/>
+      <c r="CU14" s="32"/>
+      <c r="CV14" s="32"/>
+      <c r="CW14" s="32"/>
+      <c r="CX14" s="32"/>
+      <c r="CY14" s="32"/>
+      <c r="CZ14" s="32"/>
+      <c r="DA14" s="32"/>
+      <c r="DB14" s="32"/>
+      <c r="DC14" s="32"/>
+    </row>
+    <row r="15" spans="1:107" s="34" customFormat="1">
+      <c r="A15" s="35" t="s">
+        <v>86</v>
+      </c>
+      <c r="B15" s="35"/>
+      <c r="C15" s="35"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="35"/>
+      <c r="G15" s="35"/>
+      <c r="J15" s="34" t="s">
+        <v>256</v>
+      </c>
+      <c r="BL15" s="39"/>
+      <c r="BM15" s="39"/>
+      <c r="BN15" s="39"/>
+      <c r="BO15" s="39"/>
+      <c r="BP15" s="39"/>
+      <c r="BQ15" s="39"/>
+      <c r="BR15" s="39"/>
+      <c r="BS15" s="39"/>
+      <c r="BT15" s="39"/>
+      <c r="BU15" s="39"/>
+      <c r="BV15" s="39"/>
+      <c r="BW15" s="39"/>
+      <c r="BX15" s="39"/>
+      <c r="BY15" s="39"/>
+      <c r="BZ15" s="39"/>
+      <c r="CA15" s="39"/>
+      <c r="CB15" s="39"/>
+      <c r="CC15" s="39"/>
+      <c r="CD15" s="39"/>
+      <c r="CE15" s="39"/>
+      <c r="CF15" s="39"/>
+      <c r="CG15" s="39"/>
+      <c r="CH15" s="39"/>
+      <c r="CI15" s="39"/>
+      <c r="CJ15" s="39"/>
+      <c r="CK15" s="39"/>
+      <c r="CL15" s="39"/>
+      <c r="CM15" s="39"/>
+      <c r="CN15" s="39"/>
+      <c r="CO15" s="39"/>
+      <c r="CP15" s="39"/>
+      <c r="CQ15" s="39"/>
+      <c r="CR15" s="39"/>
+      <c r="CS15" s="39"/>
+      <c r="CT15" s="39"/>
+      <c r="CU15" s="39"/>
+      <c r="CV15" s="39"/>
+      <c r="CW15" s="39"/>
+      <c r="CX15" s="39"/>
+      <c r="CY15" s="39"/>
+      <c r="CZ15" s="39"/>
+      <c r="DA15" s="39"/>
+      <c r="DB15" s="39"/>
+      <c r="DC15" s="39"/>
+    </row>
+    <row r="16" spans="1:107">
+      <c r="BL16" s="32"/>
+      <c r="BM16" s="32"/>
+      <c r="BN16" s="32"/>
+      <c r="BO16" s="32"/>
+      <c r="BP16" s="32"/>
+      <c r="BQ16" s="32"/>
+      <c r="BR16" s="32"/>
+      <c r="BS16" s="32"/>
+      <c r="BT16" s="32"/>
+      <c r="BU16" s="32"/>
+      <c r="BV16" s="32"/>
+      <c r="BW16" s="32"/>
+      <c r="BX16" s="32"/>
+      <c r="BY16" s="32"/>
+      <c r="BZ16" s="32"/>
+      <c r="CA16" s="32"/>
+      <c r="CB16" s="32"/>
+      <c r="CC16" s="32"/>
+      <c r="CD16" s="32"/>
+      <c r="CE16" s="32"/>
+      <c r="CF16" s="32"/>
+      <c r="CG16" s="32"/>
+      <c r="CH16" s="32"/>
+      <c r="CI16" s="32"/>
+      <c r="CJ16" s="32"/>
+      <c r="CK16" s="32"/>
+      <c r="CL16" s="32"/>
+      <c r="CM16" s="32"/>
+      <c r="CN16" s="32"/>
+      <c r="CO16" s="32"/>
+      <c r="CP16" s="32"/>
+      <c r="CQ16" s="32"/>
+      <c r="CR16" s="32"/>
+      <c r="CS16" s="32"/>
+      <c r="CT16" s="32"/>
+      <c r="CU16" s="32"/>
+      <c r="CV16" s="32"/>
+      <c r="CW16" s="32"/>
+      <c r="CX16" s="32"/>
+      <c r="CY16" s="32"/>
+      <c r="CZ16" s="32"/>
+      <c r="DA16" s="32"/>
+      <c r="DB16" s="32"/>
+      <c r="DC16" s="32"/>
+    </row>
+    <row r="17" spans="1:107">
+      <c r="A17" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="B17" s="24"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="24"/>
+      <c r="H17" s="24"/>
+      <c r="J17" s="38">
+        <v>1</v>
+      </c>
+      <c r="K17" s="38"/>
+      <c r="L17" s="38"/>
+      <c r="BL17" s="32"/>
+      <c r="BM17" s="32"/>
+      <c r="BN17" s="32"/>
+      <c r="BO17" s="32"/>
+      <c r="BP17" s="32"/>
+      <c r="BQ17" s="32"/>
+      <c r="BR17" s="32"/>
+      <c r="BS17" s="32"/>
+      <c r="BT17" s="32"/>
+      <c r="BU17" s="32"/>
+      <c r="BV17" s="32"/>
+      <c r="BW17" s="32"/>
+      <c r="BX17" s="32"/>
+      <c r="BY17" s="32"/>
+      <c r="BZ17" s="32"/>
+      <c r="CA17" s="32"/>
+      <c r="CB17" s="32"/>
+      <c r="CC17" s="32"/>
+      <c r="CD17" s="32"/>
+      <c r="CE17" s="32"/>
+      <c r="CF17" s="32"/>
+      <c r="CG17" s="32"/>
+      <c r="CH17" s="32"/>
+      <c r="CI17" s="32"/>
+      <c r="CJ17" s="32"/>
+      <c r="CK17" s="32"/>
+      <c r="CL17" s="32"/>
+      <c r="CM17" s="32"/>
+      <c r="CN17" s="32"/>
+      <c r="CO17" s="32"/>
+      <c r="CP17" s="32"/>
+      <c r="CQ17" s="32"/>
+      <c r="CR17" s="32"/>
+      <c r="CS17" s="32"/>
+      <c r="CT17" s="32"/>
+      <c r="CU17" s="32"/>
+      <c r="CV17" s="32"/>
+      <c r="CW17" s="32"/>
+      <c r="CX17" s="32"/>
+      <c r="CY17" s="32"/>
+      <c r="CZ17" s="32"/>
+      <c r="DA17" s="32"/>
+      <c r="DB17" s="32"/>
+      <c r="DC17" s="32"/>
+    </row>
+    <row r="18" spans="1:107">
+      <c r="BL18" s="32"/>
+      <c r="BM18" s="32"/>
+      <c r="BN18" s="32"/>
+      <c r="BO18" s="32"/>
+      <c r="BP18" s="32"/>
+      <c r="BQ18" s="32"/>
+      <c r="BR18" s="32"/>
+      <c r="BS18" s="32"/>
+      <c r="BT18" s="32"/>
+      <c r="BU18" s="32"/>
+      <c r="BV18" s="32"/>
+      <c r="BW18" s="32"/>
+      <c r="BX18" s="32"/>
+      <c r="BY18" s="32"/>
+      <c r="BZ18" s="32"/>
+      <c r="CA18" s="32"/>
+      <c r="CB18" s="32"/>
+      <c r="CC18" s="32"/>
+      <c r="CD18" s="32"/>
+      <c r="CE18" s="32"/>
+      <c r="CF18" s="32"/>
+      <c r="CG18" s="32"/>
+      <c r="CH18" s="32"/>
+      <c r="CI18" s="32"/>
+      <c r="CJ18" s="32"/>
+      <c r="CK18" s="32"/>
+      <c r="CL18" s="32"/>
+      <c r="CM18" s="32"/>
+      <c r="CN18" s="32"/>
+      <c r="CO18" s="32"/>
+      <c r="CP18" s="32"/>
+      <c r="CQ18" s="32"/>
+      <c r="CR18" s="32"/>
+      <c r="CS18" s="32"/>
+      <c r="CT18" s="32"/>
+      <c r="CU18" s="32"/>
+      <c r="CV18" s="32"/>
+      <c r="CW18" s="32"/>
+      <c r="CX18" s="32"/>
+      <c r="CY18" s="32"/>
+      <c r="CZ18" s="32"/>
+      <c r="DA18" s="32"/>
+      <c r="DB18" s="32"/>
+      <c r="DC18" s="32"/>
+    </row>
+    <row r="19" spans="1:107">
+      <c r="A19" s="19"/>
+      <c r="B19" s="19"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="19"/>
+      <c r="J19" s="19"/>
+      <c r="K19" s="19"/>
+      <c r="L19" s="19"/>
+      <c r="M19" s="19"/>
+      <c r="N19" s="19"/>
+      <c r="O19" s="19"/>
+      <c r="P19" s="19"/>
+      <c r="Q19" s="19"/>
+      <c r="R19" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="S19" s="19"/>
+      <c r="T19" s="19"/>
+      <c r="U19" s="19"/>
+      <c r="V19" s="19"/>
+      <c r="W19" s="19"/>
+      <c r="X19" s="19"/>
+      <c r="Y19" s="19"/>
+      <c r="Z19" s="19" t="s">
+        <v>245</v>
+      </c>
+      <c r="AA19" s="19"/>
+      <c r="AB19" s="19"/>
+      <c r="AC19" s="19"/>
+      <c r="AD19" s="19"/>
+      <c r="AE19" s="19"/>
+      <c r="AF19" s="19"/>
+      <c r="AG19" s="19"/>
+      <c r="AH19" s="19" t="s">
+        <v>246</v>
+      </c>
+      <c r="AI19" s="19"/>
+      <c r="AJ19" s="19"/>
+      <c r="AK19" s="19"/>
+      <c r="AL19" s="19"/>
+      <c r="AM19" s="19"/>
+      <c r="AN19" s="19"/>
+      <c r="AO19" s="19"/>
+      <c r="AP19" s="19" t="s">
+        <v>248</v>
+      </c>
+      <c r="AQ19" s="19"/>
+      <c r="AR19" s="19"/>
+      <c r="AS19" s="19"/>
+      <c r="AT19" s="19"/>
+      <c r="AU19" s="19"/>
+      <c r="AV19" s="19"/>
+      <c r="AW19" s="19"/>
+      <c r="AX19" s="19" t="s">
+        <v>247</v>
+      </c>
+      <c r="AY19" s="19"/>
+      <c r="AZ19" s="19"/>
+      <c r="BA19" s="19"/>
+      <c r="BB19" s="19"/>
+      <c r="BC19" s="19"/>
+      <c r="BD19" s="19"/>
+      <c r="BE19" s="19"/>
+      <c r="BF19" s="19" t="s">
+        <v>249</v>
+      </c>
+      <c r="BG19" s="19"/>
+      <c r="BH19" s="19"/>
+      <c r="BI19" s="19"/>
+      <c r="BJ19" s="19"/>
+      <c r="BK19" s="19"/>
+      <c r="BL19" s="19"/>
+      <c r="BM19" s="19"/>
+      <c r="BN19" s="19" t="s">
+        <v>250</v>
+      </c>
+      <c r="BO19" s="19"/>
+      <c r="BP19" s="19"/>
+      <c r="BQ19" s="19"/>
+      <c r="BR19" s="19"/>
+      <c r="BS19" s="19"/>
+      <c r="BT19" s="19"/>
+      <c r="BU19" s="19"/>
+      <c r="BV19" s="19" t="s">
+        <v>236</v>
+      </c>
+      <c r="BW19" s="19"/>
+      <c r="BX19" s="19"/>
+      <c r="BY19" s="19"/>
+      <c r="BZ19" s="19"/>
+      <c r="CA19" s="19"/>
+      <c r="CB19" s="19"/>
+      <c r="CC19" s="19"/>
+    </row>
+    <row r="20" spans="1:107">
+      <c r="A20" s="19"/>
+      <c r="B20" s="19"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="19" t="s">
+        <v>240</v>
+      </c>
+      <c r="G20" s="19"/>
+      <c r="H20" s="19"/>
+      <c r="I20" s="19"/>
+      <c r="J20" s="19"/>
+      <c r="K20" s="19"/>
+      <c r="L20" s="19" t="s">
+        <v>265</v>
+      </c>
+      <c r="M20" s="19"/>
+      <c r="N20" s="19"/>
+      <c r="O20" s="19"/>
+      <c r="P20" s="19"/>
+      <c r="Q20" s="19"/>
+      <c r="R20" s="19" t="s">
+        <v>252</v>
+      </c>
+      <c r="S20" s="19"/>
+      <c r="T20" s="19"/>
+      <c r="U20" s="19"/>
+      <c r="V20" s="19" t="s">
+        <v>253</v>
+      </c>
+      <c r="W20" s="19"/>
+      <c r="X20" s="19"/>
+      <c r="Y20" s="19"/>
+      <c r="Z20" s="19" t="s">
+        <v>243</v>
+      </c>
+      <c r="AA20" s="19"/>
+      <c r="AB20" s="19"/>
+      <c r="AC20" s="19"/>
+      <c r="AD20" s="19" t="s">
+        <v>253</v>
+      </c>
+      <c r="AE20" s="19"/>
+      <c r="AF20" s="19"/>
+      <c r="AG20" s="19"/>
+      <c r="AH20" s="19" t="s">
+        <v>252</v>
+      </c>
+      <c r="AI20" s="19"/>
+      <c r="AJ20" s="19"/>
+      <c r="AK20" s="19"/>
+      <c r="AL20" s="19" t="s">
+        <v>253</v>
+      </c>
+      <c r="AM20" s="19"/>
+      <c r="AN20" s="19"/>
+      <c r="AO20" s="19"/>
+      <c r="AP20" s="19" t="s">
+        <v>252</v>
+      </c>
+      <c r="AQ20" s="19"/>
+      <c r="AR20" s="19"/>
+      <c r="AS20" s="19"/>
+      <c r="AT20" s="19" t="s">
+        <v>253</v>
+      </c>
+      <c r="AU20" s="19"/>
+      <c r="AV20" s="19"/>
+      <c r="AW20" s="19"/>
+      <c r="AX20" s="19" t="s">
+        <v>252</v>
+      </c>
+      <c r="AY20" s="19"/>
+      <c r="AZ20" s="19"/>
+      <c r="BA20" s="19"/>
+      <c r="BB20" s="19" t="s">
+        <v>253</v>
+      </c>
+      <c r="BC20" s="19"/>
+      <c r="BD20" s="19"/>
+      <c r="BE20" s="19"/>
+      <c r="BF20" s="19" t="s">
+        <v>252</v>
+      </c>
+      <c r="BG20" s="19"/>
+      <c r="BH20" s="19"/>
+      <c r="BI20" s="19"/>
+      <c r="BJ20" s="19" t="s">
+        <v>253</v>
+      </c>
+      <c r="BK20" s="19"/>
+      <c r="BL20" s="19"/>
+      <c r="BM20" s="19"/>
+      <c r="BN20" s="19" t="s">
+        <v>252</v>
+      </c>
+      <c r="BO20" s="19"/>
+      <c r="BP20" s="19"/>
+      <c r="BQ20" s="19"/>
+      <c r="BR20" s="19" t="s">
+        <v>253</v>
+      </c>
+      <c r="BS20" s="19"/>
+      <c r="BT20" s="19"/>
+      <c r="BU20" s="19"/>
+      <c r="BV20" s="19" t="s">
+        <v>252</v>
+      </c>
+      <c r="BW20" s="19"/>
+      <c r="BX20" s="19"/>
+      <c r="BY20" s="19"/>
+      <c r="BZ20" s="19" t="s">
+        <v>253</v>
+      </c>
+      <c r="CA20" s="19"/>
+      <c r="CB20" s="19"/>
+      <c r="CC20" s="19"/>
+    </row>
+    <row r="21" spans="1:107">
+      <c r="A21" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="B21" s="19"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="19">
+        <v>10</v>
+      </c>
+      <c r="G21" s="19"/>
+      <c r="H21" s="19"/>
+      <c r="I21" s="19"/>
+      <c r="J21" s="19"/>
+      <c r="K21" s="19"/>
+      <c r="L21" s="19"/>
+      <c r="M21" s="19"/>
+      <c r="N21" s="19"/>
+      <c r="O21" s="19"/>
+      <c r="P21" s="19"/>
+      <c r="Q21" s="19"/>
+      <c r="R21" s="19">
+        <v>4</v>
+      </c>
+      <c r="S21" s="19"/>
+      <c r="T21" s="19"/>
+      <c r="U21" s="19"/>
+      <c r="V21" s="19">
+        <f>($K$7*F21/100*R21/10)*$J$17</f>
+        <v>2000</v>
+      </c>
+      <c r="W21" s="19"/>
+      <c r="X21" s="19"/>
+      <c r="Y21" s="19"/>
+      <c r="Z21" s="19">
+        <v>1</v>
+      </c>
+      <c r="AA21" s="19"/>
+      <c r="AB21" s="19"/>
+      <c r="AC21" s="19"/>
+      <c r="AD21" s="19">
+        <f>($K$8*F21/100*Z21/10)*$J$17</f>
+        <v>50</v>
+      </c>
+      <c r="AE21" s="19"/>
+      <c r="AF21" s="19"/>
+      <c r="AG21" s="19"/>
+      <c r="AH21" s="19">
+        <v>2</v>
+      </c>
+      <c r="AI21" s="19"/>
+      <c r="AJ21" s="19"/>
+      <c r="AK21" s="19"/>
+      <c r="AL21" s="19">
+        <f>($K$9*F21/100*AH21/10)*$J$17</f>
+        <v>200</v>
+      </c>
+      <c r="AM21" s="19"/>
+      <c r="AN21" s="19"/>
+      <c r="AO21" s="19"/>
+      <c r="AP21" s="19">
+        <v>1.5</v>
+      </c>
+      <c r="AQ21" s="19"/>
+      <c r="AR21" s="19"/>
+      <c r="AS21" s="19"/>
+      <c r="AT21" s="19">
+        <f>($K$10*F21/100*AP21/10)*$J$17</f>
+        <v>30</v>
+      </c>
+      <c r="AU21" s="19"/>
+      <c r="AV21" s="19"/>
+      <c r="AW21" s="19"/>
+      <c r="AX21" s="19">
+        <v>1</v>
+      </c>
+      <c r="AY21" s="19"/>
+      <c r="AZ21" s="19"/>
+      <c r="BA21" s="19"/>
+      <c r="BB21" s="19">
+        <f>($K$11*F21/100*AX21/10)*$J$17</f>
+        <v>20</v>
+      </c>
+      <c r="BC21" s="19"/>
+      <c r="BD21" s="19"/>
+      <c r="BE21" s="19"/>
+      <c r="BF21" s="19">
+        <v>0.5</v>
+      </c>
+      <c r="BG21" s="19"/>
+      <c r="BH21" s="19"/>
+      <c r="BI21" s="19"/>
+      <c r="BJ21" s="19">
+        <f>($K$12*F21/100*BF21/10)*$J$17</f>
+        <v>10</v>
+      </c>
+      <c r="BK21" s="19"/>
+      <c r="BL21" s="19"/>
+      <c r="BM21" s="19"/>
+      <c r="BN21" s="19">
+        <v>0</v>
+      </c>
+      <c r="BO21" s="19"/>
+      <c r="BP21" s="19"/>
+      <c r="BQ21" s="19"/>
+      <c r="BR21" s="19">
+        <f>($K$13*F21/100*BN21/10)*$J$17</f>
+        <v>0</v>
+      </c>
+      <c r="BS21" s="19"/>
+      <c r="BT21" s="19"/>
+      <c r="BU21" s="19"/>
+      <c r="BV21" s="19">
+        <f>SUM(BN21,BF21,AX21,AP21,AH21,Z21,R21)</f>
+        <v>10</v>
+      </c>
+      <c r="BW21" s="19"/>
+      <c r="BX21" s="19"/>
+      <c r="BY21" s="19"/>
+      <c r="BZ21" s="19">
+        <f>SUM(BR21,BJ21,BB21,AT21,AL21,AD21,V21)</f>
+        <v>2310</v>
+      </c>
+      <c r="CA21" s="19"/>
+      <c r="CB21" s="19"/>
+      <c r="CC21" s="19"/>
+    </row>
+    <row r="22" spans="1:107">
+      <c r="A22" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="B22" s="19"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="19">
+        <v>20</v>
+      </c>
+      <c r="G22" s="19"/>
+      <c r="H22" s="19"/>
+      <c r="I22" s="19"/>
+      <c r="J22" s="19"/>
+      <c r="K22" s="19"/>
+      <c r="L22" s="19"/>
+      <c r="M22" s="19"/>
+      <c r="N22" s="19"/>
+      <c r="O22" s="19"/>
+      <c r="P22" s="19"/>
+      <c r="Q22" s="19"/>
+      <c r="R22" s="19">
+        <v>15</v>
+      </c>
+      <c r="S22" s="19"/>
+      <c r="T22" s="19"/>
+      <c r="U22" s="19"/>
+      <c r="V22" s="19">
+        <f>($K$7*F22/100*R22/10)*$J$17</f>
+        <v>15000</v>
+      </c>
+      <c r="W22" s="19"/>
+      <c r="X22" s="19"/>
+      <c r="Y22" s="19"/>
+      <c r="Z22" s="19">
+        <v>2</v>
+      </c>
+      <c r="AA22" s="19"/>
+      <c r="AB22" s="19"/>
+      <c r="AC22" s="19"/>
+      <c r="AD22" s="19">
+        <f>($K$8*F22/100*Z22/10)*$J$17</f>
+        <v>200</v>
+      </c>
+      <c r="AE22" s="19"/>
+      <c r="AF22" s="19"/>
+      <c r="AG22" s="19"/>
+      <c r="AH22" s="19">
+        <v>0.5</v>
+      </c>
+      <c r="AI22" s="19"/>
+      <c r="AJ22" s="19"/>
+      <c r="AK22" s="19"/>
+      <c r="AL22" s="19">
+        <f>($K$9*F22/100*AH22/10)*$J$17</f>
+        <v>100</v>
+      </c>
+      <c r="AM22" s="19"/>
+      <c r="AN22" s="19"/>
+      <c r="AO22" s="19"/>
+      <c r="AP22" s="19">
+        <v>1</v>
+      </c>
+      <c r="AQ22" s="19"/>
+      <c r="AR22" s="19"/>
+      <c r="AS22" s="19"/>
+      <c r="AT22" s="19">
+        <f>($K$10*F22/100*AP22/10)*$J$17</f>
+        <v>40</v>
+      </c>
+      <c r="AU22" s="19"/>
+      <c r="AV22" s="19"/>
+      <c r="AW22" s="19"/>
+      <c r="AX22" s="19">
+        <v>1.5</v>
+      </c>
+      <c r="AY22" s="19"/>
+      <c r="AZ22" s="19"/>
+      <c r="BA22" s="19"/>
+      <c r="BB22" s="19">
+        <f>($K$11*F22/100*AX22/10)*$J$17</f>
+        <v>60</v>
+      </c>
+      <c r="BC22" s="19"/>
+      <c r="BD22" s="19"/>
+      <c r="BE22" s="19"/>
+      <c r="BF22" s="19">
+        <v>0</v>
+      </c>
+      <c r="BG22" s="19"/>
+      <c r="BH22" s="19"/>
+      <c r="BI22" s="19"/>
+      <c r="BJ22" s="19">
+        <f>($K$12*F22/100*BF22/10)*$J$17</f>
+        <v>0</v>
+      </c>
+      <c r="BK22" s="19"/>
+      <c r="BL22" s="19"/>
+      <c r="BM22" s="19"/>
+      <c r="BN22" s="19">
+        <v>0</v>
+      </c>
+      <c r="BO22" s="19"/>
+      <c r="BP22" s="19"/>
+      <c r="BQ22" s="19"/>
+      <c r="BR22" s="19">
+        <f>($K$13*F22/100*BN22/10)*$J$17</f>
+        <v>0</v>
+      </c>
+      <c r="BS22" s="19"/>
+      <c r="BT22" s="19"/>
+      <c r="BU22" s="19"/>
+      <c r="BV22" s="19">
+        <f t="shared" ref="BV22:BV26" si="1">SUM(BN22,BF22,AX22,AP22,AH22,Z22,R22)</f>
+        <v>20</v>
+      </c>
+      <c r="BW22" s="19"/>
+      <c r="BX22" s="19"/>
+      <c r="BY22" s="19"/>
+      <c r="BZ22" s="19">
+        <f t="shared" ref="BZ22:BZ26" si="2">SUM(BR22,BJ22,BB22,AT22,AL22,AD22,V22)</f>
+        <v>15400</v>
+      </c>
+      <c r="CA22" s="19"/>
+      <c r="CB22" s="19"/>
+      <c r="CC22" s="19"/>
+    </row>
+    <row r="23" spans="1:107">
+      <c r="A23" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="B23" s="19"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="19">
+        <v>20</v>
+      </c>
+      <c r="G23" s="19"/>
+      <c r="H23" s="19"/>
+      <c r="I23" s="19"/>
+      <c r="J23" s="19"/>
+      <c r="K23" s="19"/>
+      <c r="L23" s="19"/>
+      <c r="M23" s="19"/>
+      <c r="N23" s="19"/>
+      <c r="O23" s="19"/>
+      <c r="P23" s="19"/>
+      <c r="Q23" s="19"/>
+      <c r="R23" s="19">
+        <v>7</v>
+      </c>
+      <c r="S23" s="19"/>
+      <c r="T23" s="19"/>
+      <c r="U23" s="19"/>
+      <c r="V23" s="19">
+        <f>($K$7*F23/100*R23/10)*$J$17</f>
+        <v>7000</v>
+      </c>
+      <c r="W23" s="19"/>
+      <c r="X23" s="19"/>
+      <c r="Y23" s="19"/>
+      <c r="Z23" s="19">
+        <v>1.5</v>
+      </c>
+      <c r="AA23" s="19"/>
+      <c r="AB23" s="19"/>
+      <c r="AC23" s="19"/>
+      <c r="AD23" s="19">
+        <f>($K$8*F23/100*Z23/10)*$J$17</f>
+        <v>150</v>
+      </c>
+      <c r="AE23" s="19"/>
+      <c r="AF23" s="19"/>
+      <c r="AG23" s="19"/>
+      <c r="AH23" s="19">
+        <v>3</v>
+      </c>
+      <c r="AI23" s="19"/>
+      <c r="AJ23" s="19"/>
+      <c r="AK23" s="19"/>
+      <c r="AL23" s="19">
+        <f>($K$9*F23/100*AH23/10)*$J$17</f>
+        <v>600</v>
+      </c>
+      <c r="AM23" s="19"/>
+      <c r="AN23" s="19"/>
+      <c r="AO23" s="19"/>
+      <c r="AP23" s="19">
+        <v>3</v>
+      </c>
+      <c r="AQ23" s="19"/>
+      <c r="AR23" s="19"/>
+      <c r="AS23" s="19"/>
+      <c r="AT23" s="19">
+        <f>($K$10*F23/100*AP23/10)*$J$17</f>
+        <v>120</v>
+      </c>
+      <c r="AU23" s="19"/>
+      <c r="AV23" s="19"/>
+      <c r="AW23" s="19"/>
+      <c r="AX23" s="19">
+        <v>5</v>
+      </c>
+      <c r="AY23" s="19"/>
+      <c r="AZ23" s="19"/>
+      <c r="BA23" s="19"/>
+      <c r="BB23" s="19">
+        <f>($K$11*F23/100*AX23/10)*$J$17</f>
+        <v>200</v>
+      </c>
+      <c r="BC23" s="19"/>
+      <c r="BD23" s="19"/>
+      <c r="BE23" s="19"/>
+      <c r="BF23" s="19">
+        <v>0.5</v>
+      </c>
+      <c r="BG23" s="19"/>
+      <c r="BH23" s="19"/>
+      <c r="BI23" s="19"/>
+      <c r="BJ23" s="19">
+        <f>($K$12*F23/100*BF23/10)*$J$17</f>
+        <v>20</v>
+      </c>
+      <c r="BK23" s="19"/>
+      <c r="BL23" s="19"/>
+      <c r="BM23" s="19"/>
+      <c r="BN23" s="19">
+        <v>0</v>
+      </c>
+      <c r="BO23" s="19"/>
+      <c r="BP23" s="19"/>
+      <c r="BQ23" s="19"/>
+      <c r="BR23" s="19">
+        <f>($K$13*F23/100*BN23/10)*$J$17</f>
+        <v>0</v>
+      </c>
+      <c r="BS23" s="19"/>
+      <c r="BT23" s="19"/>
+      <c r="BU23" s="19"/>
+      <c r="BV23" s="19">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="BW23" s="19"/>
+      <c r="BX23" s="19"/>
+      <c r="BY23" s="19"/>
+      <c r="BZ23" s="19">
+        <f t="shared" si="2"/>
+        <v>8090</v>
+      </c>
+      <c r="CA23" s="19"/>
+      <c r="CB23" s="19"/>
+      <c r="CC23" s="19"/>
+    </row>
+    <row r="24" spans="1:107">
+      <c r="A24" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="B24" s="19"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="19">
+        <v>20</v>
+      </c>
+      <c r="G24" s="19"/>
+      <c r="H24" s="19"/>
+      <c r="I24" s="19"/>
+      <c r="J24" s="19"/>
+      <c r="K24" s="19"/>
+      <c r="L24" s="19"/>
+      <c r="M24" s="19"/>
+      <c r="N24" s="19"/>
+      <c r="O24" s="19"/>
+      <c r="P24" s="19"/>
+      <c r="Q24" s="19"/>
+      <c r="R24" s="19">
+        <v>8</v>
+      </c>
+      <c r="S24" s="19"/>
+      <c r="T24" s="19"/>
+      <c r="U24" s="19"/>
+      <c r="V24" s="19">
+        <f>($K$7*F24/100*R24/10)*$J$17</f>
+        <v>8000</v>
+      </c>
+      <c r="W24" s="19"/>
+      <c r="X24" s="19"/>
+      <c r="Y24" s="19"/>
+      <c r="Z24" s="19">
+        <v>1</v>
+      </c>
+      <c r="AA24" s="19"/>
+      <c r="AB24" s="19"/>
+      <c r="AC24" s="19"/>
+      <c r="AD24" s="19">
+        <f>($K$8*F24/100*Z24/10)*$J$17</f>
+        <v>100</v>
+      </c>
+      <c r="AE24" s="19"/>
+      <c r="AF24" s="19"/>
+      <c r="AG24" s="19"/>
+      <c r="AH24" s="19">
+        <v>7</v>
+      </c>
+      <c r="AI24" s="19"/>
+      <c r="AJ24" s="19"/>
+      <c r="AK24" s="19"/>
+      <c r="AL24" s="19">
+        <f>($K$9*F24/100*AH24/10)*$J$17</f>
+        <v>1400</v>
+      </c>
+      <c r="AM24" s="19"/>
+      <c r="AN24" s="19"/>
+      <c r="AO24" s="19"/>
+      <c r="AP24" s="19">
+        <v>0.5</v>
+      </c>
+      <c r="AQ24" s="19"/>
+      <c r="AR24" s="19"/>
+      <c r="AS24" s="19"/>
+      <c r="AT24" s="19">
+        <f>($K$10*F24/100*AP24/10)*$J$17</f>
+        <v>20</v>
+      </c>
+      <c r="AU24" s="19"/>
+      <c r="AV24" s="19"/>
+      <c r="AW24" s="19"/>
+      <c r="AX24" s="19">
+        <v>3</v>
+      </c>
+      <c r="AY24" s="19"/>
+      <c r="AZ24" s="19"/>
+      <c r="BA24" s="19"/>
+      <c r="BB24" s="19">
+        <f>($K$11*F24/100*AX24/10)*$J$17</f>
+        <v>120</v>
+      </c>
+      <c r="BC24" s="19"/>
+      <c r="BD24" s="19"/>
+      <c r="BE24" s="19"/>
+      <c r="BF24" s="19">
+        <v>0.5</v>
+      </c>
+      <c r="BG24" s="19"/>
+      <c r="BH24" s="19"/>
+      <c r="BI24" s="19"/>
+      <c r="BJ24" s="19">
+        <f>($K$12*F24/100*BF24/10)*$J$17</f>
+        <v>20</v>
+      </c>
+      <c r="BK24" s="19"/>
+      <c r="BL24" s="19"/>
+      <c r="BM24" s="19"/>
+      <c r="BN24" s="19">
+        <v>0</v>
+      </c>
+      <c r="BO24" s="19"/>
+      <c r="BP24" s="19"/>
+      <c r="BQ24" s="19"/>
+      <c r="BR24" s="19">
+        <f>($K$13*F24/100*BN24/10)*$J$17</f>
+        <v>0</v>
+      </c>
+      <c r="BS24" s="19"/>
+      <c r="BT24" s="19"/>
+      <c r="BU24" s="19"/>
+      <c r="BV24" s="19">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="BW24" s="19"/>
+      <c r="BX24" s="19"/>
+      <c r="BY24" s="19"/>
+      <c r="BZ24" s="19">
+        <f t="shared" si="2"/>
+        <v>9660</v>
+      </c>
+      <c r="CA24" s="19"/>
+      <c r="CB24" s="19"/>
+      <c r="CC24" s="19"/>
+    </row>
+    <row r="25" spans="1:107">
+      <c r="A25" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="B25" s="19"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="19">
+        <v>20</v>
+      </c>
+      <c r="G25" s="19"/>
+      <c r="H25" s="19"/>
+      <c r="I25" s="19"/>
+      <c r="J25" s="19"/>
+      <c r="K25" s="19"/>
+      <c r="L25" s="19"/>
+      <c r="M25" s="19"/>
+      <c r="N25" s="19"/>
+      <c r="O25" s="19"/>
+      <c r="P25" s="19"/>
+      <c r="Q25" s="19"/>
+      <c r="R25" s="19">
+        <v>0</v>
+      </c>
+      <c r="S25" s="19"/>
+      <c r="T25" s="19"/>
+      <c r="U25" s="19"/>
+      <c r="V25" s="19">
+        <f>($K$7*F25/100*R25/10)*$J$17</f>
+        <v>0</v>
+      </c>
+      <c r="W25" s="19"/>
+      <c r="X25" s="19"/>
+      <c r="Y25" s="19"/>
+      <c r="Z25" s="19">
+        <v>0</v>
+      </c>
+      <c r="AA25" s="19"/>
+      <c r="AB25" s="19"/>
+      <c r="AC25" s="19"/>
+      <c r="AD25" s="19">
+        <f>($K$8*F25/100*Z25/10)*$J$17</f>
+        <v>0</v>
+      </c>
+      <c r="AE25" s="19"/>
+      <c r="AF25" s="19"/>
+      <c r="AG25" s="19"/>
+      <c r="AH25" s="19">
+        <v>20</v>
+      </c>
+      <c r="AI25" s="19"/>
+      <c r="AJ25" s="19"/>
+      <c r="AK25" s="19"/>
+      <c r="AL25" s="19">
+        <f>($K$9*F25/100*AH25/10)*$J$17</f>
+        <v>4000</v>
+      </c>
+      <c r="AM25" s="19"/>
+      <c r="AN25" s="19"/>
+      <c r="AO25" s="19"/>
+      <c r="AP25" s="19">
+        <v>0</v>
+      </c>
+      <c r="AQ25" s="19"/>
+      <c r="AR25" s="19"/>
+      <c r="AS25" s="19"/>
+      <c r="AT25" s="19">
+        <f>($K$10*F25/100*AP25/10)*$J$17</f>
+        <v>0</v>
+      </c>
+      <c r="AU25" s="19"/>
+      <c r="AV25" s="19"/>
+      <c r="AW25" s="19"/>
+      <c r="AX25" s="19">
+        <v>0</v>
+      </c>
+      <c r="AY25" s="19"/>
+      <c r="AZ25" s="19"/>
+      <c r="BA25" s="19"/>
+      <c r="BB25" s="19">
+        <f>($K$11*F25/100*AX25/10)*$J$17</f>
+        <v>0</v>
+      </c>
+      <c r="BC25" s="19"/>
+      <c r="BD25" s="19"/>
+      <c r="BE25" s="19"/>
+      <c r="BF25" s="19">
+        <v>0</v>
+      </c>
+      <c r="BG25" s="19"/>
+      <c r="BH25" s="19"/>
+      <c r="BI25" s="19"/>
+      <c r="BJ25" s="19">
+        <f>($K$12*F25/100*BF25/10)*$J$17</f>
+        <v>0</v>
+      </c>
+      <c r="BK25" s="19"/>
+      <c r="BL25" s="19"/>
+      <c r="BM25" s="19"/>
+      <c r="BN25" s="19">
+        <v>0</v>
+      </c>
+      <c r="BO25" s="19"/>
+      <c r="BP25" s="19"/>
+      <c r="BQ25" s="19"/>
+      <c r="BR25" s="19">
+        <f>($K$13*F25/100*BN25/10)*$J$17</f>
+        <v>0</v>
+      </c>
+      <c r="BS25" s="19"/>
+      <c r="BT25" s="19"/>
+      <c r="BU25" s="19"/>
+      <c r="BV25" s="19">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="BW25" s="19"/>
+      <c r="BX25" s="19"/>
+      <c r="BY25" s="19"/>
+      <c r="BZ25" s="19">
+        <f t="shared" si="2"/>
+        <v>4000</v>
+      </c>
+      <c r="CA25" s="19"/>
+      <c r="CB25" s="19"/>
+      <c r="CC25" s="19"/>
+    </row>
+    <row r="26" spans="1:107">
+      <c r="A26" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="B26" s="33"/>
+      <c r="C26" s="33"/>
+      <c r="D26" s="33"/>
+      <c r="E26" s="33"/>
+      <c r="F26" s="19">
+        <v>10</v>
+      </c>
+      <c r="G26" s="19"/>
+      <c r="H26" s="19"/>
+      <c r="I26" s="19"/>
+      <c r="J26" s="19"/>
+      <c r="K26" s="19"/>
+      <c r="L26" s="19"/>
+      <c r="M26" s="19"/>
+      <c r="N26" s="19"/>
+      <c r="O26" s="19"/>
+      <c r="P26" s="19"/>
+      <c r="Q26" s="19"/>
+      <c r="R26" s="19">
+        <v>4</v>
+      </c>
+      <c r="S26" s="19"/>
+      <c r="T26" s="19"/>
+      <c r="U26" s="19"/>
+      <c r="V26" s="19">
+        <f>($K$7*F26/100*R26/10)*$J$17</f>
+        <v>2000</v>
+      </c>
+      <c r="W26" s="19"/>
+      <c r="X26" s="19"/>
+      <c r="Y26" s="19"/>
+      <c r="Z26" s="19">
+        <v>0.5</v>
+      </c>
+      <c r="AA26" s="19"/>
+      <c r="AB26" s="19"/>
+      <c r="AC26" s="19"/>
+      <c r="AD26" s="19">
+        <f>($K$8*F26/100*Z26/10)*$J$17</f>
+        <v>25</v>
+      </c>
+      <c r="AE26" s="19"/>
+      <c r="AF26" s="19"/>
+      <c r="AG26" s="19"/>
+      <c r="AH26" s="19">
+        <v>2</v>
+      </c>
+      <c r="AI26" s="19"/>
+      <c r="AJ26" s="19"/>
+      <c r="AK26" s="19"/>
+      <c r="AL26" s="19">
+        <f>($K$9*F26/100*AH26/10)*$J$17</f>
+        <v>200</v>
+      </c>
+      <c r="AM26" s="19"/>
+      <c r="AN26" s="19"/>
+      <c r="AO26" s="19"/>
+      <c r="AP26" s="19">
+        <v>1.5</v>
+      </c>
+      <c r="AQ26" s="19"/>
+      <c r="AR26" s="19"/>
+      <c r="AS26" s="19"/>
+      <c r="AT26" s="19">
+        <f>($K$10*F26/100*AP26/10)*$J$17</f>
+        <v>30</v>
+      </c>
+      <c r="AU26" s="19"/>
+      <c r="AV26" s="19"/>
+      <c r="AW26" s="19"/>
+      <c r="AX26" s="19">
+        <v>0.5</v>
+      </c>
+      <c r="AY26" s="19"/>
+      <c r="AZ26" s="19"/>
+      <c r="BA26" s="19"/>
+      <c r="BB26" s="19">
+        <f>($K$11*F26/100*AX26/10)*$J$17</f>
+        <v>10</v>
+      </c>
+      <c r="BC26" s="19"/>
+      <c r="BD26" s="19"/>
+      <c r="BE26" s="19"/>
+      <c r="BF26" s="19">
+        <v>0.5</v>
+      </c>
+      <c r="BG26" s="19"/>
+      <c r="BH26" s="19"/>
+      <c r="BI26" s="19"/>
+      <c r="BJ26" s="19">
+        <f>($K$12*F26/100*BF26/10)*$J$17</f>
+        <v>10</v>
+      </c>
+      <c r="BK26" s="19"/>
+      <c r="BL26" s="19"/>
+      <c r="BM26" s="19"/>
+      <c r="BN26" s="19">
+        <v>1</v>
+      </c>
+      <c r="BO26" s="19"/>
+      <c r="BP26" s="19"/>
+      <c r="BQ26" s="19"/>
+      <c r="BR26" s="19">
+        <f>($K$13*F26/100*BN26/10)*$J$17</f>
+        <v>20</v>
+      </c>
+      <c r="BS26" s="19"/>
+      <c r="BT26" s="19"/>
+      <c r="BU26" s="19"/>
+      <c r="BV26" s="19">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="BW26" s="19"/>
+      <c r="BX26" s="19"/>
+      <c r="BY26" s="19"/>
+      <c r="BZ26" s="19">
+        <f t="shared" si="2"/>
+        <v>2295</v>
+      </c>
+      <c r="CA26" s="19"/>
+      <c r="CB26" s="19"/>
+      <c r="CC26" s="19"/>
+    </row>
+    <row r="27" spans="1:107">
+      <c r="A27" s="33" t="s">
+        <v>237</v>
+      </c>
+      <c r="B27" s="33"/>
+      <c r="C27" s="33"/>
+      <c r="D27" s="33"/>
+      <c r="E27" s="33"/>
+      <c r="F27" s="19">
+        <f>SUM(F21:F26)</f>
+        <v>100</v>
+      </c>
+      <c r="G27" s="19"/>
+      <c r="H27" s="19"/>
+      <c r="I27" s="19"/>
+      <c r="J27" s="19"/>
+      <c r="K27" s="19"/>
+      <c r="L27" s="19"/>
+      <c r="M27" s="19"/>
+      <c r="N27" s="19"/>
+      <c r="O27" s="19"/>
+      <c r="P27" s="19"/>
+      <c r="Q27" s="19"/>
+      <c r="R27" s="19">
+        <f>SUM(R21:T26)</f>
+        <v>38</v>
+      </c>
+      <c r="S27" s="19"/>
+      <c r="T27" s="19"/>
+      <c r="U27" s="19"/>
+      <c r="V27" s="19">
+        <f t="shared" ref="V27" si="3">SUM(V21:X26)</f>
+        <v>34000</v>
+      </c>
+      <c r="W27" s="19"/>
+      <c r="X27" s="19"/>
+      <c r="Y27" s="19"/>
+      <c r="Z27" s="19">
+        <f>SUM(Z21:AB26)</f>
+        <v>6</v>
+      </c>
+      <c r="AA27" s="19"/>
+      <c r="AB27" s="19"/>
+      <c r="AC27" s="19"/>
+      <c r="AD27" s="19">
+        <f t="shared" ref="AD27" si="4">SUM(AD21:AF26)</f>
+        <v>525</v>
+      </c>
+      <c r="AE27" s="19"/>
+      <c r="AF27" s="19"/>
+      <c r="AG27" s="19"/>
+      <c r="AH27" s="19">
+        <f t="shared" ref="AH27" si="5">SUM(AH21:AJ26)</f>
+        <v>34.5</v>
+      </c>
+      <c r="AI27" s="19"/>
+      <c r="AJ27" s="19"/>
+      <c r="AK27" s="19"/>
+      <c r="AL27" s="19">
+        <f t="shared" ref="AL27" si="6">SUM(AL21:AN26)</f>
+        <v>6500</v>
+      </c>
+      <c r="AM27" s="19"/>
+      <c r="AN27" s="19"/>
+      <c r="AO27" s="19"/>
+      <c r="AP27" s="19">
+        <f t="shared" ref="AP27" si="7">SUM(AP21:AR26)</f>
+        <v>7.5</v>
+      </c>
+      <c r="AQ27" s="19"/>
+      <c r="AR27" s="19"/>
+      <c r="AS27" s="19"/>
+      <c r="AT27" s="19">
+        <f t="shared" ref="AT27" si="8">SUM(AT21:AV26)</f>
+        <v>240</v>
+      </c>
+      <c r="AU27" s="19"/>
+      <c r="AV27" s="19"/>
+      <c r="AW27" s="19"/>
+      <c r="AX27" s="19">
+        <f t="shared" ref="AX27" si="9">SUM(AX21:AZ26)</f>
+        <v>11</v>
+      </c>
+      <c r="AY27" s="19"/>
+      <c r="AZ27" s="19"/>
+      <c r="BA27" s="19"/>
+      <c r="BB27" s="19">
+        <f t="shared" ref="BB27" si="10">SUM(BB21:BD26)</f>
+        <v>410</v>
+      </c>
+      <c r="BC27" s="19"/>
+      <c r="BD27" s="19"/>
+      <c r="BE27" s="19"/>
+      <c r="BF27" s="19">
+        <f t="shared" ref="BF27" si="11">SUM(BF21:BH26)</f>
+        <v>2</v>
+      </c>
+      <c r="BG27" s="19"/>
+      <c r="BH27" s="19"/>
+      <c r="BI27" s="19"/>
+      <c r="BJ27" s="19">
+        <f t="shared" ref="BJ27" si="12">SUM(BJ21:BL26)</f>
+        <v>60</v>
+      </c>
+      <c r="BK27" s="19"/>
+      <c r="BL27" s="19"/>
+      <c r="BM27" s="19"/>
+      <c r="BN27" s="19">
+        <f t="shared" ref="BN27" si="13">SUM(BN21:BP26)</f>
+        <v>1</v>
+      </c>
+      <c r="BO27" s="19"/>
+      <c r="BP27" s="19"/>
+      <c r="BQ27" s="19"/>
+      <c r="BR27" s="19">
+        <f t="shared" ref="BR27" si="14">SUM(BR21:BT26)</f>
+        <v>20</v>
+      </c>
+      <c r="BS27" s="19"/>
+      <c r="BT27" s="19"/>
+      <c r="BU27" s="19"/>
+      <c r="BV27" s="19">
+        <f t="shared" ref="BV27" si="15">SUM(BV21:BX26)</f>
+        <v>100</v>
+      </c>
+      <c r="BW27" s="19"/>
+      <c r="BX27" s="19"/>
+      <c r="BY27" s="19"/>
+      <c r="BZ27" s="19">
+        <f t="shared" ref="BZ27" si="16">SUM(BZ21:CB26)</f>
+        <v>41755</v>
+      </c>
+      <c r="CA27" s="19"/>
+      <c r="CB27" s="19"/>
+      <c r="CC27" s="19"/>
+    </row>
+    <row r="29" spans="1:107">
+      <c r="A29" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="B29" s="24"/>
+      <c r="C29" s="24"/>
+      <c r="D29" s="24"/>
+      <c r="E29" s="24"/>
+      <c r="F29" s="24"/>
+      <c r="G29" s="24"/>
+      <c r="H29" s="24"/>
+      <c r="J29" s="38">
+        <v>1</v>
+      </c>
+      <c r="K29" s="38"/>
+      <c r="L29" s="38"/>
+    </row>
+    <row r="30" spans="1:107">
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+    </row>
+    <row r="31" spans="1:107">
+      <c r="A31" s="19"/>
+      <c r="B31" s="19"/>
+      <c r="C31" s="19"/>
+      <c r="D31" s="19"/>
+      <c r="E31" s="19"/>
+      <c r="F31" s="19"/>
+      <c r="G31" s="19"/>
+      <c r="H31" s="19"/>
+      <c r="I31" s="19"/>
+      <c r="J31" s="19"/>
+      <c r="K31" s="19"/>
+      <c r="L31" s="19"/>
+      <c r="M31" s="19"/>
+      <c r="N31" s="19"/>
+      <c r="O31" s="19"/>
+      <c r="P31" s="19"/>
+      <c r="Q31" s="19"/>
+      <c r="R31" s="19"/>
+      <c r="S31" s="19"/>
+      <c r="T31" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="U31" s="19"/>
+      <c r="V31" s="19"/>
+      <c r="W31" s="19"/>
+      <c r="X31" s="19"/>
+      <c r="Y31" s="19"/>
+      <c r="Z31" s="19"/>
+      <c r="AA31" s="19"/>
+      <c r="AB31" s="19" t="s">
+        <v>257</v>
+      </c>
+      <c r="AC31" s="19"/>
+      <c r="AD31" s="19"/>
+      <c r="AE31" s="19"/>
+      <c r="AF31" s="19"/>
+      <c r="AG31" s="19"/>
+      <c r="AH31" s="19"/>
+      <c r="AI31" s="19"/>
+      <c r="AJ31" s="19" t="s">
+        <v>258</v>
+      </c>
+      <c r="AK31" s="19"/>
+      <c r="AL31" s="19"/>
+      <c r="AM31" s="19"/>
+      <c r="AN31" s="19"/>
+      <c r="AO31" s="19"/>
+      <c r="AP31" s="19"/>
+      <c r="AQ31" s="19"/>
+      <c r="AR31" s="19" t="s">
+        <v>259</v>
+      </c>
+      <c r="AS31" s="19"/>
+      <c r="AT31" s="19"/>
+      <c r="AU31" s="19"/>
+      <c r="AV31" s="19"/>
+      <c r="AW31" s="19"/>
+      <c r="AX31" s="19"/>
+      <c r="AY31" s="19"/>
+      <c r="AZ31" s="19" t="s">
+        <v>260</v>
+      </c>
+      <c r="BA31" s="19"/>
+      <c r="BB31" s="19"/>
+      <c r="BC31" s="19"/>
+      <c r="BD31" s="19"/>
+      <c r="BE31" s="19"/>
+      <c r="BF31" s="19"/>
+      <c r="BG31" s="19"/>
+      <c r="BH31" s="19" t="s">
+        <v>261</v>
+      </c>
+      <c r="BI31" s="19"/>
+      <c r="BJ31" s="19"/>
+      <c r="BK31" s="19"/>
+      <c r="BL31" s="19"/>
+      <c r="BM31" s="19"/>
+      <c r="BN31" s="19"/>
+      <c r="BO31" s="19"/>
+      <c r="BP31" s="19" t="s">
+        <v>251</v>
+      </c>
+      <c r="BQ31" s="19"/>
+      <c r="BR31" s="19"/>
+      <c r="BS31" s="19"/>
+      <c r="BT31" s="19"/>
+      <c r="BU31" s="19"/>
+      <c r="BV31" s="19"/>
+      <c r="BW31" s="19"/>
+      <c r="BX31" s="19" t="s">
+        <v>262</v>
+      </c>
+      <c r="BY31" s="19"/>
+      <c r="BZ31" s="19"/>
+      <c r="CA31" s="19"/>
+      <c r="CB31" s="19"/>
+      <c r="CC31" s="19"/>
+      <c r="CD31" s="19"/>
+      <c r="CE31" s="19"/>
+    </row>
+    <row r="32" spans="1:107">
+      <c r="A32" s="19"/>
+      <c r="B32" s="19"/>
+      <c r="C32" s="19"/>
+      <c r="D32" s="19"/>
+      <c r="E32" s="19"/>
+      <c r="F32" s="19"/>
+      <c r="G32" s="19"/>
+      <c r="H32" s="19" t="s">
+        <v>240</v>
+      </c>
+      <c r="I32" s="19"/>
+      <c r="J32" s="19"/>
+      <c r="K32" s="19"/>
+      <c r="L32" s="19"/>
+      <c r="M32" s="19"/>
+      <c r="N32" s="19" t="s">
+        <v>265</v>
+      </c>
+      <c r="O32" s="19"/>
+      <c r="P32" s="19"/>
+      <c r="Q32" s="19"/>
+      <c r="R32" s="19"/>
+      <c r="S32" s="19"/>
+      <c r="T32" s="19" t="s">
+        <v>263</v>
+      </c>
+      <c r="U32" s="19"/>
+      <c r="V32" s="19"/>
+      <c r="W32" s="19"/>
+      <c r="X32" s="19" t="s">
+        <v>264</v>
+      </c>
+      <c r="Y32" s="19"/>
+      <c r="Z32" s="19"/>
+      <c r="AA32" s="19"/>
+      <c r="AB32" s="19" t="s">
+        <v>263</v>
+      </c>
+      <c r="AC32" s="19"/>
+      <c r="AD32" s="19"/>
+      <c r="AE32" s="19"/>
+      <c r="AF32" s="19" t="s">
+        <v>264</v>
+      </c>
+      <c r="AG32" s="19"/>
+      <c r="AH32" s="19"/>
+      <c r="AI32" s="19"/>
+      <c r="AJ32" s="19" t="s">
+        <v>263</v>
+      </c>
+      <c r="AK32" s="19"/>
+      <c r="AL32" s="19"/>
+      <c r="AM32" s="19"/>
+      <c r="AN32" s="19" t="s">
+        <v>264</v>
+      </c>
+      <c r="AO32" s="19"/>
+      <c r="AP32" s="19"/>
+      <c r="AQ32" s="19"/>
+      <c r="AR32" s="19" t="s">
+        <v>263</v>
+      </c>
+      <c r="AS32" s="19"/>
+      <c r="AT32" s="19"/>
+      <c r="AU32" s="19"/>
+      <c r="AV32" s="19" t="s">
+        <v>264</v>
+      </c>
+      <c r="AW32" s="19"/>
+      <c r="AX32" s="19"/>
+      <c r="AY32" s="19"/>
+      <c r="AZ32" s="19" t="s">
+        <v>263</v>
+      </c>
+      <c r="BA32" s="19"/>
+      <c r="BB32" s="19"/>
+      <c r="BC32" s="19"/>
+      <c r="BD32" s="19" t="s">
+        <v>264</v>
+      </c>
+      <c r="BE32" s="19"/>
+      <c r="BF32" s="19"/>
+      <c r="BG32" s="19"/>
+      <c r="BH32" s="19" t="s">
+        <v>263</v>
+      </c>
+      <c r="BI32" s="19"/>
+      <c r="BJ32" s="19"/>
+      <c r="BK32" s="19"/>
+      <c r="BL32" s="19" t="s">
+        <v>264</v>
+      </c>
+      <c r="BM32" s="19"/>
+      <c r="BN32" s="19"/>
+      <c r="BO32" s="19"/>
+      <c r="BP32" s="19" t="s">
+        <v>263</v>
+      </c>
+      <c r="BQ32" s="19"/>
+      <c r="BR32" s="19"/>
+      <c r="BS32" s="19"/>
+      <c r="BT32" s="19" t="s">
+        <v>264</v>
+      </c>
+      <c r="BU32" s="19"/>
+      <c r="BV32" s="19"/>
+      <c r="BW32" s="19"/>
+      <c r="BX32" s="19" t="s">
+        <v>263</v>
+      </c>
+      <c r="BY32" s="19"/>
+      <c r="BZ32" s="19"/>
+      <c r="CA32" s="19"/>
+      <c r="CB32" s="19" t="s">
+        <v>264</v>
+      </c>
+      <c r="CC32" s="19"/>
+      <c r="CD32" s="19"/>
+      <c r="CE32" s="19"/>
+    </row>
+    <row r="33" spans="1:83">
+      <c r="A33" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="B33" s="19"/>
+      <c r="C33" s="19"/>
+      <c r="D33" s="19"/>
+      <c r="E33" s="19"/>
+      <c r="F33" s="19"/>
+      <c r="G33" s="19"/>
+      <c r="H33" s="30">
+        <v>14</v>
+      </c>
+      <c r="I33" s="36"/>
+      <c r="J33" s="36"/>
+      <c r="K33" s="36"/>
+      <c r="L33" s="36"/>
+      <c r="M33" s="37"/>
+      <c r="N33" s="19"/>
+      <c r="O33" s="19"/>
+      <c r="P33" s="19"/>
+      <c r="Q33" s="19"/>
+      <c r="R33" s="19"/>
+      <c r="S33" s="19"/>
+      <c r="T33" s="19">
+        <v>6</v>
+      </c>
+      <c r="U33" s="19"/>
+      <c r="V33" s="19"/>
+      <c r="W33" s="19"/>
+      <c r="X33" s="19"/>
+      <c r="Y33" s="19"/>
+      <c r="Z33" s="19"/>
+      <c r="AA33" s="19"/>
+      <c r="AB33" s="19">
+        <v>1</v>
+      </c>
+      <c r="AC33" s="19"/>
+      <c r="AD33" s="19"/>
+      <c r="AE33" s="19"/>
+      <c r="AF33" s="19"/>
+      <c r="AG33" s="19"/>
+      <c r="AH33" s="19"/>
+      <c r="AI33" s="19"/>
+      <c r="AJ33" s="19">
+        <v>3</v>
+      </c>
+      <c r="AK33" s="19"/>
+      <c r="AL33" s="19"/>
+      <c r="AM33" s="19"/>
+      <c r="AN33" s="19"/>
+      <c r="AO33" s="19"/>
+      <c r="AP33" s="19"/>
+      <c r="AQ33" s="19"/>
+      <c r="AR33" s="19">
+        <v>2</v>
+      </c>
+      <c r="AS33" s="19"/>
+      <c r="AT33" s="19"/>
+      <c r="AU33" s="19"/>
+      <c r="AV33" s="19"/>
+      <c r="AW33" s="19"/>
+      <c r="AX33" s="19"/>
+      <c r="AY33" s="19"/>
+      <c r="AZ33" s="19">
+        <v>0.5</v>
+      </c>
+      <c r="BA33" s="19"/>
+      <c r="BB33" s="19"/>
+      <c r="BC33" s="19"/>
+      <c r="BD33" s="19"/>
+      <c r="BE33" s="19"/>
+      <c r="BF33" s="19"/>
+      <c r="BG33" s="19"/>
+      <c r="BH33" s="19">
+        <v>0.5</v>
+      </c>
+      <c r="BI33" s="19"/>
+      <c r="BJ33" s="19"/>
+      <c r="BK33" s="19"/>
+      <c r="BL33" s="19"/>
+      <c r="BM33" s="19"/>
+      <c r="BN33" s="19"/>
+      <c r="BO33" s="19"/>
+      <c r="BP33" s="19">
+        <v>1</v>
+      </c>
+      <c r="BQ33" s="19"/>
+      <c r="BR33" s="19"/>
+      <c r="BS33" s="19"/>
+      <c r="BT33" s="19"/>
+      <c r="BU33" s="19"/>
+      <c r="BV33" s="19"/>
+      <c r="BW33" s="19"/>
+      <c r="BX33" s="19">
+        <f>SUM(BP33,BH33,AZ33,AR33,AJ33,AB33,T33)</f>
+        <v>14</v>
+      </c>
+      <c r="BY33" s="19"/>
+      <c r="BZ33" s="19"/>
+      <c r="CA33" s="19"/>
+      <c r="CB33" s="19">
+        <f>SUM(BT33,BL33,BD33,AV33,AN33,AF33,X33)</f>
+        <v>0</v>
+      </c>
+      <c r="CC33" s="19"/>
+      <c r="CD33" s="19"/>
+      <c r="CE33" s="19"/>
+    </row>
+    <row r="34" spans="1:83">
+      <c r="A34" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="B34" s="19"/>
+      <c r="C34" s="19"/>
+      <c r="D34" s="19"/>
+      <c r="E34" s="19"/>
+      <c r="F34" s="19"/>
+      <c r="G34" s="19"/>
+      <c r="H34" s="30">
+        <v>16</v>
+      </c>
+      <c r="I34" s="36"/>
+      <c r="J34" s="36"/>
+      <c r="K34" s="36"/>
+      <c r="L34" s="36"/>
+      <c r="M34" s="37"/>
+      <c r="N34" s="19"/>
+      <c r="O34" s="19"/>
+      <c r="P34" s="19"/>
+      <c r="Q34" s="19"/>
+      <c r="R34" s="19"/>
+      <c r="S34" s="19"/>
+      <c r="T34" s="19">
+        <v>5</v>
+      </c>
+      <c r="U34" s="19"/>
+      <c r="V34" s="19"/>
+      <c r="W34" s="19"/>
+      <c r="X34" s="19"/>
+      <c r="Y34" s="19"/>
+      <c r="Z34" s="19"/>
+      <c r="AA34" s="19"/>
+      <c r="AB34" s="19">
+        <v>1</v>
+      </c>
+      <c r="AC34" s="19"/>
+      <c r="AD34" s="19"/>
+      <c r="AE34" s="19"/>
+      <c r="AF34" s="19"/>
+      <c r="AG34" s="19"/>
+      <c r="AH34" s="19"/>
+      <c r="AI34" s="19"/>
+      <c r="AJ34" s="19">
+        <v>3</v>
+      </c>
+      <c r="AK34" s="19"/>
+      <c r="AL34" s="19"/>
+      <c r="AM34" s="19"/>
+      <c r="AN34" s="19"/>
+      <c r="AO34" s="19"/>
+      <c r="AP34" s="19"/>
+      <c r="AQ34" s="19"/>
+      <c r="AR34" s="19">
+        <v>2.5</v>
+      </c>
+      <c r="AS34" s="19"/>
+      <c r="AT34" s="19"/>
+      <c r="AU34" s="19"/>
+      <c r="AV34" s="19"/>
+      <c r="AW34" s="19"/>
+      <c r="AX34" s="19"/>
+      <c r="AY34" s="19"/>
+      <c r="AZ34" s="19">
+        <v>2</v>
+      </c>
+      <c r="BA34" s="19"/>
+      <c r="BB34" s="19"/>
+      <c r="BC34" s="19"/>
+      <c r="BD34" s="19"/>
+      <c r="BE34" s="19"/>
+      <c r="BF34" s="19"/>
+      <c r="BG34" s="19"/>
+      <c r="BH34" s="19">
+        <v>1</v>
+      </c>
+      <c r="BI34" s="19"/>
+      <c r="BJ34" s="19"/>
+      <c r="BK34" s="19"/>
+      <c r="BL34" s="19"/>
+      <c r="BM34" s="19"/>
+      <c r="BN34" s="19"/>
+      <c r="BO34" s="19"/>
+      <c r="BP34" s="19">
+        <v>1.5</v>
+      </c>
+      <c r="BQ34" s="19"/>
+      <c r="BR34" s="19"/>
+      <c r="BS34" s="19"/>
+      <c r="BT34" s="19"/>
+      <c r="BU34" s="19"/>
+      <c r="BV34" s="19"/>
+      <c r="BW34" s="19"/>
+      <c r="BX34" s="19">
+        <f t="shared" ref="BX34:BX38" si="17">SUM(BP34,BH34,AZ34,AR34,AJ34,AB34,T34)</f>
+        <v>16</v>
+      </c>
+      <c r="BY34" s="19"/>
+      <c r="BZ34" s="19"/>
+      <c r="CA34" s="19"/>
+      <c r="CB34" s="19">
+        <f t="shared" ref="CB34:CB38" si="18">SUM(BT34,BL34,BD34,AV34,AN34,AF34,X34)</f>
+        <v>0</v>
+      </c>
+      <c r="CC34" s="19"/>
+      <c r="CD34" s="19"/>
+      <c r="CE34" s="19"/>
+    </row>
+    <row r="35" spans="1:83">
+      <c r="A35" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="B35" s="19"/>
+      <c r="C35" s="19"/>
+      <c r="D35" s="19"/>
+      <c r="E35" s="19"/>
+      <c r="F35" s="19"/>
+      <c r="G35" s="19"/>
+      <c r="H35" s="30">
+        <v>25</v>
+      </c>
+      <c r="I35" s="36"/>
+      <c r="J35" s="36"/>
+      <c r="K35" s="36"/>
+      <c r="L35" s="36"/>
+      <c r="M35" s="37"/>
+      <c r="N35" s="19"/>
+      <c r="O35" s="19"/>
+      <c r="P35" s="19"/>
+      <c r="Q35" s="19"/>
+      <c r="R35" s="19"/>
+      <c r="S35" s="19"/>
+      <c r="T35" s="19">
+        <v>15</v>
+      </c>
+      <c r="U35" s="19"/>
+      <c r="V35" s="19"/>
+      <c r="W35" s="19"/>
+      <c r="X35" s="19"/>
+      <c r="Y35" s="19"/>
+      <c r="Z35" s="19"/>
+      <c r="AA35" s="19"/>
+      <c r="AB35" s="19">
+        <v>3</v>
+      </c>
+      <c r="AC35" s="19"/>
+      <c r="AD35" s="19"/>
+      <c r="AE35" s="19"/>
+      <c r="AF35" s="19"/>
+      <c r="AG35" s="19"/>
+      <c r="AH35" s="19"/>
+      <c r="AI35" s="19"/>
+      <c r="AJ35" s="19">
+        <v>3</v>
+      </c>
+      <c r="AK35" s="19"/>
+      <c r="AL35" s="19"/>
+      <c r="AM35" s="19"/>
+      <c r="AN35" s="19"/>
+      <c r="AO35" s="19"/>
+      <c r="AP35" s="19"/>
+      <c r="AQ35" s="19"/>
+      <c r="AR35" s="19">
+        <v>2</v>
+      </c>
+      <c r="AS35" s="19"/>
+      <c r="AT35" s="19"/>
+      <c r="AU35" s="19"/>
+      <c r="AV35" s="19"/>
+      <c r="AW35" s="19"/>
+      <c r="AX35" s="19"/>
+      <c r="AY35" s="19"/>
+      <c r="AZ35" s="19">
+        <v>0.5</v>
+      </c>
+      <c r="BA35" s="19"/>
+      <c r="BB35" s="19"/>
+      <c r="BC35" s="19"/>
+      <c r="BD35" s="19"/>
+      <c r="BE35" s="19"/>
+      <c r="BF35" s="19"/>
+      <c r="BG35" s="19"/>
+      <c r="BH35" s="19">
+        <v>0.5</v>
+      </c>
+      <c r="BI35" s="19"/>
+      <c r="BJ35" s="19"/>
+      <c r="BK35" s="19"/>
+      <c r="BL35" s="19"/>
+      <c r="BM35" s="19"/>
+      <c r="BN35" s="19"/>
+      <c r="BO35" s="19"/>
+      <c r="BP35" s="19">
+        <v>1</v>
+      </c>
+      <c r="BQ35" s="19"/>
+      <c r="BR35" s="19"/>
+      <c r="BS35" s="19"/>
+      <c r="BT35" s="19"/>
+      <c r="BU35" s="19"/>
+      <c r="BV35" s="19"/>
+      <c r="BW35" s="19"/>
+      <c r="BX35" s="19">
+        <f t="shared" si="17"/>
+        <v>25</v>
+      </c>
+      <c r="BY35" s="19"/>
+      <c r="BZ35" s="19"/>
+      <c r="CA35" s="19"/>
+      <c r="CB35" s="19">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="CC35" s="19"/>
+      <c r="CD35" s="19"/>
+      <c r="CE35" s="19"/>
+    </row>
+    <row r="36" spans="1:83">
+      <c r="A36" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="B36" s="19"/>
+      <c r="C36" s="19"/>
+      <c r="D36" s="19"/>
+      <c r="E36" s="19"/>
+      <c r="F36" s="19"/>
+      <c r="G36" s="19"/>
+      <c r="H36" s="30">
+        <v>15</v>
+      </c>
+      <c r="I36" s="36"/>
+      <c r="J36" s="36"/>
+      <c r="K36" s="36"/>
+      <c r="L36" s="36"/>
+      <c r="M36" s="37"/>
+      <c r="N36" s="19"/>
+      <c r="O36" s="19"/>
+      <c r="P36" s="19"/>
+      <c r="Q36" s="19"/>
+      <c r="R36" s="19"/>
+      <c r="S36" s="19"/>
+      <c r="T36" s="19">
+        <v>5</v>
+      </c>
+      <c r="U36" s="19"/>
+      <c r="V36" s="19"/>
+      <c r="W36" s="19"/>
+      <c r="X36" s="19"/>
+      <c r="Y36" s="19"/>
+      <c r="Z36" s="19"/>
+      <c r="AA36" s="19"/>
+      <c r="AB36" s="19">
+        <v>1</v>
+      </c>
+      <c r="AC36" s="19"/>
+      <c r="AD36" s="19"/>
+      <c r="AE36" s="19"/>
+      <c r="AF36" s="19"/>
+      <c r="AG36" s="19"/>
+      <c r="AH36" s="19"/>
+      <c r="AI36" s="19"/>
+      <c r="AJ36" s="19">
+        <v>2</v>
+      </c>
+      <c r="AK36" s="19"/>
+      <c r="AL36" s="19"/>
+      <c r="AM36" s="19"/>
+      <c r="AN36" s="19"/>
+      <c r="AO36" s="19"/>
+      <c r="AP36" s="19"/>
+      <c r="AQ36" s="19"/>
+      <c r="AR36" s="19">
+        <v>2</v>
+      </c>
+      <c r="AS36" s="19"/>
+      <c r="AT36" s="19"/>
+      <c r="AU36" s="19"/>
+      <c r="AV36" s="19"/>
+      <c r="AW36" s="19"/>
+      <c r="AX36" s="19"/>
+      <c r="AY36" s="19"/>
+      <c r="AZ36" s="19">
+        <v>5</v>
+      </c>
+      <c r="BA36" s="19"/>
+      <c r="BB36" s="19"/>
+      <c r="BC36" s="19"/>
+      <c r="BD36" s="19"/>
+      <c r="BE36" s="19"/>
+      <c r="BF36" s="19"/>
+      <c r="BG36" s="19"/>
+      <c r="BH36" s="19">
+        <v>0</v>
+      </c>
+      <c r="BI36" s="19"/>
+      <c r="BJ36" s="19"/>
+      <c r="BK36" s="19"/>
+      <c r="BL36" s="19"/>
+      <c r="BM36" s="19"/>
+      <c r="BN36" s="19"/>
+      <c r="BO36" s="19"/>
+      <c r="BP36" s="19">
+        <v>0</v>
+      </c>
+      <c r="BQ36" s="19"/>
+      <c r="BR36" s="19"/>
+      <c r="BS36" s="19"/>
+      <c r="BT36" s="19"/>
+      <c r="BU36" s="19"/>
+      <c r="BV36" s="19"/>
+      <c r="BW36" s="19"/>
+      <c r="BX36" s="19">
+        <f t="shared" si="17"/>
+        <v>15</v>
+      </c>
+      <c r="BY36" s="19"/>
+      <c r="BZ36" s="19"/>
+      <c r="CA36" s="19"/>
+      <c r="CB36" s="19">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="CC36" s="19"/>
+      <c r="CD36" s="19"/>
+      <c r="CE36" s="19"/>
+    </row>
+    <row r="37" spans="1:83">
+      <c r="A37" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="B37" s="19"/>
+      <c r="C37" s="19"/>
+      <c r="D37" s="19"/>
+      <c r="E37" s="19"/>
+      <c r="F37" s="19"/>
+      <c r="G37" s="19"/>
+      <c r="H37" s="30">
+        <v>30</v>
+      </c>
+      <c r="I37" s="36"/>
+      <c r="J37" s="36"/>
+      <c r="K37" s="36"/>
+      <c r="L37" s="36"/>
+      <c r="M37" s="37"/>
+      <c r="N37" s="19"/>
+      <c r="O37" s="19"/>
+      <c r="P37" s="19"/>
+      <c r="Q37" s="19"/>
+      <c r="R37" s="19"/>
+      <c r="S37" s="19"/>
+      <c r="T37" s="19">
+        <v>10</v>
+      </c>
+      <c r="U37" s="19"/>
+      <c r="V37" s="19"/>
+      <c r="W37" s="19"/>
+      <c r="X37" s="19"/>
+      <c r="Y37" s="19"/>
+      <c r="Z37" s="19"/>
+      <c r="AA37" s="19"/>
+      <c r="AB37" s="19">
+        <v>2</v>
+      </c>
+      <c r="AC37" s="19"/>
+      <c r="AD37" s="19"/>
+      <c r="AE37" s="19"/>
+      <c r="AF37" s="19"/>
+      <c r="AG37" s="19"/>
+      <c r="AH37" s="19"/>
+      <c r="AI37" s="19"/>
+      <c r="AJ37" s="19">
+        <v>4</v>
+      </c>
+      <c r="AK37" s="19"/>
+      <c r="AL37" s="19"/>
+      <c r="AM37" s="19"/>
+      <c r="AN37" s="19"/>
+      <c r="AO37" s="19"/>
+      <c r="AP37" s="19"/>
+      <c r="AQ37" s="19"/>
+      <c r="AR37" s="19">
+        <v>4</v>
+      </c>
+      <c r="AS37" s="19"/>
+      <c r="AT37" s="19"/>
+      <c r="AU37" s="19"/>
+      <c r="AV37" s="19"/>
+      <c r="AW37" s="19"/>
+      <c r="AX37" s="19"/>
+      <c r="AY37" s="19"/>
+      <c r="AZ37" s="19">
+        <v>2</v>
+      </c>
+      <c r="BA37" s="19"/>
+      <c r="BB37" s="19"/>
+      <c r="BC37" s="19"/>
+      <c r="BD37" s="19"/>
+      <c r="BE37" s="19"/>
+      <c r="BF37" s="19"/>
+      <c r="BG37" s="19"/>
+      <c r="BH37" s="19">
+        <v>2</v>
+      </c>
+      <c r="BI37" s="19"/>
+      <c r="BJ37" s="19"/>
+      <c r="BK37" s="19"/>
+      <c r="BL37" s="19"/>
+      <c r="BM37" s="19"/>
+      <c r="BN37" s="19"/>
+      <c r="BO37" s="19"/>
+      <c r="BP37" s="19">
+        <v>6</v>
+      </c>
+      <c r="BQ37" s="19"/>
+      <c r="BR37" s="19"/>
+      <c r="BS37" s="19"/>
+      <c r="BT37" s="19"/>
+      <c r="BU37" s="19"/>
+      <c r="BV37" s="19"/>
+      <c r="BW37" s="19"/>
+      <c r="BX37" s="19">
+        <f t="shared" si="17"/>
+        <v>30</v>
+      </c>
+      <c r="BY37" s="19"/>
+      <c r="BZ37" s="19"/>
+      <c r="CA37" s="19"/>
+      <c r="CB37" s="19">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="CC37" s="19"/>
+      <c r="CD37" s="19"/>
+      <c r="CE37" s="19"/>
+    </row>
+    <row r="38" spans="1:83">
+      <c r="A38" s="33" t="s">
+        <v>237</v>
+      </c>
+      <c r="B38" s="33"/>
+      <c r="C38" s="33"/>
+      <c r="D38" s="33"/>
+      <c r="E38" s="33"/>
+      <c r="F38" s="33"/>
+      <c r="G38" s="33"/>
+      <c r="H38" s="30">
+        <f>SUM(H33:M37)</f>
+        <v>100</v>
+      </c>
+      <c r="I38" s="36"/>
+      <c r="J38" s="36"/>
+      <c r="K38" s="36"/>
+      <c r="L38" s="36"/>
+      <c r="M38" s="37"/>
+      <c r="N38" s="19"/>
+      <c r="O38" s="19"/>
+      <c r="P38" s="19"/>
+      <c r="Q38" s="19"/>
+      <c r="R38" s="19"/>
+      <c r="S38" s="19"/>
+      <c r="T38" s="19"/>
+      <c r="U38" s="19"/>
+      <c r="V38" s="19"/>
+      <c r="W38" s="19"/>
+      <c r="X38" s="19"/>
+      <c r="Y38" s="19"/>
+      <c r="Z38" s="19"/>
+      <c r="AA38" s="19"/>
+      <c r="AB38" s="19"/>
+      <c r="AC38" s="19"/>
+      <c r="AD38" s="19"/>
+      <c r="AE38" s="19"/>
+      <c r="AF38" s="19"/>
+      <c r="AG38" s="19"/>
+      <c r="AH38" s="19"/>
+      <c r="AI38" s="19"/>
+      <c r="AJ38" s="19"/>
+      <c r="AK38" s="19"/>
+      <c r="AL38" s="19"/>
+      <c r="AM38" s="19"/>
+      <c r="AN38" s="19"/>
+      <c r="AO38" s="19"/>
+      <c r="AP38" s="19"/>
+      <c r="AQ38" s="19"/>
+      <c r="AR38" s="19"/>
+      <c r="AS38" s="19"/>
+      <c r="AT38" s="19"/>
+      <c r="AU38" s="19"/>
+      <c r="AV38" s="19"/>
+      <c r="AW38" s="19"/>
+      <c r="AX38" s="19"/>
+      <c r="AY38" s="19"/>
+      <c r="AZ38" s="19"/>
+      <c r="BA38" s="19"/>
+      <c r="BB38" s="19"/>
+      <c r="BC38" s="19"/>
+      <c r="BD38" s="19"/>
+      <c r="BE38" s="19"/>
+      <c r="BF38" s="19"/>
+      <c r="BG38" s="19"/>
+      <c r="BH38" s="19"/>
+      <c r="BI38" s="19"/>
+      <c r="BJ38" s="19"/>
+      <c r="BK38" s="19"/>
+      <c r="BL38" s="19"/>
+      <c r="BM38" s="19"/>
+      <c r="BN38" s="19"/>
+      <c r="BO38" s="19"/>
+      <c r="BP38" s="19"/>
+      <c r="BQ38" s="19"/>
+      <c r="BR38" s="19"/>
+      <c r="BS38" s="19"/>
+      <c r="BT38" s="19"/>
+      <c r="BU38" s="19"/>
+      <c r="BV38" s="19"/>
+      <c r="BW38" s="19"/>
+      <c r="BX38" s="19">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="BY38" s="19"/>
+      <c r="BZ38" s="19"/>
+      <c r="CA38" s="19"/>
+      <c r="CB38" s="19">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="CC38" s="19"/>
+      <c r="CD38" s="19"/>
+      <c r="CE38" s="19"/>
+    </row>
+    <row r="39" spans="1:83">
+      <c r="N39" s="31"/>
+      <c r="O39" s="31"/>
+      <c r="P39" s="31"/>
+      <c r="Q39" s="31"/>
+      <c r="R39" s="31"/>
+      <c r="S39" s="31"/>
+    </row>
+    <row r="40" spans="1:83" s="34" customFormat="1">
+      <c r="A40" s="35" t="s">
+        <v>255</v>
+      </c>
+      <c r="B40" s="35"/>
+      <c r="C40" s="35"/>
+      <c r="D40" s="35"/>
+      <c r="E40" s="35"/>
+      <c r="F40" s="35"/>
+      <c r="G40" s="35"/>
+      <c r="H40" s="35"/>
+      <c r="I40" s="35"/>
+    </row>
+    <row r="42" spans="1:83">
+      <c r="M42" s="32"/>
+      <c r="N42" s="32"/>
+      <c r="O42" s="32"/>
+      <c r="P42" s="32"/>
+    </row>
+    <row r="43" spans="1:83">
+      <c r="M43" s="32"/>
+      <c r="N43" s="32"/>
+      <c r="O43" s="32"/>
+      <c r="P43" s="32"/>
+    </row>
+    <row r="44" spans="1:83">
+      <c r="M44" s="32"/>
+      <c r="N44" s="32"/>
+      <c r="O44" s="32"/>
+      <c r="P44" s="32"/>
+    </row>
+    <row r="45" spans="1:83">
+      <c r="M45" s="32"/>
+      <c r="N45" s="32"/>
+      <c r="O45" s="32"/>
+      <c r="P45" s="32"/>
+    </row>
+    <row r="46" spans="1:83">
+      <c r="M46" s="32"/>
+      <c r="N46" s="32"/>
+      <c r="O46" s="32"/>
+      <c r="P46" s="32"/>
+    </row>
+    <row r="47" spans="1:83">
+      <c r="M47" s="32"/>
+      <c r="N47" s="32"/>
+      <c r="O47" s="32"/>
+      <c r="P47" s="32"/>
+    </row>
+    <row r="48" spans="1:83">
+      <c r="M48" s="32"/>
+      <c r="N48" s="32"/>
+      <c r="O48" s="32"/>
+      <c r="P48" s="32"/>
+    </row>
+    <row r="49" spans="13:70">
+      <c r="M49" s="32"/>
+      <c r="N49" s="32"/>
+      <c r="O49" s="32"/>
+      <c r="P49" s="32"/>
+    </row>
+    <row r="50" spans="13:70">
+      <c r="M50" s="32"/>
+      <c r="N50" s="32"/>
+      <c r="O50" s="32"/>
+      <c r="P50" s="32"/>
+    </row>
+    <row r="51" spans="13:70">
+      <c r="M51" s="32"/>
+      <c r="N51" s="32"/>
+      <c r="O51" s="32"/>
+      <c r="P51" s="32"/>
+      <c r="Q51" s="32"/>
+      <c r="R51" s="32"/>
+      <c r="S51" s="32"/>
+      <c r="T51" s="32"/>
+      <c r="U51" s="32"/>
+      <c r="V51" s="32"/>
+      <c r="W51" s="32"/>
+      <c r="X51" s="32"/>
+      <c r="Y51" s="32"/>
+      <c r="Z51" s="32"/>
+      <c r="AA51" s="32"/>
+      <c r="AB51" s="32"/>
+      <c r="AC51" s="32"/>
+      <c r="AD51" s="32"/>
+      <c r="AE51" s="32"/>
+      <c r="AF51" s="32"/>
+      <c r="AG51" s="32"/>
+      <c r="AH51" s="32"/>
+      <c r="AI51" s="32"/>
+      <c r="AJ51" s="32"/>
+      <c r="AK51" s="32"/>
+      <c r="AL51" s="32"/>
+      <c r="AM51" s="32"/>
+      <c r="AN51" s="32"/>
+      <c r="AO51" s="32"/>
+      <c r="AP51" s="32"/>
+      <c r="AQ51" s="32"/>
+      <c r="AR51" s="32"/>
+      <c r="AS51" s="32"/>
+      <c r="AT51" s="32"/>
+      <c r="AU51" s="32"/>
+      <c r="AV51" s="32"/>
+      <c r="AW51" s="32"/>
+      <c r="AX51" s="32"/>
+      <c r="AY51" s="32"/>
+      <c r="AZ51" s="32"/>
+      <c r="BA51" s="32"/>
+      <c r="BB51" s="32"/>
+      <c r="BC51" s="32"/>
+      <c r="BD51" s="32"/>
+      <c r="BE51" s="32"/>
+      <c r="BF51" s="32"/>
+      <c r="BG51" s="32"/>
+      <c r="BH51" s="32"/>
+      <c r="BI51" s="32"/>
+      <c r="BJ51" s="32"/>
+      <c r="BK51" s="32"/>
+      <c r="BL51" s="32"/>
+      <c r="BM51" s="32"/>
+      <c r="BN51" s="32"/>
+      <c r="BO51" s="32"/>
+      <c r="BP51" s="32"/>
+      <c r="BQ51" s="32"/>
+      <c r="BR51" s="32"/>
+    </row>
+  </sheetData>
+  <mergeCells count="359">
+    <mergeCell ref="N36:S36"/>
+    <mergeCell ref="N37:S37"/>
+    <mergeCell ref="N38:S38"/>
+    <mergeCell ref="N39:S39"/>
+    <mergeCell ref="L24:Q24"/>
+    <mergeCell ref="L25:Q25"/>
+    <mergeCell ref="L26:Q26"/>
+    <mergeCell ref="L19:Q19"/>
+    <mergeCell ref="L27:Q27"/>
+    <mergeCell ref="N31:S31"/>
+    <mergeCell ref="L20:Q20"/>
+    <mergeCell ref="L21:Q21"/>
+    <mergeCell ref="L22:Q22"/>
+    <mergeCell ref="L23:Q23"/>
+    <mergeCell ref="N32:S32"/>
+    <mergeCell ref="N33:S33"/>
+    <mergeCell ref="N34:S34"/>
+    <mergeCell ref="N35:S35"/>
+    <mergeCell ref="BH38:BK38"/>
+    <mergeCell ref="BL38:BO38"/>
+    <mergeCell ref="BP38:BS38"/>
+    <mergeCell ref="BT38:BW38"/>
+    <mergeCell ref="BX38:CA38"/>
+    <mergeCell ref="CB38:CE38"/>
+    <mergeCell ref="AJ38:AM38"/>
+    <mergeCell ref="AN38:AQ38"/>
+    <mergeCell ref="AR38:AU38"/>
+    <mergeCell ref="AV38:AY38"/>
+    <mergeCell ref="AZ38:BC38"/>
+    <mergeCell ref="BD38:BG38"/>
+    <mergeCell ref="BH37:BK37"/>
+    <mergeCell ref="BL37:BO37"/>
+    <mergeCell ref="BP37:BS37"/>
+    <mergeCell ref="BT37:BW37"/>
+    <mergeCell ref="BX37:CA37"/>
+    <mergeCell ref="CB37:CE37"/>
+    <mergeCell ref="BX36:CA36"/>
+    <mergeCell ref="CB36:CE36"/>
+    <mergeCell ref="AB37:AE37"/>
+    <mergeCell ref="AF37:AI37"/>
+    <mergeCell ref="AJ37:AM37"/>
+    <mergeCell ref="AN37:AQ37"/>
+    <mergeCell ref="AR37:AU37"/>
+    <mergeCell ref="AV37:AY37"/>
+    <mergeCell ref="AZ37:BC37"/>
+    <mergeCell ref="BD37:BG37"/>
+    <mergeCell ref="AZ36:BC36"/>
+    <mergeCell ref="BD36:BG36"/>
+    <mergeCell ref="BH36:BK36"/>
+    <mergeCell ref="BL36:BO36"/>
+    <mergeCell ref="BP36:BS36"/>
+    <mergeCell ref="BT36:BW36"/>
+    <mergeCell ref="AB36:AE36"/>
+    <mergeCell ref="AF36:AI36"/>
+    <mergeCell ref="AJ36:AM36"/>
+    <mergeCell ref="AN36:AQ36"/>
+    <mergeCell ref="AR36:AU36"/>
+    <mergeCell ref="AV36:AY36"/>
+    <mergeCell ref="BH35:BK35"/>
+    <mergeCell ref="BL35:BO35"/>
+    <mergeCell ref="BP35:BS35"/>
+    <mergeCell ref="BT35:BW35"/>
+    <mergeCell ref="BX35:CA35"/>
+    <mergeCell ref="CB35:CE35"/>
+    <mergeCell ref="BX34:CA34"/>
+    <mergeCell ref="CB34:CE34"/>
+    <mergeCell ref="AB35:AE35"/>
+    <mergeCell ref="AF35:AI35"/>
+    <mergeCell ref="AJ35:AM35"/>
+    <mergeCell ref="AN35:AQ35"/>
+    <mergeCell ref="AR35:AU35"/>
+    <mergeCell ref="AV35:AY35"/>
+    <mergeCell ref="AZ35:BC35"/>
+    <mergeCell ref="BD35:BG35"/>
+    <mergeCell ref="AZ34:BC34"/>
+    <mergeCell ref="BD34:BG34"/>
+    <mergeCell ref="BH34:BK34"/>
+    <mergeCell ref="BL34:BO34"/>
+    <mergeCell ref="BP34:BS34"/>
+    <mergeCell ref="BT34:BW34"/>
+    <mergeCell ref="AB34:AE34"/>
+    <mergeCell ref="AF34:AI34"/>
+    <mergeCell ref="AJ34:AM34"/>
+    <mergeCell ref="AN34:AQ34"/>
+    <mergeCell ref="AR34:AU34"/>
+    <mergeCell ref="AV34:AY34"/>
+    <mergeCell ref="BH33:BK33"/>
+    <mergeCell ref="BL33:BO33"/>
+    <mergeCell ref="BP33:BS33"/>
+    <mergeCell ref="BT33:BW33"/>
+    <mergeCell ref="BX33:CA33"/>
+    <mergeCell ref="CB33:CE33"/>
+    <mergeCell ref="AJ33:AM33"/>
+    <mergeCell ref="AN33:AQ33"/>
+    <mergeCell ref="AR33:AU33"/>
+    <mergeCell ref="AV33:AY33"/>
+    <mergeCell ref="AZ33:BC33"/>
+    <mergeCell ref="BD33:BG33"/>
+    <mergeCell ref="BH32:BK32"/>
+    <mergeCell ref="BL32:BO32"/>
+    <mergeCell ref="BP32:BS32"/>
+    <mergeCell ref="BT32:BW32"/>
+    <mergeCell ref="BX32:CA32"/>
+    <mergeCell ref="CB32:CE32"/>
+    <mergeCell ref="AJ32:AM32"/>
+    <mergeCell ref="AN32:AQ32"/>
+    <mergeCell ref="AR32:AU32"/>
+    <mergeCell ref="AV32:AY32"/>
+    <mergeCell ref="AZ32:BC32"/>
+    <mergeCell ref="BD32:BG32"/>
+    <mergeCell ref="AJ31:AQ31"/>
+    <mergeCell ref="AR31:AY31"/>
+    <mergeCell ref="AZ31:BG31"/>
+    <mergeCell ref="BH31:BO31"/>
+    <mergeCell ref="BP31:BW31"/>
+    <mergeCell ref="BX31:CE31"/>
+    <mergeCell ref="X32:AA32"/>
+    <mergeCell ref="T33:W33"/>
+    <mergeCell ref="X33:AA33"/>
+    <mergeCell ref="T34:W34"/>
+    <mergeCell ref="X34:AA34"/>
+    <mergeCell ref="AB31:AI31"/>
+    <mergeCell ref="AB32:AE32"/>
+    <mergeCell ref="AF32:AI32"/>
+    <mergeCell ref="AB33:AE33"/>
+    <mergeCell ref="AF33:AI33"/>
+    <mergeCell ref="T31:AA31"/>
+    <mergeCell ref="T32:W32"/>
+    <mergeCell ref="T35:W35"/>
+    <mergeCell ref="X35:AA35"/>
+    <mergeCell ref="T36:W36"/>
+    <mergeCell ref="X36:AA36"/>
+    <mergeCell ref="T37:W37"/>
+    <mergeCell ref="X37:AA37"/>
+    <mergeCell ref="T38:W38"/>
+    <mergeCell ref="BN27:BQ27"/>
+    <mergeCell ref="BR27:BU27"/>
+    <mergeCell ref="BV27:BY27"/>
+    <mergeCell ref="BZ27:CC27"/>
+    <mergeCell ref="BN25:BQ25"/>
+    <mergeCell ref="BR25:BU25"/>
+    <mergeCell ref="BV25:BY25"/>
+    <mergeCell ref="BZ25:CC25"/>
+    <mergeCell ref="BN26:BQ26"/>
+    <mergeCell ref="BR26:BU26"/>
+    <mergeCell ref="BV26:BY26"/>
+    <mergeCell ref="BZ26:CC26"/>
+    <mergeCell ref="BN23:BQ23"/>
+    <mergeCell ref="BR23:BU23"/>
+    <mergeCell ref="BV23:BY23"/>
+    <mergeCell ref="BZ23:CC23"/>
+    <mergeCell ref="BN24:BQ24"/>
+    <mergeCell ref="BR24:BU24"/>
+    <mergeCell ref="BV24:BY24"/>
+    <mergeCell ref="BZ24:CC24"/>
+    <mergeCell ref="BN21:BQ21"/>
+    <mergeCell ref="BR21:BU21"/>
+    <mergeCell ref="BV21:BY21"/>
+    <mergeCell ref="BZ21:CC21"/>
+    <mergeCell ref="BN22:BQ22"/>
+    <mergeCell ref="BR22:BU22"/>
+    <mergeCell ref="BV22:BY22"/>
+    <mergeCell ref="BZ22:CC22"/>
+    <mergeCell ref="BF26:BI26"/>
+    <mergeCell ref="BJ26:BM26"/>
+    <mergeCell ref="BF27:BI27"/>
+    <mergeCell ref="BJ27:BM27"/>
+    <mergeCell ref="BN19:BU19"/>
+    <mergeCell ref="BV19:CC19"/>
+    <mergeCell ref="BN20:BQ20"/>
+    <mergeCell ref="BR20:BU20"/>
+    <mergeCell ref="BV20:BY20"/>
+    <mergeCell ref="BZ20:CC20"/>
+    <mergeCell ref="BJ22:BM22"/>
+    <mergeCell ref="BF23:BI23"/>
+    <mergeCell ref="BJ23:BM23"/>
+    <mergeCell ref="BF24:BI24"/>
+    <mergeCell ref="BJ24:BM24"/>
+    <mergeCell ref="BF25:BI25"/>
+    <mergeCell ref="BJ25:BM25"/>
+    <mergeCell ref="AX26:BA26"/>
+    <mergeCell ref="BB26:BE26"/>
+    <mergeCell ref="AX27:BA27"/>
+    <mergeCell ref="BB27:BE27"/>
+    <mergeCell ref="BF19:BM19"/>
+    <mergeCell ref="BF20:BI20"/>
+    <mergeCell ref="BJ20:BM20"/>
+    <mergeCell ref="BF21:BI21"/>
+    <mergeCell ref="BJ21:BM21"/>
+    <mergeCell ref="BF22:BI22"/>
+    <mergeCell ref="AX23:BA23"/>
+    <mergeCell ref="BB23:BE23"/>
+    <mergeCell ref="AX24:BA24"/>
+    <mergeCell ref="BB24:BE24"/>
+    <mergeCell ref="AX25:BA25"/>
+    <mergeCell ref="BB25:BE25"/>
+    <mergeCell ref="AX20:BA20"/>
+    <mergeCell ref="BB20:BE20"/>
+    <mergeCell ref="AX21:BA21"/>
+    <mergeCell ref="BB21:BE21"/>
+    <mergeCell ref="AX22:BA22"/>
+    <mergeCell ref="BB22:BE22"/>
+    <mergeCell ref="Z27:AC27"/>
+    <mergeCell ref="AD27:AG27"/>
+    <mergeCell ref="AH27:AK27"/>
+    <mergeCell ref="AL27:AO27"/>
+    <mergeCell ref="AP27:AS27"/>
+    <mergeCell ref="AT27:AW27"/>
+    <mergeCell ref="Z26:AC26"/>
+    <mergeCell ref="AD26:AG26"/>
+    <mergeCell ref="AH26:AK26"/>
+    <mergeCell ref="AL26:AO26"/>
+    <mergeCell ref="AP26:AS26"/>
+    <mergeCell ref="AT26:AW26"/>
+    <mergeCell ref="Z25:AC25"/>
+    <mergeCell ref="AD25:AG25"/>
+    <mergeCell ref="AH25:AK25"/>
+    <mergeCell ref="AL25:AO25"/>
+    <mergeCell ref="AP25:AS25"/>
+    <mergeCell ref="AT25:AW25"/>
+    <mergeCell ref="Z24:AC24"/>
+    <mergeCell ref="AD24:AG24"/>
+    <mergeCell ref="AH24:AK24"/>
+    <mergeCell ref="AL24:AO24"/>
+    <mergeCell ref="AP24:AS24"/>
+    <mergeCell ref="AT24:AW24"/>
+    <mergeCell ref="Z23:AC23"/>
+    <mergeCell ref="AD23:AG23"/>
+    <mergeCell ref="AH23:AK23"/>
+    <mergeCell ref="AL23:AO23"/>
+    <mergeCell ref="AP23:AS23"/>
+    <mergeCell ref="AT23:AW23"/>
+    <mergeCell ref="Z22:AC22"/>
+    <mergeCell ref="AD22:AG22"/>
+    <mergeCell ref="AH22:AK22"/>
+    <mergeCell ref="AL22:AO22"/>
+    <mergeCell ref="AP22:AS22"/>
+    <mergeCell ref="AT22:AW22"/>
+    <mergeCell ref="AT20:AW20"/>
+    <mergeCell ref="Z21:AC21"/>
+    <mergeCell ref="AD21:AG21"/>
+    <mergeCell ref="AH21:AK21"/>
+    <mergeCell ref="AL21:AO21"/>
+    <mergeCell ref="AP21:AS21"/>
+    <mergeCell ref="AT21:AW21"/>
+    <mergeCell ref="V26:Y26"/>
+    <mergeCell ref="V27:Y27"/>
+    <mergeCell ref="Z19:AG19"/>
+    <mergeCell ref="AH19:AO19"/>
+    <mergeCell ref="AP19:AW19"/>
+    <mergeCell ref="Z20:AC20"/>
+    <mergeCell ref="AD20:AG20"/>
+    <mergeCell ref="AH20:AK20"/>
+    <mergeCell ref="AL20:AO20"/>
+    <mergeCell ref="AP20:AS20"/>
+    <mergeCell ref="V20:Y20"/>
+    <mergeCell ref="V21:Y21"/>
+    <mergeCell ref="V22:Y22"/>
+    <mergeCell ref="V23:Y23"/>
+    <mergeCell ref="V24:Y24"/>
+    <mergeCell ref="V25:Y25"/>
+    <mergeCell ref="A40:I40"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="J29:L29"/>
+    <mergeCell ref="R19:Y19"/>
+    <mergeCell ref="R20:U20"/>
+    <mergeCell ref="R21:U21"/>
+    <mergeCell ref="R22:U22"/>
+    <mergeCell ref="R23:U23"/>
+    <mergeCell ref="H38:M38"/>
+    <mergeCell ref="X38:AA38"/>
+    <mergeCell ref="AB38:AE38"/>
+    <mergeCell ref="AF38:AI38"/>
+    <mergeCell ref="A31:G31"/>
+    <mergeCell ref="A32:G32"/>
+    <mergeCell ref="H33:M33"/>
+    <mergeCell ref="H32:M32"/>
+    <mergeCell ref="A36:G36"/>
+    <mergeCell ref="A37:G37"/>
+    <mergeCell ref="A38:G38"/>
+    <mergeCell ref="H31:M31"/>
+    <mergeCell ref="H34:M34"/>
+    <mergeCell ref="H35:M35"/>
+    <mergeCell ref="H36:M36"/>
+    <mergeCell ref="H37:M37"/>
+    <mergeCell ref="A29:H29"/>
+    <mergeCell ref="A33:G33"/>
+    <mergeCell ref="A34:G34"/>
+    <mergeCell ref="A35:G35"/>
+    <mergeCell ref="F19:K19"/>
+    <mergeCell ref="R24:U24"/>
+    <mergeCell ref="R25:U25"/>
+    <mergeCell ref="R26:U26"/>
+    <mergeCell ref="R27:U27"/>
+    <mergeCell ref="AX19:BE19"/>
+    <mergeCell ref="F26:K26"/>
+    <mergeCell ref="F27:K27"/>
+    <mergeCell ref="A24:E24"/>
+    <mergeCell ref="A25:E25"/>
+    <mergeCell ref="A26:E26"/>
+    <mergeCell ref="A27:E27"/>
+    <mergeCell ref="F20:K20"/>
+    <mergeCell ref="F21:K21"/>
+    <mergeCell ref="F22:K22"/>
+    <mergeCell ref="F23:K23"/>
+    <mergeCell ref="F24:K24"/>
+    <mergeCell ref="F25:K25"/>
+    <mergeCell ref="A15:G15"/>
+    <mergeCell ref="A17:H17"/>
+    <mergeCell ref="A19:E19"/>
+    <mergeCell ref="A21:E21"/>
+    <mergeCell ref="A22:E22"/>
+    <mergeCell ref="A23:E23"/>
+    <mergeCell ref="A20:E20"/>
+    <mergeCell ref="V12:Z12"/>
+    <mergeCell ref="V13:Z13"/>
+    <mergeCell ref="AB4:AI4"/>
+    <mergeCell ref="AB6:AI6"/>
+    <mergeCell ref="AB7:AI7"/>
+    <mergeCell ref="AB8:AI8"/>
+    <mergeCell ref="V6:Z6"/>
+    <mergeCell ref="V7:Z7"/>
+    <mergeCell ref="V8:Z8"/>
+    <mergeCell ref="V9:Z9"/>
+    <mergeCell ref="V10:Z10"/>
+    <mergeCell ref="V11:Z11"/>
+    <mergeCell ref="K13:O13"/>
+    <mergeCell ref="Q4:Z4"/>
+    <mergeCell ref="Q6:U6"/>
+    <mergeCell ref="Q7:U7"/>
+    <mergeCell ref="Q8:U8"/>
+    <mergeCell ref="Q9:U9"/>
+    <mergeCell ref="Q10:U10"/>
+    <mergeCell ref="Q11:U11"/>
+    <mergeCell ref="Q12:U12"/>
+    <mergeCell ref="Q13:U13"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="K6:O6"/>
+    <mergeCell ref="K7:O7"/>
+    <mergeCell ref="K8:O8"/>
+    <mergeCell ref="K9:O9"/>
+    <mergeCell ref="K10:O10"/>
+    <mergeCell ref="K11:O11"/>
+    <mergeCell ref="K12:O12"/>
+    <mergeCell ref="A13:E13"/>
+    <mergeCell ref="F6:J6"/>
+    <mergeCell ref="F7:J7"/>
+    <mergeCell ref="F8:J8"/>
+    <mergeCell ref="F9:J9"/>
+    <mergeCell ref="F10:J10"/>
+    <mergeCell ref="F11:J11"/>
+    <mergeCell ref="F12:J12"/>
+    <mergeCell ref="F13:J13"/>
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="A9:E9"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="A12:E12"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/design file/蚂蚁数值框架.xlsx
+++ b/design file/蚂蚁数值框架.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="概述" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="253">
   <si>
     <t>一、蚁穴系统</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -977,10 +977,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>数量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>建筑等级</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1010,6 +1006,18 @@
   </si>
   <si>
     <t>科技</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蚁数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蚁数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前等级兵蚁室详细划分[等级]*[数量]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1674,7 +1682,7 @@
   <dimension ref="A2:K22"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1989,8 +1997,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:R31"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2179,8 +2187,8 @@
         <v>50</v>
       </c>
       <c r="C13" s="1">
-        <f ca="1">SUM(C5:C14)</f>
-        <v>100</v>
+        <f>SUM(C5:C12)</f>
+        <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -2735,10 +2743,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:U66"/>
+  <dimension ref="A2:U70"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="E69" sqref="E69"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3071,16 +3079,16 @@
     </row>
     <row r="17" spans="1:21" s="16" customFormat="1"/>
     <row r="18" spans="1:21">
-      <c r="B18" s="35" t="s">
+      <c r="B18" s="30" t="s">
         <v>138</v>
       </c>
-      <c r="C18" s="35"/>
-      <c r="D18" s="35"/>
-      <c r="E18" s="35"/>
-      <c r="F18" s="35"/>
-      <c r="G18" s="35"/>
-      <c r="H18" s="35"/>
-      <c r="I18" s="35"/>
+      <c r="C18" s="30"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="30"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="30"/>
+      <c r="H18" s="30"/>
+      <c r="I18" s="30"/>
       <c r="J18" s="35" t="s">
         <v>185</v>
       </c>
@@ -3498,7 +3506,7 @@
         <v>241</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="H36" s="1" t="s">
         <v>64</v>
@@ -3507,7 +3515,7 @@
         <v>241</v>
       </c>
       <c r="J36" s="3" t="s">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="L36" s="1" t="s">
         <v>65</v>
@@ -3516,7 +3524,7 @@
         <v>241</v>
       </c>
       <c r="N36" s="3" t="s">
-        <v>242</v>
+        <v>250</v>
       </c>
     </row>
     <row r="37" spans="1:14">
@@ -3659,85 +3667,76 @@
         <v>8</v>
       </c>
     </row>
+    <row r="41" spans="1:14">
+      <c r="A41" s="12"/>
+      <c r="B41" s="12"/>
+      <c r="D41" s="12"/>
+      <c r="E41" s="12"/>
+      <c r="F41" s="14"/>
+      <c r="H41" s="12"/>
+      <c r="I41" s="12"/>
+      <c r="J41" s="14"/>
+      <c r="L41" s="12"/>
+      <c r="M41" s="12"/>
+      <c r="N41" s="14"/>
+    </row>
     <row r="42" spans="1:14">
-      <c r="A42" s="1" t="s">
+      <c r="B42" s="30" t="s">
+        <v>252</v>
+      </c>
+      <c r="C42" s="30"/>
+      <c r="D42" s="30"/>
+      <c r="E42" s="30"/>
+      <c r="F42" s="30"/>
+      <c r="G42" s="30"/>
+    </row>
+    <row r="43" spans="1:14">
+      <c r="A43" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="B43" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="C43" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="D42" s="1" t="s">
+      <c r="D43" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E42" s="1" t="s">
+      <c r="E43" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="F42" s="1" t="s">
+      <c r="F43" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="G42" s="1" t="s">
+      <c r="G43" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="I42" s="1" t="s">
+      <c r="I43" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="J42" s="1" t="s">
+      <c r="J43" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="K42" s="3" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14">
-      <c r="A43" s="1">
-        <v>1</v>
-      </c>
-      <c r="B43" s="20" t="s">
-        <v>141</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="G43" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="I43" s="1">
-        <v>1</v>
-      </c>
-      <c r="J43" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="K43" s="1">
-        <v>10</v>
+      <c r="K43" s="3" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="44" spans="1:14">
       <c r="A44" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B44" s="20" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>143</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F44" s="1" t="s">
         <v>143</v>
@@ -3746,27 +3745,27 @@
         <v>143</v>
       </c>
       <c r="I44" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>110</v>
+        <v>239</v>
       </c>
       <c r="K44" s="1">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="45" spans="1:14">
       <c r="A45" s="1">
-        <v>3</v>
-      </c>
-      <c r="B45" s="21" t="s">
-        <v>151</v>
+        <v>2</v>
+      </c>
+      <c r="B45" s="20" t="s">
+        <v>147</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>141</v>
@@ -3778,85 +3777,94 @@
         <v>143</v>
       </c>
       <c r="I45" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>240</v>
+        <v>110</v>
       </c>
       <c r="K45" s="1">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="46" spans="1:14">
       <c r="A46" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B46" s="21" t="s">
-        <v>170</v>
+        <v>151</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>147</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>141</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="I46" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="K46" s="3">
+        <v>240</v>
+      </c>
+      <c r="K46" s="1">
         <v>20</v>
       </c>
     </row>
     <row r="47" spans="1:14">
       <c r="A47" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B47" s="21" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>166</v>
+        <v>147</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>153</v>
+        <v>141</v>
+      </c>
+      <c r="I47" s="1">
+        <v>4</v>
+      </c>
+      <c r="J47" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="K47" s="3">
+        <v>20</v>
       </c>
     </row>
     <row r="48" spans="1:14">
       <c r="A48" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B48" s="21" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>196</v>
+        <v>166</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="F48" s="1" t="s">
         <v>154</v>
@@ -3864,22 +3872,13 @@
       <c r="G48" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="I48" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="J48" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="K48" s="3" t="s">
-        <v>242</v>
-      </c>
     </row>
     <row r="49" spans="1:11">
       <c r="A49" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B49" s="21" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>196</v>
@@ -3891,48 +3890,48 @@
         <v>160</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="I49" s="1">
-        <v>1</v>
+        <v>153</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="K49" s="1">
-        <v>1</v>
+        <v>241</v>
+      </c>
+      <c r="K49" s="3" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="50" spans="1:11">
       <c r="A50" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B50" s="21" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>199</v>
+        <v>160</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>199</v>
+        <v>166</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="I50" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="K50" s="1">
         <v>1</v>
@@ -3940,13 +3939,13 @@
     </row>
     <row r="51" spans="1:11">
       <c r="A51" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B51" s="21" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>199</v>
@@ -3955,16 +3954,16 @@
         <v>163</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="G51" s="1" t="s">
         <v>164</v>
       </c>
       <c r="I51" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="K51" s="1">
         <v>1</v>
@@ -3972,206 +3971,198 @@
     </row>
     <row r="52" spans="1:11">
       <c r="A52" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B52" s="21" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="H52" s="27"/>
+        <v>164</v>
+      </c>
       <c r="I52" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="K52" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:11" s="13" customFormat="1">
-      <c r="A54" s="13" t="s">
+    <row r="53" spans="1:11">
+      <c r="A53" s="1">
+        <v>10</v>
+      </c>
+      <c r="B53" s="21" t="s">
+        <v>176</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="H53" s="27"/>
+      <c r="I53" s="1">
+        <v>4</v>
+      </c>
+      <c r="J53" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="K53" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" s="13" customFormat="1">
+      <c r="A55" s="13" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="56" spans="1:11">
-      <c r="A56" s="1" t="s">
+    <row r="56" spans="1:11" s="16" customFormat="1"/>
+    <row r="57" spans="1:11">
+      <c r="B57" s="39" t="s">
+        <v>251</v>
+      </c>
+      <c r="C57" s="40"/>
+      <c r="D57" s="40"/>
+      <c r="E57" s="40"/>
+      <c r="F57" s="41"/>
+    </row>
+    <row r="58" spans="1:11">
+      <c r="A58" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B56" s="1" t="s">
+      <c r="B58" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="C56" s="1" t="s">
+      <c r="C58" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="D56" s="1" t="s">
+      <c r="D58" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="E56" s="1" t="s">
+      <c r="E58" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="F56" s="1" t="s">
+      <c r="F58" s="1" t="s">
         <v>193</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11">
-      <c r="A57" s="1">
-        <v>1</v>
-      </c>
-      <c r="B57" s="1">
-        <f>IF(VALUE(LEFT(C43,1))=1,$F$37,IF(VALUE(LEFT(C43,1))=2,$F$38,IF(VALUE(LEFT(C43,1))=3,$F$39,$F$40)))*VALUE(RIGHT(C43,1))</f>
-        <v>5</v>
-      </c>
-      <c r="C57" s="1">
-        <f>IF(VALUE(LEFT(D43,1))=1,$J$37,IF(VALUE(LEFT(D43,1))=2,$J$38,IF(VALUE(LEFT(D43,1))=3,$J$39,$J$40)))*VALUE(RIGHT(D43,1))</f>
-        <v>0</v>
-      </c>
-      <c r="D57" s="1">
-        <f>IF(VALUE(LEFT(E43,1))=1,$N$37,IF(VALUE(LEFT(E43,1))=2,$N$38,IF(VALUE(LEFT(E43,1))=3,$N$39,$N$40)))*VALUE(RIGHT(E43,1))</f>
-        <v>0</v>
-      </c>
-      <c r="E57" s="1">
-        <f>IF(VALUE(LEFT(F43,1))=1,$K$43,IF(VALUE(LEFT(F43,1))=2,$K$44,IF(VALUE(LEFT(F43,1))=3,$K$45,$K$46)))*VALUE(RIGHT(F43,1))</f>
-        <v>0</v>
-      </c>
-      <c r="F57" s="1">
-        <f>IF(VALUE(LEFT(G43,1))=1,$K$49,IF(VALUE(LEFT(G43,1))=2,$K$50,IF(VALUE(LEFT(G43,1))=3,$K$51,$K$52)))*VALUE(RIGHT(G43,1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11">
-      <c r="A58" s="1">
-        <v>2</v>
-      </c>
-      <c r="B58" s="1">
-        <f t="shared" ref="B58:B66" si="1">IF(VALUE(LEFT(C44,1))=1,$F$37,IF(VALUE(LEFT(C44,1))=2,$F$38,IF(VALUE(LEFT(C44,1))=3,$F$39,$F$40)))*VALUE(RIGHT(C44,1))</f>
-        <v>10</v>
-      </c>
-      <c r="C58" s="1">
-        <f t="shared" ref="C58:C66" si="2">IF(VALUE(LEFT(D44,1))=1,$J$37,IF(VALUE(LEFT(D44,1))=2,$J$38,IF(VALUE(LEFT(D44,1))=3,$J$39,$J$40)))*VALUE(RIGHT(D44,1))</f>
-        <v>0</v>
-      </c>
-      <c r="D58" s="1">
-        <f t="shared" ref="D58:D66" si="3">IF(VALUE(LEFT(E44,1))=1,$N$37,IF(VALUE(LEFT(E44,1))=2,$N$38,IF(VALUE(LEFT(E44,1))=3,$N$39,$N$40)))*VALUE(RIGHT(E44,1))</f>
-        <v>2</v>
-      </c>
-      <c r="E58" s="1">
-        <f t="shared" ref="E58:E66" si="4">IF(VALUE(LEFT(F44,1))=1,$K$43,IF(VALUE(LEFT(F44,1))=2,$K$44,IF(VALUE(LEFT(F44,1))=3,$K$45,$K$46)))*VALUE(RIGHT(F44,1))</f>
-        <v>0</v>
-      </c>
-      <c r="F58" s="1">
-        <f t="shared" ref="F58:F66" si="5">IF(VALUE(LEFT(G44,1))=1,$K$49,IF(VALUE(LEFT(G44,1))=2,$K$50,IF(VALUE(LEFT(G44,1))=3,$K$51,$K$52)))*VALUE(RIGHT(G44,1))</f>
-        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:11">
       <c r="A59" s="1">
+        <v>1</v>
+      </c>
+      <c r="B59" s="1">
+        <f>IF(VALUE(LEFT(C44,1))=1,$F$37,IF(VALUE(LEFT(C44,1))=2,$F$38,IF(VALUE(LEFT(C44,1))=3,$F$39,$F$40)))*VALUE(RIGHT(C44,1))</f>
+        <v>5</v>
+      </c>
+      <c r="C59" s="1">
+        <f>IF(VALUE(LEFT(D44,1))=1,$J$37,IF(VALUE(LEFT(D44,1))=2,$J$38,IF(VALUE(LEFT(D44,1))=3,$J$39,$J$40)))*VALUE(RIGHT(D44,1))</f>
+        <v>0</v>
+      </c>
+      <c r="D59" s="1">
+        <f>IF(VALUE(LEFT(E44,1))=1,$N$37,IF(VALUE(LEFT(E44,1))=2,$N$38,IF(VALUE(LEFT(E44,1))=3,$N$39,$N$40)))*VALUE(RIGHT(E44,1))</f>
+        <v>0</v>
+      </c>
+      <c r="E59" s="1">
+        <f>IF(VALUE(LEFT(F44,1))=1,$K$44,IF(VALUE(LEFT(F44,1))=2,$K$45,IF(VALUE(LEFT(F44,1))=3,$K$46,$K$47)))*VALUE(RIGHT(F44,1))</f>
+        <v>0</v>
+      </c>
+      <c r="F59" s="1">
+        <f>IF(VALUE(LEFT(G44,1))=1,$K$50,IF(VALUE(LEFT(G44,1))=2,$K$51,IF(VALUE(LEFT(G44,1))=3,$K$52,$K$53)))*VALUE(RIGHT(G44,1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
+      <c r="A60" s="1">
+        <v>2</v>
+      </c>
+      <c r="B60" s="1">
+        <f t="shared" ref="B60:B68" si="1">IF(VALUE(LEFT(C45,1))=1,$F$37,IF(VALUE(LEFT(C45,1))=2,$F$38,IF(VALUE(LEFT(C45,1))=3,$F$39,$F$40)))*VALUE(RIGHT(C45,1))</f>
+        <v>10</v>
+      </c>
+      <c r="C60" s="1">
+        <f t="shared" ref="C60:C68" si="2">IF(VALUE(LEFT(D45,1))=1,$J$37,IF(VALUE(LEFT(D45,1))=2,$J$38,IF(VALUE(LEFT(D45,1))=3,$J$39,$J$40)))*VALUE(RIGHT(D45,1))</f>
+        <v>0</v>
+      </c>
+      <c r="D60" s="1">
+        <f t="shared" ref="D60:D68" si="3">IF(VALUE(LEFT(E45,1))=1,$N$37,IF(VALUE(LEFT(E45,1))=2,$N$38,IF(VALUE(LEFT(E45,1))=3,$N$39,$N$40)))*VALUE(RIGHT(E45,1))</f>
+        <v>2</v>
+      </c>
+      <c r="E60" s="1">
+        <f t="shared" ref="E60:E68" si="4">IF(VALUE(LEFT(F45,1))=1,$K$44,IF(VALUE(LEFT(F45,1))=2,$K$45,IF(VALUE(LEFT(F45,1))=3,$K$46,$K$47)))*VALUE(RIGHT(F45,1))</f>
+        <v>0</v>
+      </c>
+      <c r="F60" s="1">
+        <f t="shared" ref="F60:F68" si="5">IF(VALUE(LEFT(G45,1))=1,$K$50,IF(VALUE(LEFT(G45,1))=2,$K$51,IF(VALUE(LEFT(G45,1))=3,$K$52,$K$53)))*VALUE(RIGHT(G45,1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
+      <c r="A61" s="1">
         <v>3</v>
       </c>
-      <c r="B59" s="1">
+      <c r="B61" s="1">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="C59" s="1">
+      <c r="C61" s="1">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="D59" s="1">
+      <c r="D61" s="1">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="E59" s="1">
+      <c r="E61" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="F59" s="1">
+      <c r="F61" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:11">
-      <c r="A60" s="1">
+    <row r="62" spans="1:11">
+      <c r="A62" s="1">
         <v>4</v>
       </c>
-      <c r="B60" s="1">
+      <c r="B62" s="1">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="C60" s="1">
+      <c r="C62" s="1">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="D60" s="1">
+      <c r="D62" s="1">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="E60" s="1">
+      <c r="E62" s="1">
         <f t="shared" si="4"/>
         <v>10</v>
-      </c>
-      <c r="F60" s="1">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11">
-      <c r="A61" s="1">
-        <v>5</v>
-      </c>
-      <c r="B61" s="1">
-        <f t="shared" si="1"/>
-        <v>40</v>
-      </c>
-      <c r="C61" s="1">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="D61" s="1">
-        <f t="shared" si="3"/>
-        <v>8</v>
-      </c>
-      <c r="E61" s="1">
-        <f t="shared" si="4"/>
-        <v>30</v>
-      </c>
-      <c r="F61" s="1">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11">
-      <c r="A62" s="1">
-        <v>6</v>
-      </c>
-      <c r="B62" s="1">
-        <f t="shared" si="1"/>
-        <v>50</v>
-      </c>
-      <c r="C62" s="1">
-        <f t="shared" si="2"/>
-        <v>6</v>
-      </c>
-      <c r="D62" s="1">
-        <f t="shared" si="3"/>
-        <v>12</v>
-      </c>
-      <c r="E62" s="1">
-        <f t="shared" si="4"/>
-        <v>30</v>
       </c>
       <c r="F62" s="1">
         <f t="shared" si="5"/>
@@ -4180,73 +4171,73 @@
     </row>
     <row r="63" spans="1:11">
       <c r="A63" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B63" s="1">
         <f t="shared" si="1"/>
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="C63" s="1">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D63" s="1">
         <f t="shared" si="3"/>
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E63" s="1">
         <f t="shared" si="4"/>
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="F63" s="1">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:11">
       <c r="A64" s="1">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B64" s="1">
         <f t="shared" si="1"/>
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="C64" s="1">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D64" s="1">
         <f t="shared" si="3"/>
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E64" s="1">
         <f t="shared" si="4"/>
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="F64" s="1">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="A65" s="1">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B65" s="1">
         <f t="shared" si="1"/>
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="C65" s="1">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D65" s="1">
         <f t="shared" si="3"/>
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E65" s="1">
         <f t="shared" si="4"/>
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="F65" s="1">
         <f t="shared" si="5"/>
@@ -4255,11 +4246,11 @@
     </row>
     <row r="66" spans="1:6">
       <c r="A66" s="1">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B66" s="1">
         <f t="shared" si="1"/>
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="C66" s="1">
         <f t="shared" si="2"/>
@@ -4267,21 +4258,74 @@
       </c>
       <c r="D66" s="1">
         <f t="shared" si="3"/>
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E66" s="1">
         <f t="shared" si="4"/>
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="F66" s="1">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
     </row>
+    <row r="67" spans="1:6">
+      <c r="A67" s="1">
+        <v>9</v>
+      </c>
+      <c r="B67" s="1">
+        <f t="shared" si="1"/>
+        <v>90</v>
+      </c>
+      <c r="C67" s="1">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="D67" s="1">
+        <f t="shared" si="3"/>
+        <v>18</v>
+      </c>
+      <c r="E67" s="1">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="F67" s="1">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68" s="1">
+        <v>10</v>
+      </c>
+      <c r="B68" s="1">
+        <f t="shared" si="1"/>
+        <v>90</v>
+      </c>
+      <c r="C68" s="1">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="D68" s="1">
+        <f t="shared" si="3"/>
+        <v>24</v>
+      </c>
+      <c r="E68" s="1">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="F68" s="1">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" s="13" customFormat="1"/>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="4">
     <mergeCell ref="B18:I18"/>
     <mergeCell ref="J18:Q18"/>
+    <mergeCell ref="B42:G42"/>
+    <mergeCell ref="B57:F57"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4292,7 +4336,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:DD62"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A46" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A43" workbookViewId="0">
       <selection activeCell="B62" sqref="B62:H62"/>
     </sheetView>
   </sheetViews>
@@ -4459,7 +4503,7 @@
       <c r="O8" s="30"/>
       <c r="P8" s="30"/>
       <c r="R8" s="30" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="S8" s="30"/>
       <c r="T8" s="30"/>
@@ -4996,7 +5040,7 @@
       <c r="G15" s="36"/>
       <c r="H15" s="36"/>
       <c r="K15" s="24" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="BM15" s="25"/>
       <c r="BN15" s="25"/>
@@ -7365,7 +7409,7 @@
     </row>
     <row r="40" spans="2:84" s="24" customFormat="1">
       <c r="B40" s="36" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C40" s="36"/>
       <c r="D40" s="36"/>
@@ -7382,7 +7426,7 @@
     </row>
     <row r="42" spans="2:84">
       <c r="B42" s="30" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C42" s="30"/>
       <c r="D42" s="30"/>
@@ -7391,7 +7435,7 @@
       <c r="G42" s="30"/>
       <c r="H42" s="30"/>
       <c r="I42" s="30" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="J42" s="30"/>
       <c r="K42" s="30"/>
@@ -7521,7 +7565,7 @@
     </row>
     <row r="48" spans="2:84">
       <c r="B48" s="30" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C48" s="30"/>
       <c r="D48" s="30"/>
@@ -7530,7 +7574,7 @@
       <c r="G48" s="30"/>
       <c r="H48" s="30"/>
       <c r="I48" s="30" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="J48" s="30"/>
       <c r="K48" s="30"/>
@@ -7806,7 +7850,7 @@
     </row>
     <row r="60" spans="2:71" s="24" customFormat="1">
       <c r="B60" s="36" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C60" s="36"/>
       <c r="D60" s="36"/>
@@ -7824,7 +7868,7 @@
     </row>
     <row r="62" spans="2:71">
       <c r="B62" s="38" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C62" s="38"/>
       <c r="D62" s="38"/>
@@ -7931,6 +7975,11 @@
     <mergeCell ref="B23:F23"/>
     <mergeCell ref="B20:F20"/>
     <mergeCell ref="S27:V27"/>
+    <mergeCell ref="W21:Z21"/>
+    <mergeCell ref="W22:Z22"/>
+    <mergeCell ref="W23:Z23"/>
+    <mergeCell ref="W24:Z24"/>
+    <mergeCell ref="W25:Z25"/>
     <mergeCell ref="AY19:BF19"/>
     <mergeCell ref="G26:L26"/>
     <mergeCell ref="G27:L27"/>
@@ -7944,6 +7993,17 @@
     <mergeCell ref="G23:L23"/>
     <mergeCell ref="G24:L24"/>
     <mergeCell ref="G25:L25"/>
+    <mergeCell ref="W26:Z26"/>
+    <mergeCell ref="W27:Z27"/>
+    <mergeCell ref="AA19:AH19"/>
+    <mergeCell ref="AI19:AP19"/>
+    <mergeCell ref="AQ19:AX19"/>
+    <mergeCell ref="AA20:AD20"/>
+    <mergeCell ref="AE20:AH20"/>
+    <mergeCell ref="AI20:AL20"/>
+    <mergeCell ref="AM20:AP20"/>
+    <mergeCell ref="AQ20:AT20"/>
+    <mergeCell ref="W20:Z20"/>
     <mergeCell ref="Y38:AB38"/>
     <mergeCell ref="B31:H31"/>
     <mergeCell ref="B32:H32"/>
@@ -7968,22 +8028,6 @@
     <mergeCell ref="O37:T37"/>
     <mergeCell ref="O38:T38"/>
     <mergeCell ref="B34:H34"/>
-    <mergeCell ref="W26:Z26"/>
-    <mergeCell ref="W27:Z27"/>
-    <mergeCell ref="AA19:AH19"/>
-    <mergeCell ref="AI19:AP19"/>
-    <mergeCell ref="AQ19:AX19"/>
-    <mergeCell ref="AA20:AD20"/>
-    <mergeCell ref="AE20:AH20"/>
-    <mergeCell ref="AI20:AL20"/>
-    <mergeCell ref="AM20:AP20"/>
-    <mergeCell ref="AQ20:AT20"/>
-    <mergeCell ref="W20:Z20"/>
-    <mergeCell ref="W21:Z21"/>
-    <mergeCell ref="W22:Z22"/>
-    <mergeCell ref="W23:Z23"/>
-    <mergeCell ref="W24:Z24"/>
-    <mergeCell ref="W25:Z25"/>
     <mergeCell ref="AA22:AD22"/>
     <mergeCell ref="AE22:AH22"/>
     <mergeCell ref="AI22:AL22"/>
